--- a/BackTest/2020-01-19 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-19 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>242.5</v>
+        <v>242.4</v>
       </c>
       <c r="C2" t="n">
-        <v>242.6</v>
+        <v>242.4</v>
       </c>
       <c r="D2" t="n">
-        <v>242.6</v>
+        <v>242.4</v>
       </c>
       <c r="E2" t="n">
-        <v>242.5</v>
+        <v>242.4</v>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>238.3783333333333</v>
+        <v>238.2499999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>241</v>
+        <v>242.5</v>
       </c>
       <c r="C3" t="n">
-        <v>241</v>
+        <v>242.6</v>
       </c>
       <c r="D3" t="n">
-        <v>241</v>
+        <v>242.6</v>
       </c>
       <c r="E3" t="n">
-        <v>241</v>
+        <v>242.5</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G3" t="n">
-        <v>238.4316666666666</v>
+        <v>238.3783333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>241</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>238.485</v>
+        <v>238.4316666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>241.7</v>
+        <v>241</v>
       </c>
       <c r="C5" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D5" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E5" t="n">
-        <v>241.7</v>
+        <v>241</v>
       </c>
       <c r="F5" t="n">
-        <v>34528.7658</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>238.585</v>
+        <v>238.485</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>240</v>
+        <v>241.7</v>
       </c>
       <c r="C6" t="n">
-        <v>238.5</v>
+        <v>242</v>
       </c>
       <c r="D6" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E6" t="n">
-        <v>238</v>
+        <v>241.7</v>
       </c>
       <c r="F6" t="n">
-        <v>3540.601</v>
+        <v>34528.7658</v>
       </c>
       <c r="G6" t="n">
-        <v>238.6283333333333</v>
+        <v>238.585</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>238.5</v>
+        <v>240</v>
       </c>
       <c r="C7" t="n">
         <v>238.5</v>
       </c>
       <c r="D7" t="n">
-        <v>238.5</v>
+        <v>240</v>
       </c>
       <c r="E7" t="n">
-        <v>238.5</v>
+        <v>238</v>
       </c>
       <c r="F7" t="n">
-        <v>1600</v>
+        <v>3540.601</v>
       </c>
       <c r="G7" t="n">
-        <v>238.6683333333333</v>
+        <v>238.6283333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>238.5</v>
       </c>
       <c r="F8" t="n">
-        <v>857.4233</v>
+        <v>1600</v>
       </c>
       <c r="G8" t="n">
-        <v>238.6966666666667</v>
+        <v>238.6683333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>238.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1054.2</v>
+        <v>857.4233</v>
       </c>
       <c r="G9" t="n">
-        <v>238.725</v>
+        <v>238.6966666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>238.5</v>
       </c>
       <c r="F10" t="n">
-        <v>776.7584000000001</v>
+        <v>1054.2</v>
       </c>
       <c r="G10" t="n">
-        <v>238.7516666666667</v>
+        <v>238.725</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>238</v>
+        <v>238.5</v>
       </c>
       <c r="C11" t="n">
-        <v>237</v>
+        <v>238.5</v>
       </c>
       <c r="D11" t="n">
-        <v>238</v>
+        <v>238.5</v>
       </c>
       <c r="E11" t="n">
-        <v>237</v>
+        <v>238.5</v>
       </c>
       <c r="F11" t="n">
-        <v>3000</v>
+        <v>776.7584000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>238.7533333333334</v>
+        <v>238.7516666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C12" t="n">
         <v>237</v>
       </c>
       <c r="D12" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E12" t="n">
         <v>237</v>
       </c>
       <c r="F12" t="n">
-        <v>141.4093</v>
+        <v>3000</v>
       </c>
       <c r="G12" t="n">
-        <v>238.7366666666667</v>
+        <v>238.7533333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>239.4</v>
+        <v>237</v>
       </c>
       <c r="C13" t="n">
-        <v>240.9</v>
+        <v>237</v>
       </c>
       <c r="D13" t="n">
-        <v>241.9</v>
+        <v>237</v>
       </c>
       <c r="E13" t="n">
-        <v>239.4</v>
+        <v>237</v>
       </c>
       <c r="F13" t="n">
-        <v>5810.3</v>
+        <v>141.4093</v>
       </c>
       <c r="G13" t="n">
-        <v>238.785</v>
+        <v>238.7366666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>241.3</v>
+        <v>239.4</v>
       </c>
       <c r="C14" t="n">
-        <v>241.9</v>
+        <v>240.9</v>
       </c>
       <c r="D14" t="n">
         <v>241.9</v>
       </c>
       <c r="E14" t="n">
-        <v>241.3</v>
+        <v>239.4</v>
       </c>
       <c r="F14" t="n">
-        <v>2007</v>
+        <v>5810.3</v>
       </c>
       <c r="G14" t="n">
-        <v>238.8333333333333</v>
+        <v>238.785</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>242</v>
+        <v>241.3</v>
       </c>
       <c r="C15" t="n">
-        <v>243</v>
+        <v>241.9</v>
       </c>
       <c r="D15" t="n">
-        <v>243</v>
+        <v>241.9</v>
       </c>
       <c r="E15" t="n">
-        <v>242</v>
+        <v>241.3</v>
       </c>
       <c r="F15" t="n">
-        <v>43668.996</v>
+        <v>2007</v>
       </c>
       <c r="G15" t="n">
-        <v>238.9</v>
+        <v>238.8333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" t="n">
         <v>243</v>
@@ -932,13 +932,13 @@
         <v>243</v>
       </c>
       <c r="E16" t="n">
-        <v>242.7</v>
+        <v>242</v>
       </c>
       <c r="F16" t="n">
-        <v>10323.2002</v>
+        <v>43668.996</v>
       </c>
       <c r="G16" t="n">
-        <v>238.9833333333333</v>
+        <v>238.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>243</v>
       </c>
       <c r="E17" t="n">
-        <v>243</v>
+        <v>242.7</v>
       </c>
       <c r="F17" t="n">
-        <v>12800.7842</v>
+        <v>10323.2002</v>
       </c>
       <c r="G17" t="n">
-        <v>239.0666666666667</v>
+        <v>238.9833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>243</v>
       </c>
       <c r="F18" t="n">
-        <v>564.1583000000001</v>
+        <v>12800.7842</v>
       </c>
       <c r="G18" t="n">
-        <v>239.165</v>
+        <v>239.0666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>243</v>
       </c>
       <c r="C19" t="n">
-        <v>246.4</v>
+        <v>243</v>
       </c>
       <c r="D19" t="n">
-        <v>246.4</v>
+        <v>243</v>
       </c>
       <c r="E19" t="n">
         <v>243</v>
       </c>
       <c r="F19" t="n">
-        <v>34767.6846</v>
+        <v>564.1583000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>239.3366666666666</v>
+        <v>239.165</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>243</v>
+      </c>
+      <c r="C20" t="n">
         <v>246.4</v>
       </c>
-      <c r="C20" t="n">
-        <v>249.8</v>
-      </c>
       <c r="D20" t="n">
-        <v>249.8</v>
+        <v>246.4</v>
       </c>
       <c r="E20" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F20" t="n">
-        <v>3924.1801</v>
+        <v>34767.6846</v>
       </c>
       <c r="G20" t="n">
-        <v>239.5333333333333</v>
+        <v>239.3366666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>249.7</v>
+        <v>246.4</v>
       </c>
       <c r="C21" t="n">
         <v>249.8</v>
@@ -1107,13 +1107,13 @@
         <v>249.8</v>
       </c>
       <c r="E21" t="n">
-        <v>249.7</v>
+        <v>246</v>
       </c>
       <c r="F21" t="n">
-        <v>3787</v>
+        <v>3924.1801</v>
       </c>
       <c r="G21" t="n">
-        <v>239.7616666666666</v>
+        <v>239.5333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>248.8</v>
+        <v>249.7</v>
       </c>
       <c r="C22" t="n">
         <v>249.8</v>
@@ -1142,13 +1142,13 @@
         <v>249.8</v>
       </c>
       <c r="E22" t="n">
-        <v>248.8</v>
+        <v>249.7</v>
       </c>
       <c r="F22" t="n">
-        <v>4094.826</v>
+        <v>3787</v>
       </c>
       <c r="G22" t="n">
-        <v>239.9899999999999</v>
+        <v>239.7616666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>249.8</v>
+        <v>248.8</v>
       </c>
       <c r="C23" t="n">
         <v>249.8</v>
@@ -1177,13 +1177,13 @@
         <v>249.8</v>
       </c>
       <c r="E23" t="n">
-        <v>248.7</v>
+        <v>248.8</v>
       </c>
       <c r="F23" t="n">
-        <v>3977.2142</v>
+        <v>4094.826</v>
       </c>
       <c r="G23" t="n">
-        <v>240.2216666666666</v>
+        <v>239.9899999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>249.7</v>
+        <v>249.8</v>
       </c>
       <c r="C24" t="n">
-        <v>249.7</v>
+        <v>249.8</v>
       </c>
       <c r="D24" t="n">
-        <v>249.7</v>
+        <v>249.8</v>
       </c>
       <c r="E24" t="n">
-        <v>249.7</v>
+        <v>248.7</v>
       </c>
       <c r="F24" t="n">
-        <v>5726.627</v>
+        <v>3977.2142</v>
       </c>
       <c r="G24" t="n">
-        <v>240.4333333333333</v>
+        <v>240.2216666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>248</v>
+        <v>249.7</v>
       </c>
       <c r="C25" t="n">
-        <v>248.7</v>
+        <v>249.7</v>
       </c>
       <c r="D25" t="n">
-        <v>248.7</v>
+        <v>249.7</v>
       </c>
       <c r="E25" t="n">
-        <v>248</v>
+        <v>249.7</v>
       </c>
       <c r="F25" t="n">
-        <v>6912.5958</v>
+        <v>5726.627</v>
       </c>
       <c r="G25" t="n">
-        <v>240.645</v>
+        <v>240.4333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>248</v>
+      </c>
+      <c r="C26" t="n">
         <v>248.7</v>
       </c>
-      <c r="C26" t="n">
-        <v>254.3</v>
-      </c>
       <c r="D26" t="n">
-        <v>254.3</v>
+        <v>248.7</v>
       </c>
       <c r="E26" t="n">
-        <v>248.7</v>
+        <v>248</v>
       </c>
       <c r="F26" t="n">
-        <v>22572.0424</v>
+        <v>6912.5958</v>
       </c>
       <c r="G26" t="n">
-        <v>240.9333333333333</v>
+        <v>240.645</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>254.3</v>
+        <v>248.7</v>
       </c>
       <c r="C27" t="n">
         <v>254.3</v>
@@ -1317,13 +1317,13 @@
         <v>254.3</v>
       </c>
       <c r="E27" t="n">
-        <v>254</v>
+        <v>248.7</v>
       </c>
       <c r="F27" t="n">
-        <v>621</v>
+        <v>22572.0424</v>
       </c>
       <c r="G27" t="n">
-        <v>241.2216666666666</v>
+        <v>240.9333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>254.3</v>
       </c>
       <c r="C28" t="n">
-        <v>258.7</v>
+        <v>254.3</v>
       </c>
       <c r="D28" t="n">
-        <v>258.7</v>
+        <v>254.3</v>
       </c>
       <c r="E28" t="n">
-        <v>254.3</v>
+        <v>254</v>
       </c>
       <c r="F28" t="n">
-        <v>20748.5795</v>
+        <v>621</v>
       </c>
       <c r="G28" t="n">
-        <v>241.5666666666666</v>
+        <v>241.2216666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>258.9</v>
+        <v>254.3</v>
       </c>
       <c r="C29" t="n">
-        <v>259.8</v>
+        <v>258.7</v>
       </c>
       <c r="D29" t="n">
-        <v>259.8</v>
+        <v>258.7</v>
       </c>
       <c r="E29" t="n">
-        <v>258.9</v>
+        <v>254.3</v>
       </c>
       <c r="F29" t="n">
-        <v>15182.7355</v>
+        <v>20748.5795</v>
       </c>
       <c r="G29" t="n">
-        <v>241.9299999999999</v>
+        <v>241.5666666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,28 +1413,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>258.9</v>
+      </c>
+      <c r="C30" t="n">
         <v>259.8</v>
       </c>
-      <c r="C30" t="n">
-        <v>261</v>
-      </c>
       <c r="D30" t="n">
-        <v>261</v>
+        <v>259.8</v>
       </c>
       <c r="E30" t="n">
-        <v>259.8</v>
+        <v>258.9</v>
       </c>
       <c r="F30" t="n">
-        <v>14066.996</v>
+        <v>15182.7355</v>
       </c>
       <c r="G30" t="n">
-        <v>242.3133333333332</v>
+        <v>241.9299999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1448,28 +1448,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>260.1</v>
+        <v>259.8</v>
       </c>
       <c r="C31" t="n">
-        <v>260.1</v>
+        <v>261</v>
       </c>
       <c r="D31" t="n">
-        <v>260.1</v>
+        <v>261</v>
       </c>
       <c r="E31" t="n">
-        <v>260.1</v>
+        <v>259.8</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>14066.996</v>
       </c>
       <c r="G31" t="n">
-        <v>242.6783333333333</v>
+        <v>242.3133333333332</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1483,28 +1483,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>254</v>
+        <v>260.1</v>
       </c>
       <c r="C32" t="n">
-        <v>259</v>
+        <v>260.1</v>
       </c>
       <c r="D32" t="n">
-        <v>260</v>
+        <v>260.1</v>
       </c>
       <c r="E32" t="n">
-        <v>251</v>
+        <v>260.1</v>
       </c>
       <c r="F32" t="n">
-        <v>5353.0442</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>243.0283333333333</v>
+        <v>242.6783333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C33" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D33" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E33" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F33" t="n">
-        <v>10491.8994</v>
+        <v>5353.0442</v>
       </c>
       <c r="G33" t="n">
-        <v>243.2749999999999</v>
+        <v>243.0283333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C34" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D34" t="n">
         <v>254</v>
       </c>
       <c r="E34" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F34" t="n">
-        <v>14217.9644</v>
+        <v>10491.8994</v>
       </c>
       <c r="G34" t="n">
-        <v>243.5283333333333</v>
+        <v>243.2749999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D35" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E35" t="n">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F35" t="n">
-        <v>16.3983</v>
+        <v>14217.9644</v>
       </c>
       <c r="G35" t="n">
-        <v>243.7283333333333</v>
+        <v>243.5283333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>252</v>
       </c>
       <c r="C36" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D36" t="n">
-        <v>253.9</v>
+        <v>252</v>
       </c>
       <c r="E36" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F36" t="n">
-        <v>484.7</v>
+        <v>16.3983</v>
       </c>
       <c r="G36" t="n">
-        <v>243.8949999999999</v>
+        <v>243.7283333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C37" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D37" t="n">
-        <v>259</v>
+        <v>253.9</v>
       </c>
       <c r="E37" t="n">
-        <v>246.1</v>
+        <v>250</v>
       </c>
       <c r="F37" t="n">
-        <v>11297.1575</v>
+        <v>484.7</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2449999999999</v>
+        <v>243.8949999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>248</v>
+      </c>
+      <c r="C38" t="n">
         <v>259</v>
       </c>
-      <c r="C38" t="n">
-        <v>265</v>
-      </c>
       <c r="D38" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E38" t="n">
-        <v>253</v>
+        <v>246.1</v>
       </c>
       <c r="F38" t="n">
-        <v>12191.61467664151</v>
+        <v>11297.1575</v>
       </c>
       <c r="G38" t="n">
-        <v>244.6449999999999</v>
+        <v>244.2449999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C39" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D39" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E39" t="n">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F39" t="n">
-        <v>22</v>
+        <v>12191.61467664151</v>
       </c>
       <c r="G39" t="n">
-        <v>245.0616666666666</v>
+        <v>244.6449999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C40" t="n">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D40" t="n">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E40" t="n">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F40" t="n">
-        <v>1502.1698</v>
+        <v>22</v>
       </c>
       <c r="G40" t="n">
-        <v>245.3399999999999</v>
+        <v>245.0616666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>253.9</v>
+        <v>253</v>
       </c>
       <c r="C41" t="n">
-        <v>253.9</v>
+        <v>255</v>
       </c>
       <c r="D41" t="n">
-        <v>253.9</v>
+        <v>255</v>
       </c>
       <c r="E41" t="n">
-        <v>253.9</v>
+        <v>253</v>
       </c>
       <c r="F41" t="n">
-        <v>22</v>
+        <v>1502.1698</v>
       </c>
       <c r="G41" t="n">
-        <v>245.5833333333333</v>
+        <v>245.3399999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>252</v>
+        <v>253.9</v>
       </c>
       <c r="C42" t="n">
-        <v>255.9</v>
+        <v>253.9</v>
       </c>
       <c r="D42" t="n">
-        <v>257</v>
+        <v>253.9</v>
       </c>
       <c r="E42" t="n">
-        <v>252</v>
+        <v>253.9</v>
       </c>
       <c r="F42" t="n">
-        <v>3901.2</v>
+        <v>22</v>
       </c>
       <c r="G42" t="n">
-        <v>245.86</v>
+        <v>245.5833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>254.9</v>
+        <v>252</v>
       </c>
       <c r="C43" t="n">
-        <v>256</v>
+        <v>255.9</v>
       </c>
       <c r="D43" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E43" t="n">
-        <v>254.9</v>
+        <v>252</v>
       </c>
       <c r="F43" t="n">
-        <v>150.0407</v>
+        <v>3901.2</v>
       </c>
       <c r="G43" t="n">
-        <v>246.1266666666666</v>
+        <v>245.86</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>255.9</v>
+        <v>254.9</v>
       </c>
       <c r="C44" t="n">
         <v>256</v>
@@ -1912,13 +1912,13 @@
         <v>256</v>
       </c>
       <c r="E44" t="n">
-        <v>255</v>
+        <v>254.9</v>
       </c>
       <c r="F44" t="n">
-        <v>28</v>
+        <v>150.0407</v>
       </c>
       <c r="G44" t="n">
-        <v>246.3933333333333</v>
+        <v>246.1266666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>253.1</v>
+        <v>255.9</v>
       </c>
       <c r="C45" t="n">
-        <v>264.9</v>
+        <v>256</v>
       </c>
       <c r="D45" t="n">
-        <v>264.9</v>
+        <v>256</v>
       </c>
       <c r="E45" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F45" t="n">
-        <v>13397.7295</v>
+        <v>28</v>
       </c>
       <c r="G45" t="n">
-        <v>246.8083333333333</v>
+        <v>246.3933333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>264</v>
+        <v>253.1</v>
       </c>
       <c r="C46" t="n">
-        <v>264</v>
+        <v>264.9</v>
       </c>
       <c r="D46" t="n">
-        <v>264</v>
+        <v>264.9</v>
       </c>
       <c r="E46" t="n">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>13397.7295</v>
       </c>
       <c r="G46" t="n">
-        <v>247.2083333333333</v>
+        <v>246.8083333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C47" t="n">
-        <v>263.9</v>
+        <v>264</v>
       </c>
       <c r="D47" t="n">
-        <v>263.9</v>
+        <v>264</v>
       </c>
       <c r="E47" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F47" t="n">
-        <v>1778.9</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>247.6399999999999</v>
+        <v>247.2083333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C48" t="n">
-        <v>245.9</v>
+        <v>263.9</v>
       </c>
       <c r="D48" t="n">
-        <v>253</v>
+        <v>263.9</v>
       </c>
       <c r="E48" t="n">
-        <v>245.9</v>
+        <v>254</v>
       </c>
       <c r="F48" t="n">
-        <v>13966.8673</v>
+        <v>1778.9</v>
       </c>
       <c r="G48" t="n">
-        <v>247.7716666666666</v>
+        <v>247.6399999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C49" t="n">
-        <v>251</v>
+        <v>245.9</v>
       </c>
       <c r="D49" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E49" t="n">
-        <v>251</v>
+        <v>245.9</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>13966.8673</v>
       </c>
       <c r="G49" t="n">
-        <v>247.9716666666666</v>
+        <v>247.7716666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C50" t="n">
-        <v>245.8</v>
+        <v>251</v>
       </c>
       <c r="D50" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E50" t="n">
-        <v>245.8</v>
+        <v>251</v>
       </c>
       <c r="F50" t="n">
-        <v>12020.254</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>248.1016666666666</v>
+        <v>247.9716666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C51" t="n">
-        <v>251.9</v>
+        <v>245.8</v>
       </c>
       <c r="D51" t="n">
-        <v>251.9</v>
+        <v>247</v>
       </c>
       <c r="E51" t="n">
-        <v>237.5</v>
+        <v>245.8</v>
       </c>
       <c r="F51" t="n">
-        <v>12312.6147</v>
+        <v>12020.254</v>
       </c>
       <c r="G51" t="n">
-        <v>248.3333333333332</v>
+        <v>248.1016666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>245.9</v>
+        <v>245</v>
       </c>
       <c r="C52" t="n">
-        <v>245.9</v>
+        <v>251.9</v>
       </c>
       <c r="D52" t="n">
-        <v>245.9</v>
+        <v>251.9</v>
       </c>
       <c r="E52" t="n">
-        <v>245.9</v>
+        <v>237.5</v>
       </c>
       <c r="F52" t="n">
-        <v>1997.2</v>
+        <v>12312.6147</v>
       </c>
       <c r="G52" t="n">
-        <v>248.4649999999999</v>
+        <v>248.3333333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>246</v>
+        <v>245.9</v>
       </c>
       <c r="C53" t="n">
-        <v>246</v>
+        <v>245.9</v>
       </c>
       <c r="D53" t="n">
-        <v>246</v>
+        <v>245.9</v>
       </c>
       <c r="E53" t="n">
-        <v>246</v>
+        <v>245.9</v>
       </c>
       <c r="F53" t="n">
-        <v>18</v>
+        <v>1997.2</v>
       </c>
       <c r="G53" t="n">
-        <v>248.5983333333332</v>
+        <v>248.4649999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>246</v>
       </c>
       <c r="C54" t="n">
-        <v>260.8</v>
+        <v>246</v>
       </c>
       <c r="D54" t="n">
-        <v>260.9</v>
+        <v>246</v>
       </c>
       <c r="E54" t="n">
         <v>246</v>
       </c>
       <c r="F54" t="n">
-        <v>729</v>
+        <v>18</v>
       </c>
       <c r="G54" t="n">
-        <v>248.9616666666666</v>
+        <v>248.5983333333332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>246</v>
       </c>
       <c r="C55" t="n">
-        <v>247</v>
+        <v>260.8</v>
       </c>
       <c r="D55" t="n">
-        <v>247</v>
+        <v>260.9</v>
       </c>
       <c r="E55" t="n">
-        <v>242.2</v>
+        <v>246</v>
       </c>
       <c r="F55" t="n">
-        <v>2787.6352</v>
+        <v>729</v>
       </c>
       <c r="G55" t="n">
-        <v>249.0783333333332</v>
+        <v>248.9616666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>246</v>
       </c>
       <c r="C56" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D56" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E56" t="n">
-        <v>246</v>
+        <v>242.2</v>
       </c>
       <c r="F56" t="n">
-        <v>50</v>
+        <v>2787.6352</v>
       </c>
       <c r="G56" t="n">
-        <v>249.1949999999999</v>
+        <v>249.0783333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>245.6</v>
+        <v>246</v>
       </c>
       <c r="C57" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D57" t="n">
-        <v>245.6</v>
+        <v>246</v>
       </c>
       <c r="E57" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F57" t="n">
-        <v>3858.7843</v>
+        <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>249.2116666666666</v>
+        <v>249.1949999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>245.5</v>
+        <v>245.6</v>
       </c>
       <c r="C58" t="n">
-        <v>245.5</v>
+        <v>240</v>
       </c>
       <c r="D58" t="n">
-        <v>245.5</v>
+        <v>245.6</v>
       </c>
       <c r="E58" t="n">
-        <v>245.5</v>
+        <v>240</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>3858.7843</v>
       </c>
       <c r="G58" t="n">
-        <v>249.2866666666665</v>
+        <v>249.2116666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>240</v>
+        <v>245.5</v>
       </c>
       <c r="C59" t="n">
-        <v>240</v>
+        <v>245.5</v>
       </c>
       <c r="D59" t="n">
-        <v>240</v>
+        <v>245.5</v>
       </c>
       <c r="E59" t="n">
-        <v>240</v>
+        <v>245.5</v>
       </c>
       <c r="F59" t="n">
-        <v>1199.4851</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>249.2699999999999</v>
+        <v>249.2866666666665</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C60" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D60" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E60" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1199.4851</v>
       </c>
       <c r="G60" t="n">
-        <v>249.2983333333332</v>
+        <v>249.2699999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>245.5</v>
+        <v>244</v>
       </c>
       <c r="C61" t="n">
-        <v>245.5</v>
+        <v>244</v>
       </c>
       <c r="D61" t="n">
-        <v>245.5</v>
+        <v>244</v>
       </c>
       <c r="E61" t="n">
-        <v>245.5</v>
+        <v>244</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>249.3499999999999</v>
+        <v>249.2983333333332</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,31 +2533,35 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>245.9</v>
+        <v>245.5</v>
       </c>
       <c r="C62" t="n">
-        <v>245.9</v>
+        <v>245.5</v>
       </c>
       <c r="D62" t="n">
-        <v>245.9</v>
+        <v>245.5</v>
       </c>
       <c r="E62" t="n">
-        <v>245.9</v>
+        <v>245.5</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>249.4049999999999</v>
+        <v>249.3499999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>244</v>
+      </c>
+      <c r="K62" t="n">
+        <v>244</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2580,10 +2584,10 @@
         <v>245.9</v>
       </c>
       <c r="F63" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>249.4866666666666</v>
+        <v>249.4049999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>244</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2613,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>240.5</v>
+        <v>245.9</v>
       </c>
       <c r="C64" t="n">
-        <v>238.3</v>
+        <v>245.9</v>
       </c>
       <c r="D64" t="n">
-        <v>240.5</v>
+        <v>245.9</v>
       </c>
       <c r="E64" t="n">
-        <v>238.3</v>
+        <v>245.9</v>
       </c>
       <c r="F64" t="n">
-        <v>9170.357</v>
+        <v>12</v>
       </c>
       <c r="G64" t="n">
-        <v>249.4416666666665</v>
+        <v>249.4866666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2637,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>244</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>243.8</v>
+        <v>240.5</v>
       </c>
       <c r="C65" t="n">
-        <v>243.8</v>
+        <v>238.3</v>
       </c>
       <c r="D65" t="n">
-        <v>243.8</v>
+        <v>240.5</v>
       </c>
       <c r="E65" t="n">
-        <v>243.8</v>
+        <v>238.3</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>9170.357</v>
       </c>
       <c r="G65" t="n">
-        <v>249.4716666666665</v>
+        <v>249.4416666666665</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>240.5</v>
+        <v>243.8</v>
       </c>
       <c r="C66" t="n">
-        <v>240.5</v>
+        <v>243.8</v>
       </c>
       <c r="D66" t="n">
-        <v>240.5</v>
+        <v>243.8</v>
       </c>
       <c r="E66" t="n">
-        <v>240.5</v>
+        <v>243.8</v>
       </c>
       <c r="F66" t="n">
-        <v>3.8698</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>249.5049999999999</v>
+        <v>249.4716666666665</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>243.8</v>
+        <v>240.5</v>
       </c>
       <c r="C67" t="n">
-        <v>243.8</v>
+        <v>240.5</v>
       </c>
       <c r="D67" t="n">
-        <v>243.8</v>
+        <v>240.5</v>
       </c>
       <c r="E67" t="n">
-        <v>243.8</v>
+        <v>240.5</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>3.8698</v>
       </c>
       <c r="G67" t="n">
-        <v>249.5933333333332</v>
+        <v>249.5049999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>240.5</v>
+        <v>243.8</v>
       </c>
       <c r="C68" t="n">
-        <v>240.5</v>
+        <v>243.8</v>
       </c>
       <c r="D68" t="n">
-        <v>240.5</v>
+        <v>243.8</v>
       </c>
       <c r="E68" t="n">
-        <v>240.5</v>
+        <v>243.8</v>
       </c>
       <c r="F68" t="n">
-        <v>6619.0557</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>249.6266666666665</v>
+        <v>249.5933333333332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2806,10 @@
         <v>240.5</v>
       </c>
       <c r="F69" t="n">
-        <v>128.0484</v>
+        <v>6619.0557</v>
       </c>
       <c r="G69" t="n">
-        <v>249.6599999999999</v>
+        <v>249.6266666666665</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2829,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>241.9</v>
+        <v>240.5</v>
       </c>
       <c r="C70" t="n">
-        <v>259.8</v>
+        <v>240.5</v>
       </c>
       <c r="D70" t="n">
-        <v>259.8</v>
+        <v>240.5</v>
       </c>
       <c r="E70" t="n">
-        <v>241.9</v>
+        <v>240.5</v>
       </c>
       <c r="F70" t="n">
-        <v>4766.4799</v>
+        <v>128.0484</v>
       </c>
       <c r="G70" t="n">
-        <v>250.0149999999998</v>
+        <v>249.6599999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,38 +2864,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>240.5</v>
+        <v>241.9</v>
       </c>
       <c r="C71" t="n">
-        <v>241</v>
+        <v>259.8</v>
       </c>
       <c r="D71" t="n">
-        <v>241</v>
+        <v>259.8</v>
       </c>
       <c r="E71" t="n">
-        <v>240.5</v>
+        <v>241.9</v>
       </c>
       <c r="F71" t="n">
-        <v>310.6277</v>
+        <v>4766.4799</v>
       </c>
       <c r="G71" t="n">
-        <v>250.0816666666665</v>
+        <v>250.0149999999998</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>259.8</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2889,22 +2899,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>255</v>
+        <v>240.5</v>
       </c>
       <c r="C72" t="n">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D72" t="n">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E72" t="n">
-        <v>251.7</v>
+        <v>240.5</v>
       </c>
       <c r="F72" t="n">
-        <v>6660.05</v>
+        <v>310.6277</v>
       </c>
       <c r="G72" t="n">
-        <v>250.3816666666665</v>
+        <v>250.0816666666665</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2914,11 +2924,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2928,22 +2934,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>253.8</v>
+        <v>255</v>
       </c>
       <c r="C73" t="n">
-        <v>253.8</v>
+        <v>255</v>
       </c>
       <c r="D73" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E73" t="n">
-        <v>253.8</v>
+        <v>251.7</v>
       </c>
       <c r="F73" t="n">
-        <v>1392.6573</v>
+        <v>6660.05</v>
       </c>
       <c r="G73" t="n">
-        <v>250.5966666666665</v>
+        <v>250.3816666666665</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,11 +2959,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2967,22 +2969,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>250</v>
+        <v>253.8</v>
       </c>
       <c r="C74" t="n">
-        <v>250</v>
+        <v>253.8</v>
       </c>
       <c r="D74" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E74" t="n">
-        <v>250</v>
+        <v>253.8</v>
       </c>
       <c r="F74" t="n">
-        <v>62.6016</v>
+        <v>1392.6573</v>
       </c>
       <c r="G74" t="n">
-        <v>250.7316666666665</v>
+        <v>250.5966666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2992,11 +2994,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3006,22 +3004,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>246.9</v>
+        <v>250</v>
       </c>
       <c r="C75" t="n">
-        <v>246.9</v>
+        <v>250</v>
       </c>
       <c r="D75" t="n">
-        <v>246.9</v>
+        <v>250</v>
       </c>
       <c r="E75" t="n">
-        <v>246.9</v>
+        <v>250</v>
       </c>
       <c r="F75" t="n">
-        <v>2098.1563</v>
+        <v>62.6016</v>
       </c>
       <c r="G75" t="n">
-        <v>250.7966666666665</v>
+        <v>250.7316666666665</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3031,11 +3029,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3045,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>247</v>
+        <v>246.9</v>
       </c>
       <c r="C76" t="n">
-        <v>248.9</v>
+        <v>246.9</v>
       </c>
       <c r="D76" t="n">
-        <v>248.9</v>
+        <v>246.9</v>
       </c>
       <c r="E76" t="n">
-        <v>245</v>
+        <v>246.9</v>
       </c>
       <c r="F76" t="n">
-        <v>2769.2535</v>
+        <v>2098.1563</v>
       </c>
       <c r="G76" t="n">
-        <v>250.8949999999998</v>
+        <v>250.7966666666665</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,11 +3064,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3084,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>243.5</v>
+        <v>247</v>
       </c>
       <c r="C77" t="n">
-        <v>243.5</v>
+        <v>248.9</v>
       </c>
       <c r="D77" t="n">
-        <v>243.5</v>
+        <v>248.9</v>
       </c>
       <c r="E77" t="n">
-        <v>243.5</v>
+        <v>245</v>
       </c>
       <c r="F77" t="n">
-        <v>3784.9</v>
+        <v>2769.2535</v>
       </c>
       <c r="G77" t="n">
-        <v>250.9033333333332</v>
+        <v>250.8949999999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3109,11 +3099,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3123,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>243</v>
+        <v>243.5</v>
       </c>
       <c r="C78" t="n">
-        <v>242.5</v>
+        <v>243.5</v>
       </c>
       <c r="D78" t="n">
-        <v>243</v>
+        <v>243.5</v>
       </c>
       <c r="E78" t="n">
-        <v>242.5</v>
+        <v>243.5</v>
       </c>
       <c r="F78" t="n">
-        <v>2226.4</v>
+        <v>3784.9</v>
       </c>
       <c r="G78" t="n">
-        <v>250.8949999999998</v>
+        <v>250.9033333333332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3148,11 +3134,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3162,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>243</v>
+      </c>
+      <c r="C79" t="n">
         <v>242.5</v>
       </c>
-      <c r="C79" t="n">
-        <v>246</v>
-      </c>
       <c r="D79" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E79" t="n">
         <v>242.5</v>
       </c>
       <c r="F79" t="n">
-        <v>404.1407</v>
+        <v>2226.4</v>
       </c>
       <c r="G79" t="n">
-        <v>250.8883333333332</v>
+        <v>250.8949999999998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3187,11 +3169,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3201,10 +3179,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="C80" t="n">
         <v>246</v>
-      </c>
-      <c r="C80" t="n">
-        <v>242.5</v>
       </c>
       <c r="D80" t="n">
         <v>246</v>
@@ -3213,10 +3191,10 @@
         <v>242.5</v>
       </c>
       <c r="F80" t="n">
-        <v>15004</v>
+        <v>404.1407</v>
       </c>
       <c r="G80" t="n">
-        <v>250.7666666666665</v>
+        <v>250.8883333333332</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3226,11 +3204,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3240,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C81" t="n">
-        <v>245</v>
+        <v>242.5</v>
       </c>
       <c r="D81" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E81" t="n">
-        <v>245</v>
+        <v>242.5</v>
       </c>
       <c r="F81" t="n">
-        <v>22</v>
+        <v>15004</v>
       </c>
       <c r="G81" t="n">
-        <v>250.6866666666665</v>
+        <v>250.7666666666665</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3265,11 +3239,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3279,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C82" t="n">
-        <v>246.5</v>
+        <v>245</v>
       </c>
       <c r="D82" t="n">
-        <v>246.5</v>
+        <v>245</v>
       </c>
       <c r="E82" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F82" t="n">
-        <v>2104.4812</v>
+        <v>22</v>
       </c>
       <c r="G82" t="n">
-        <v>250.6316666666665</v>
+        <v>250.6866666666665</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3304,11 +3274,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3318,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>243</v>
+      </c>
+      <c r="C83" t="n">
         <v>246.5</v>
-      </c>
-      <c r="C83" t="n">
-        <v>246.4</v>
       </c>
       <c r="D83" t="n">
         <v>246.5</v>
       </c>
       <c r="E83" t="n">
-        <v>246.4</v>
+        <v>243</v>
       </c>
       <c r="F83" t="n">
-        <v>1944.8321</v>
+        <v>2104.4812</v>
       </c>
       <c r="G83" t="n">
-        <v>250.5749999999999</v>
+        <v>250.6316666666665</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3343,11 +3309,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3357,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>245</v>
+        <v>246.5</v>
       </c>
       <c r="C84" t="n">
-        <v>245.4</v>
+        <v>246.4</v>
       </c>
       <c r="D84" t="n">
-        <v>245.4</v>
+        <v>246.5</v>
       </c>
       <c r="E84" t="n">
-        <v>245</v>
+        <v>246.4</v>
       </c>
       <c r="F84" t="n">
-        <v>31</v>
+        <v>1944.8321</v>
       </c>
       <c r="G84" t="n">
-        <v>250.5033333333332</v>
+        <v>250.5749999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3382,11 +3344,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3396,7 +3354,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>245.4</v>
+        <v>245</v>
       </c>
       <c r="C85" t="n">
         <v>245.4</v>
@@ -3405,13 +3363,13 @@
         <v>245.4</v>
       </c>
       <c r="E85" t="n">
-        <v>245.4</v>
+        <v>245</v>
       </c>
       <c r="F85" t="n">
-        <v>2.5</v>
+        <v>31</v>
       </c>
       <c r="G85" t="n">
-        <v>250.4483333333332</v>
+        <v>250.5033333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3421,11 +3379,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3447,10 +3401,10 @@
         <v>245.4</v>
       </c>
       <c r="F86" t="n">
-        <v>1591.6734</v>
+        <v>2.5</v>
       </c>
       <c r="G86" t="n">
-        <v>250.2999999999998</v>
+        <v>250.4483333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3460,11 +3414,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3474,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>243</v>
+        <v>245.4</v>
       </c>
       <c r="C87" t="n">
-        <v>243</v>
+        <v>245.4</v>
       </c>
       <c r="D87" t="n">
-        <v>243</v>
+        <v>245.4</v>
       </c>
       <c r="E87" t="n">
-        <v>243</v>
+        <v>245.4</v>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>1591.6734</v>
       </c>
       <c r="G87" t="n">
-        <v>250.1116666666665</v>
+        <v>250.2999999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3499,11 +3449,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>245.4</v>
+        <v>243</v>
       </c>
       <c r="C88" t="n">
-        <v>247.5</v>
+        <v>243</v>
       </c>
       <c r="D88" t="n">
-        <v>247.5</v>
+        <v>243</v>
       </c>
       <c r="E88" t="n">
-        <v>245.4</v>
+        <v>243</v>
       </c>
       <c r="F88" t="n">
-        <v>122</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="n">
-        <v>249.9249999999998</v>
+        <v>250.1116666666665</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3538,11 +3484,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3552,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>243</v>
+        <v>245.4</v>
       </c>
       <c r="C89" t="n">
-        <v>243</v>
+        <v>247.5</v>
       </c>
       <c r="D89" t="n">
-        <v>243</v>
+        <v>247.5</v>
       </c>
       <c r="E89" t="n">
-        <v>243</v>
+        <v>245.4</v>
       </c>
       <c r="F89" t="n">
-        <v>1437.814</v>
+        <v>122</v>
       </c>
       <c r="G89" t="n">
-        <v>249.6449999999999</v>
+        <v>249.9249999999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3577,11 +3519,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3591,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>246.5</v>
+        <v>243</v>
       </c>
       <c r="C90" t="n">
-        <v>246.5</v>
+        <v>243</v>
       </c>
       <c r="D90" t="n">
-        <v>246.5</v>
+        <v>243</v>
       </c>
       <c r="E90" t="n">
-        <v>246.5</v>
+        <v>243</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1437.814</v>
       </c>
       <c r="G90" t="n">
-        <v>249.4033333333332</v>
+        <v>249.6449999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3616,11 +3554,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3630,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>243</v>
+        <v>246.5</v>
       </c>
       <c r="C91" t="n">
-        <v>241</v>
+        <v>246.5</v>
       </c>
       <c r="D91" t="n">
-        <v>243</v>
+        <v>246.5</v>
       </c>
       <c r="E91" t="n">
-        <v>241</v>
+        <v>246.5</v>
       </c>
       <c r="F91" t="n">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>249.0849999999999</v>
+        <v>249.4033333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3655,11 +3589,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3669,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C92" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D92" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E92" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F92" t="n">
-        <v>3580.9214</v>
+        <v>2000</v>
       </c>
       <c r="G92" t="n">
-        <v>248.7516666666665</v>
+        <v>249.0849999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3694,11 +3624,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3708,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>242</v>
+      </c>
+      <c r="C93" t="n">
         <v>239</v>
       </c>
-      <c r="C93" t="n">
-        <v>245.4</v>
-      </c>
       <c r="D93" t="n">
-        <v>245.4</v>
+        <v>242</v>
       </c>
       <c r="E93" t="n">
         <v>239</v>
       </c>
       <c r="F93" t="n">
-        <v>4262.3215</v>
+        <v>3580.9214</v>
       </c>
       <c r="G93" t="n">
-        <v>248.6249999999999</v>
+        <v>248.7516666666665</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3733,11 +3659,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3747,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" t="n">
-        <v>240</v>
+        <v>245.4</v>
       </c>
       <c r="D94" t="n">
-        <v>243.8</v>
+        <v>245.4</v>
       </c>
       <c r="E94" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F94" t="n">
-        <v>2077</v>
+        <v>4262.3215</v>
       </c>
       <c r="G94" t="n">
-        <v>248.3916666666665</v>
+        <v>248.6249999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3772,11 +3694,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3786,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>243.9</v>
+        <v>240</v>
       </c>
       <c r="C95" t="n">
-        <v>243.9</v>
+        <v>240</v>
       </c>
       <c r="D95" t="n">
-        <v>243.9</v>
+        <v>243.8</v>
       </c>
       <c r="E95" t="n">
-        <v>243.9</v>
+        <v>240</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>2077</v>
       </c>
       <c r="G95" t="n">
-        <v>248.2566666666665</v>
+        <v>248.3916666666665</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3811,11 +3729,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3825,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>244</v>
+        <v>243.9</v>
       </c>
       <c r="C96" t="n">
-        <v>244</v>
+        <v>243.9</v>
       </c>
       <c r="D96" t="n">
-        <v>244</v>
+        <v>243.9</v>
       </c>
       <c r="E96" t="n">
-        <v>244</v>
+        <v>243.9</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>248.1566666666665</v>
+        <v>248.2566666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3850,11 +3764,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3864,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>240.5</v>
+        <v>244</v>
       </c>
       <c r="C97" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D97" t="n">
-        <v>240.5</v>
+        <v>244</v>
       </c>
       <c r="E97" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F97" t="n">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>247.8399999999998</v>
+        <v>248.1566666666665</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3889,11 +3799,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3906,19 +3812,19 @@
         <v>240.5</v>
       </c>
       <c r="C98" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="D98" t="n">
         <v>240.5</v>
       </c>
       <c r="E98" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="F98" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G98" t="n">
-        <v>247.4316666666665</v>
+        <v>247.8399999999998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3928,11 +3834,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3945,19 +3847,19 @@
         <v>240.5</v>
       </c>
       <c r="C99" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="D99" t="n">
         <v>240.5</v>
       </c>
       <c r="E99" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="F99" t="n">
-        <v>70.295</v>
+        <v>80</v>
       </c>
       <c r="G99" t="n">
-        <v>247.0316666666665</v>
+        <v>247.4316666666665</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3967,11 +3869,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3981,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>242</v>
+        <v>240.5</v>
       </c>
       <c r="C100" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D100" t="n">
-        <v>245</v>
+        <v>240.5</v>
       </c>
       <c r="E100" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F100" t="n">
-        <v>225.146</v>
+        <v>70.295</v>
       </c>
       <c r="G100" t="n">
-        <v>246.8649999999998</v>
+        <v>247.0316666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4006,11 +3904,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4020,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>243.9</v>
+        <v>242</v>
       </c>
       <c r="C101" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D101" t="n">
         <v>245</v>
       </c>
       <c r="E101" t="n">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="F101" t="n">
-        <v>8882.9295</v>
+        <v>225.146</v>
       </c>
       <c r="G101" t="n">
-        <v>246.6499999999998</v>
+        <v>246.8649999999998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4045,11 +3939,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4059,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>245</v>
+        <v>243.9</v>
       </c>
       <c r="C102" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D102" t="n">
         <v>245</v>
       </c>
       <c r="E102" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="F102" t="n">
-        <v>111.2345</v>
+        <v>8882.9295</v>
       </c>
       <c r="G102" t="n">
-        <v>246.3849999999998</v>
+        <v>246.6499999999998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4084,11 +3974,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4098,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>245</v>
+      </c>
+      <c r="C103" t="n">
         <v>240</v>
       </c>
-      <c r="C103" t="n">
-        <v>253.7</v>
-      </c>
       <c r="D103" t="n">
-        <v>253.7</v>
+        <v>245</v>
       </c>
       <c r="E103" t="n">
         <v>240</v>
       </c>
       <c r="F103" t="n">
-        <v>2829.4677</v>
+        <v>111.2345</v>
       </c>
       <c r="G103" t="n">
-        <v>246.3466666666665</v>
+        <v>246.3849999999998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4123,11 +4009,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4137,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="C104" t="n">
-        <v>240.5</v>
+        <v>253.7</v>
       </c>
       <c r="D104" t="n">
-        <v>240.5</v>
+        <v>253.7</v>
       </c>
       <c r="E104" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="F104" t="n">
-        <v>1500</v>
+        <v>2829.4677</v>
       </c>
       <c r="G104" t="n">
-        <v>246.0883333333332</v>
+        <v>246.3466666666665</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4162,11 +4044,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4179,19 +4057,19 @@
         <v>240.5</v>
       </c>
       <c r="C105" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="D105" t="n">
         <v>240.5</v>
       </c>
       <c r="E105" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G105" t="n">
-        <v>245.6733333333332</v>
+        <v>246.0883333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4201,11 +4079,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4215,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>243</v>
+        <v>240.5</v>
       </c>
       <c r="C106" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D106" t="n">
-        <v>243</v>
+        <v>240.5</v>
       </c>
       <c r="E106" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F106" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="G106" t="n">
-        <v>245.3233333333332</v>
+        <v>245.6733333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4240,11 +4114,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4254,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>241.5</v>
+        <v>243</v>
       </c>
       <c r="C107" t="n">
-        <v>253.8</v>
+        <v>243</v>
       </c>
       <c r="D107" t="n">
-        <v>253.8</v>
+        <v>243</v>
       </c>
       <c r="E107" t="n">
-        <v>241.5</v>
+        <v>243</v>
       </c>
       <c r="F107" t="n">
-        <v>815.6909000000001</v>
+        <v>3</v>
       </c>
       <c r="G107" t="n">
-        <v>245.1549999999999</v>
+        <v>245.3233333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4279,11 +4149,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4293,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>240.1</v>
+        <v>241.5</v>
       </c>
       <c r="C108" t="n">
-        <v>240</v>
+        <v>253.8</v>
       </c>
       <c r="D108" t="n">
-        <v>240.1</v>
+        <v>253.8</v>
       </c>
       <c r="E108" t="n">
-        <v>240</v>
+        <v>241.5</v>
       </c>
       <c r="F108" t="n">
-        <v>7023</v>
+        <v>815.6909000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>245.0566666666665</v>
+        <v>245.1549999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4318,11 +4184,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4332,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>240.1</v>
+      </c>
+      <c r="C109" t="n">
         <v>240</v>
       </c>
-      <c r="C109" t="n">
-        <v>241</v>
-      </c>
       <c r="D109" t="n">
-        <v>244</v>
+        <v>240.1</v>
       </c>
       <c r="E109" t="n">
         <v>240</v>
       </c>
       <c r="F109" t="n">
-        <v>3310.1058</v>
+        <v>7023</v>
       </c>
       <c r="G109" t="n">
-        <v>244.8899999999999</v>
+        <v>245.0566666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4357,11 +4219,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4371,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>243.9</v>
+        <v>240</v>
       </c>
       <c r="C110" t="n">
-        <v>245.9</v>
+        <v>241</v>
       </c>
       <c r="D110" t="n">
-        <v>245.9</v>
+        <v>244</v>
       </c>
       <c r="E110" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F110" t="n">
-        <v>990.1861</v>
+        <v>3310.1058</v>
       </c>
       <c r="G110" t="n">
-        <v>244.8916666666665</v>
+        <v>244.8899999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4396,11 +4254,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4410,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>246</v>
+        <v>243.9</v>
       </c>
       <c r="C111" t="n">
-        <v>241</v>
+        <v>245.9</v>
       </c>
       <c r="D111" t="n">
-        <v>246</v>
+        <v>245.9</v>
       </c>
       <c r="E111" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F111" t="n">
-        <v>555.8939</v>
+        <v>990.1861</v>
       </c>
       <c r="G111" t="n">
-        <v>244.7099999999999</v>
+        <v>244.8916666666665</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4435,11 +4289,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4449,10 +4299,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>246</v>
+      </c>
+      <c r="C112" t="n">
         <v>241</v>
-      </c>
-      <c r="C112" t="n">
-        <v>245.9</v>
       </c>
       <c r="D112" t="n">
         <v>246</v>
@@ -4461,7 +4311,7 @@
         <v>241</v>
       </c>
       <c r="F112" t="n">
-        <v>1817.1061</v>
+        <v>555.8939</v>
       </c>
       <c r="G112" t="n">
         <v>244.7099999999999</v>
@@ -4474,11 +4324,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4488,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C113" t="n">
-        <v>245</v>
+        <v>245.9</v>
       </c>
       <c r="D113" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E113" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F113" t="n">
-        <v>21</v>
+        <v>1817.1061</v>
       </c>
       <c r="G113" t="n">
-        <v>244.6933333333332</v>
+        <v>244.7099999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4513,11 +4359,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4527,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C114" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D114" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E114" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F114" t="n">
-        <v>2503.5988</v>
+        <v>21</v>
       </c>
       <c r="G114" t="n">
-        <v>244.3966666666666</v>
+        <v>244.6933333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4552,11 +4394,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4566,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>239.7</v>
+        <v>241</v>
       </c>
       <c r="C115" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D115" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E115" t="n">
-        <v>239.5</v>
+        <v>240</v>
       </c>
       <c r="F115" t="n">
-        <v>4120.7285</v>
+        <v>2503.5988</v>
       </c>
       <c r="G115" t="n">
-        <v>244.3133333333332</v>
+        <v>244.3966666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4591,11 +4429,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4605,22 +4439,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>241</v>
+        <v>239.7</v>
       </c>
       <c r="C116" t="n">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="D116" t="n">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="E116" t="n">
-        <v>241</v>
+        <v>239.5</v>
       </c>
       <c r="F116" t="n">
-        <v>33</v>
+        <v>4120.7285</v>
       </c>
       <c r="G116" t="n">
-        <v>244.2616666666666</v>
+        <v>244.3133333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4630,11 +4464,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4644,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C117" t="n">
-        <v>242</v>
+        <v>242.9</v>
       </c>
       <c r="D117" t="n">
-        <v>242</v>
+        <v>242.9</v>
       </c>
       <c r="E117" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G117" t="n">
-        <v>244.2949999999999</v>
+        <v>244.2616666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4669,11 +4499,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4683,22 +4509,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="C118" t="n">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="D118" t="n">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="E118" t="n">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="F118" t="n">
-        <v>134.929</v>
+        <v>20</v>
       </c>
       <c r="G118" t="n">
-        <v>244.2516666666666</v>
+        <v>244.2949999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4708,11 +4534,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4722,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>239.9</v>
+        <v>242.9</v>
       </c>
       <c r="C119" t="n">
-        <v>242</v>
+        <v>242.9</v>
       </c>
       <c r="D119" t="n">
-        <v>242</v>
+        <v>242.9</v>
       </c>
       <c r="E119" t="n">
-        <v>238.3</v>
+        <v>242.9</v>
       </c>
       <c r="F119" t="n">
-        <v>4826.3911</v>
+        <v>134.929</v>
       </c>
       <c r="G119" t="n">
-        <v>244.2849999999999</v>
+        <v>244.2516666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4747,11 +4569,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4761,22 +4579,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>240</v>
+        <v>239.9</v>
       </c>
       <c r="C120" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D120" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E120" t="n">
-        <v>240</v>
+        <v>238.3</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>4826.3911</v>
       </c>
       <c r="G120" t="n">
-        <v>244.2183333333332</v>
+        <v>244.2849999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4786,11 +4604,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4800,7 +4614,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>238.3</v>
+        <v>240</v>
       </c>
       <c r="C121" t="n">
         <v>240</v>
@@ -4809,13 +4623,13 @@
         <v>240</v>
       </c>
       <c r="E121" t="n">
-        <v>238.3</v>
+        <v>240</v>
       </c>
       <c r="F121" t="n">
-        <v>492.4577</v>
+        <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>244.1266666666666</v>
+        <v>244.2183333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4825,11 +4639,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4842,19 +4652,19 @@
         <v>238.3</v>
       </c>
       <c r="C122" t="n">
-        <v>237.1</v>
+        <v>240</v>
       </c>
       <c r="D122" t="n">
+        <v>240</v>
+      </c>
+      <c r="E122" t="n">
         <v>238.3</v>
       </c>
-      <c r="E122" t="n">
-        <v>237.1</v>
-      </c>
       <c r="F122" t="n">
-        <v>3614.2244</v>
+        <v>492.4577</v>
       </c>
       <c r="G122" t="n">
-        <v>243.9799999999999</v>
+        <v>244.1266666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4864,11 +4674,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +4684,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="C123" t="n">
         <v>237.1</v>
       </c>
-      <c r="C123" t="n">
-        <v>240</v>
-      </c>
       <c r="D123" t="n">
-        <v>240</v>
+        <v>238.3</v>
       </c>
       <c r="E123" t="n">
-        <v>237</v>
+        <v>237.1</v>
       </c>
       <c r="F123" t="n">
-        <v>3876.5832</v>
+        <v>3614.2244</v>
       </c>
       <c r="G123" t="n">
-        <v>243.8816666666666</v>
+        <v>243.9799999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4903,11 +4709,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4917,7 +4719,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>240</v>
+        <v>237.1</v>
       </c>
       <c r="C124" t="n">
         <v>240</v>
@@ -4926,13 +4728,13 @@
         <v>240</v>
       </c>
       <c r="E124" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F124" t="n">
-        <v>24</v>
+        <v>3876.5832</v>
       </c>
       <c r="G124" t="n">
-        <v>243.9099999999999</v>
+        <v>243.8816666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4942,11 +4744,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4959,19 +4757,19 @@
         <v>240</v>
       </c>
       <c r="C125" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D125" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E125" t="n">
         <v>240</v>
       </c>
       <c r="F125" t="n">
-        <v>3815.3681</v>
+        <v>24</v>
       </c>
       <c r="G125" t="n">
-        <v>243.8633333333333</v>
+        <v>243.9099999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4981,11 +4779,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4998,19 +4792,19 @@
         <v>240</v>
       </c>
       <c r="C126" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D126" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E126" t="n">
         <v>240</v>
       </c>
       <c r="F126" t="n">
-        <v>0.2711</v>
+        <v>3815.3681</v>
       </c>
       <c r="G126" t="n">
-        <v>243.8549999999999</v>
+        <v>243.8633333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5020,11 +4814,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5034,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>237.5</v>
+        <v>240</v>
       </c>
       <c r="C127" t="n">
-        <v>237.5</v>
+        <v>240</v>
       </c>
       <c r="D127" t="n">
-        <v>237.5</v>
+        <v>240</v>
       </c>
       <c r="E127" t="n">
-        <v>237.5</v>
+        <v>240</v>
       </c>
       <c r="F127" t="n">
-        <v>3</v>
+        <v>0.2711</v>
       </c>
       <c r="G127" t="n">
-        <v>243.7499999999999</v>
+        <v>243.8549999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5059,11 +4849,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5073,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>240</v>
+        <v>237.5</v>
       </c>
       <c r="C128" t="n">
-        <v>240</v>
+        <v>237.5</v>
       </c>
       <c r="D128" t="n">
-        <v>240</v>
+        <v>237.5</v>
       </c>
       <c r="E128" t="n">
-        <v>240</v>
+        <v>237.5</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>243.7416666666666</v>
+        <v>243.7499999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5098,11 +4884,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5112,7 +4894,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>237.5</v>
+        <v>240</v>
       </c>
       <c r="C129" t="n">
         <v>240</v>
@@ -5121,13 +4903,13 @@
         <v>240</v>
       </c>
       <c r="E129" t="n">
-        <v>237.1</v>
+        <v>240</v>
       </c>
       <c r="F129" t="n">
-        <v>5864.2585</v>
+        <v>2</v>
       </c>
       <c r="G129" t="n">
-        <v>243.7333333333333</v>
+        <v>243.7416666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5137,11 +4919,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5151,22 +4929,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>237.2</v>
+        <v>237.5</v>
       </c>
       <c r="C130" t="n">
-        <v>237.2</v>
+        <v>240</v>
       </c>
       <c r="D130" t="n">
-        <v>237.2</v>
+        <v>240</v>
       </c>
       <c r="E130" t="n">
-        <v>237.2</v>
+        <v>237.1</v>
       </c>
       <c r="F130" t="n">
-        <v>35.511</v>
+        <v>5864.2585</v>
       </c>
       <c r="G130" t="n">
-        <v>243.3566666666666</v>
+        <v>243.7333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5176,11 +4954,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5190,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>237.1</v>
+        <v>237.2</v>
       </c>
       <c r="C131" t="n">
-        <v>240</v>
+        <v>237.2</v>
       </c>
       <c r="D131" t="n">
-        <v>240</v>
+        <v>237.2</v>
       </c>
       <c r="E131" t="n">
-        <v>237.1</v>
+        <v>237.2</v>
       </c>
       <c r="F131" t="n">
-        <v>743.2474</v>
+        <v>35.511</v>
       </c>
       <c r="G131" t="n">
-        <v>243.34</v>
+        <v>243.3566666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5215,11 +4989,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5229,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>238</v>
+        <v>237.1</v>
       </c>
       <c r="C132" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D132" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E132" t="n">
-        <v>238</v>
+        <v>237.1</v>
       </c>
       <c r="F132" t="n">
-        <v>6</v>
+        <v>743.2474</v>
       </c>
       <c r="G132" t="n">
-        <v>243.0566666666666</v>
+        <v>243.34</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5254,11 +5024,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5280,10 +5046,10 @@
         <v>238</v>
       </c>
       <c r="F133" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G133" t="n">
-        <v>242.7933333333333</v>
+        <v>243.0566666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5293,11 +5059,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5310,19 +5072,19 @@
         <v>238</v>
       </c>
       <c r="C134" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D134" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E134" t="n">
         <v>238</v>
       </c>
       <c r="F134" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G134" t="n">
-        <v>242.61</v>
+        <v>242.7933333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5332,11 +5094,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5349,19 +5107,19 @@
         <v>238</v>
       </c>
       <c r="C135" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D135" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E135" t="n">
         <v>238</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G135" t="n">
-        <v>242.4616666666666</v>
+        <v>242.61</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5371,11 +5129,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5388,36 +5142,65 @@
         <v>238</v>
       </c>
       <c r="C136" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D136" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E136" t="n">
         <v>238</v>
       </c>
       <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>242.4616666666666</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>238</v>
+      </c>
+      <c r="C137" t="n">
+        <v>239</v>
+      </c>
+      <c r="D137" t="n">
+        <v>242</v>
+      </c>
+      <c r="E137" t="n">
+        <v>238</v>
+      </c>
+      <c r="F137" t="n">
         <v>275.2759</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G137" t="n">
         <v>242.2966666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>238</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-19 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
+        <v>239.38</v>
+      </c>
+      <c r="H2" t="n">
         <v>238.2499999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>46</v>
       </c>
       <c r="G3" t="n">
+        <v>239.6866666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>238.3783333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
+        <v>239.8866666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>238.4316666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,25 @@
         <v>30</v>
       </c>
       <c r="G5" t="n">
+        <v>240.02</v>
+      </c>
+      <c r="H5" t="n">
         <v>238.485</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>241</v>
+      </c>
+      <c r="L5" t="n">
+        <v>241</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +609,29 @@
         <v>34528.7658</v>
       </c>
       <c r="G6" t="n">
+        <v>240.2866666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>238.585</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>241</v>
+      </c>
+      <c r="L6" t="n">
+        <v>241</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +655,27 @@
         <v>3540.601</v>
       </c>
       <c r="G7" t="n">
+        <v>240.32</v>
+      </c>
+      <c r="H7" t="n">
         <v>238.6283333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>241</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +699,27 @@
         <v>1600</v>
       </c>
       <c r="G8" t="n">
+        <v>240.3533333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>238.6683333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>241</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +743,27 @@
         <v>857.4233</v>
       </c>
       <c r="G9" t="n">
+        <v>240.3866666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>238.6966666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>241</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +787,27 @@
         <v>1054.2</v>
       </c>
       <c r="G10" t="n">
+        <v>240.3533333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>238.725</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>241</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +831,29 @@
         <v>776.7584000000001</v>
       </c>
       <c r="G11" t="n">
+        <v>240.2533333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>238.7516666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>241</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +877,29 @@
         <v>3000</v>
       </c>
       <c r="G12" t="n">
+        <v>240.12</v>
+      </c>
+      <c r="H12" t="n">
         <v>238.7533333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>241</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +923,29 @@
         <v>141.4093</v>
       </c>
       <c r="G13" t="n">
+        <v>239.9866666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>238.7366666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>237</v>
+      </c>
+      <c r="L13" t="n">
+        <v>241</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +969,29 @@
         <v>5810.3</v>
       </c>
       <c r="G14" t="n">
+        <v>239.98</v>
+      </c>
+      <c r="H14" t="n">
         <v>238.785</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>237</v>
+      </c>
+      <c r="L14" t="n">
+        <v>241</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1015,29 @@
         <v>2007</v>
       </c>
       <c r="G15" t="n">
+        <v>240.04</v>
+      </c>
+      <c r="H15" t="n">
         <v>238.8333333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>240.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>241</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1061,27 @@
         <v>43668.996</v>
       </c>
       <c r="G16" t="n">
+        <v>240.0866666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>238.9</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>241</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1105,27 @@
         <v>10323.2002</v>
       </c>
       <c r="G17" t="n">
+        <v>240.1266666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>238.9833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>241</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1149,27 @@
         <v>12800.7842</v>
       </c>
       <c r="G18" t="n">
+        <v>240.1533333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>239.0666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>241</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1193,27 @@
         <v>564.1583000000001</v>
       </c>
       <c r="G19" t="n">
+        <v>240.2866666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>239.165</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>241</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1237,27 @@
         <v>34767.6846</v>
       </c>
       <c r="G20" t="n">
+        <v>240.6466666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>239.3366666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>241</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1281,27 @@
         <v>3924.1801</v>
       </c>
       <c r="G21" t="n">
+        <v>241.1666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>239.5333333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>241</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1325,27 @@
         <v>3787</v>
       </c>
       <c r="G22" t="n">
+        <v>241.92</v>
+      </c>
+      <c r="H22" t="n">
         <v>239.7616666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>241</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1369,27 @@
         <v>4094.826</v>
       </c>
       <c r="G23" t="n">
+        <v>242.6733333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>239.9899999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>241</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1413,27 @@
         <v>3977.2142</v>
       </c>
       <c r="G24" t="n">
+        <v>243.4266666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>240.2216666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>241</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1457,27 @@
         <v>5726.627</v>
       </c>
       <c r="G25" t="n">
+        <v>244.1733333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>240.4333333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>241</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1501,27 @@
         <v>6912.5958</v>
       </c>
       <c r="G26" t="n">
+        <v>244.8533333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>240.645</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>241</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1545,27 @@
         <v>22572.0424</v>
       </c>
       <c r="G27" t="n">
+        <v>246.0066666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>240.9333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>241</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1589,27 @@
         <v>621</v>
       </c>
       <c r="G28" t="n">
+        <v>247.1600000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>241.2216666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>241</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1633,27 @@
         <v>20748.5795</v>
       </c>
       <c r="G29" t="n">
+        <v>248.3466666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.5666666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>241</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1677,27 @@
         <v>15182.7355</v>
       </c>
       <c r="G30" t="n">
+        <v>249.54</v>
+      </c>
+      <c r="H30" t="n">
         <v>241.9299999999999</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>241</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1721,27 @@
         <v>14066.996</v>
       </c>
       <c r="G31" t="n">
+        <v>250.7400000000001</v>
+      </c>
+      <c r="H31" t="n">
         <v>242.3133333333332</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>241</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1765,27 @@
         <v>2</v>
       </c>
       <c r="G32" t="n">
+        <v>251.8800000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>242.6783333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>241</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1809,27 @@
         <v>5353.0442</v>
       </c>
       <c r="G33" t="n">
+        <v>252.9466666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>243.0283333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>241</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1853,27 @@
         <v>10491.8994</v>
       </c>
       <c r="G34" t="n">
+        <v>253.6133333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>243.2749999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>241</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1897,27 @@
         <v>14217.9644</v>
       </c>
       <c r="G35" t="n">
+        <v>254.12</v>
+      </c>
+      <c r="H35" t="n">
         <v>243.5283333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>241</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1941,27 @@
         <v>16.3983</v>
       </c>
       <c r="G36" t="n">
+        <v>254.2666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>243.7283333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>241</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1985,27 @@
         <v>484.7</v>
       </c>
       <c r="G37" t="n">
+        <v>254.28</v>
+      </c>
+      <c r="H37" t="n">
         <v>243.8949999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>241</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2029,27 @@
         <v>11297.1575</v>
       </c>
       <c r="G38" t="n">
+        <v>254.8933333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>244.2449999999999</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>241</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2073,27 @@
         <v>12191.61467664151</v>
       </c>
       <c r="G39" t="n">
+        <v>255.9066666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>244.6449999999999</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>241</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2117,27 @@
         <v>22</v>
       </c>
       <c r="G40" t="n">
+        <v>256.86</v>
+      </c>
+      <c r="H40" t="n">
         <v>245.0616666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>241</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,19 +2161,28 @@
         <v>1502.1698</v>
       </c>
       <c r="G41" t="n">
+        <v>257.28</v>
+      </c>
+      <c r="H41" t="n">
         <v>245.3399999999999</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
+      <c r="L41" t="n">
+        <v>241</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>1.053091286307054</v>
       </c>
     </row>
     <row r="42">
@@ -1848,18 +2205,21 @@
         <v>22</v>
       </c>
       <c r="G42" t="n">
+        <v>257.2533333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>245.5833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2243,21 @@
         <v>3901.2</v>
       </c>
       <c r="G43" t="n">
+        <v>257.36</v>
+      </c>
+      <c r="H43" t="n">
         <v>245.86</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2281,21 @@
         <v>150.0407</v>
       </c>
       <c r="G44" t="n">
+        <v>257.18</v>
+      </c>
+      <c r="H44" t="n">
         <v>246.1266666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2319,21 @@
         <v>28</v>
       </c>
       <c r="G45" t="n">
+        <v>256.9266666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>246.3933333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2357,21 @@
         <v>13397.7295</v>
       </c>
       <c r="G46" t="n">
+        <v>257.1866666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>246.8083333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2395,21 @@
         <v>5</v>
       </c>
       <c r="G47" t="n">
+        <v>257.4466666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>247.2083333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2433,21 @@
         <v>1778.9</v>
       </c>
       <c r="G48" t="n">
+        <v>257.7733333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>247.6399999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2471,21 @@
         <v>13966.8673</v>
       </c>
       <c r="G49" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="H49" t="n">
         <v>247.7716666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2509,21 @@
         <v>2</v>
       </c>
       <c r="G50" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="H50" t="n">
         <v>247.9716666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2547,21 @@
         <v>12020.254</v>
       </c>
       <c r="G51" t="n">
+        <v>256.6866666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>248.1016666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2585,21 @@
         <v>12312.6147</v>
       </c>
       <c r="G52" t="n">
+        <v>256.8133333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>248.3333333333332</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2623,21 @@
         <v>1997.2</v>
       </c>
       <c r="G53" t="n">
+        <v>255.9399999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>248.4649999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2661,21 @@
         <v>18</v>
       </c>
       <c r="G54" t="n">
+        <v>254.6733333333332</v>
+      </c>
+      <c r="H54" t="n">
         <v>248.5983333333332</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2699,21 @@
         <v>729</v>
       </c>
       <c r="G55" t="n">
+        <v>254.4599999999999</v>
+      </c>
+      <c r="H55" t="n">
         <v>248.9616666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2737,21 @@
         <v>2787.6352</v>
       </c>
       <c r="G56" t="n">
+        <v>253.9266666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>249.0783333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2775,21 @@
         <v>50</v>
       </c>
       <c r="G57" t="n">
+        <v>253.3999999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>249.1949999999999</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2813,21 @@
         <v>3858.7843</v>
       </c>
       <c r="G58" t="n">
+        <v>252.3399999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>249.2116666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2851,21 @@
         <v>2</v>
       </c>
       <c r="G59" t="n">
+        <v>251.6399999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>249.2866666666665</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2889,21 @@
         <v>1199.4851</v>
       </c>
       <c r="G60" t="n">
+        <v>250.5733333333332</v>
+      </c>
+      <c r="H60" t="n">
         <v>249.2699999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2927,21 @@
         <v>2</v>
       </c>
       <c r="G61" t="n">
+        <v>249.1799999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>249.2983333333332</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,22 +2965,21 @@
         <v>2</v>
       </c>
       <c r="G62" t="n">
+        <v>247.9466666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>249.3499999999999</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>244</v>
-      </c>
-      <c r="K62" t="n">
-        <v>244</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,24 +3003,21 @@
         <v>5</v>
       </c>
       <c r="G63" t="n">
+        <v>246.7466666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>249.4049999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>244</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2628,24 +3041,21 @@
         <v>12</v>
       </c>
       <c r="G64" t="n">
+        <v>246.7466666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>249.4866666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>244</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +3079,21 @@
         <v>9170.357</v>
       </c>
       <c r="G65" t="n">
+        <v>245.8999999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>249.4416666666665</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +3117,21 @@
         <v>2</v>
       </c>
       <c r="G66" t="n">
+        <v>245.7666666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>249.4716666666665</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3155,21 @@
         <v>3.8698</v>
       </c>
       <c r="G67" t="n">
+        <v>245.0066666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>249.5049999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3193,21 @@
         <v>2</v>
       </c>
       <c r="G68" t="n">
+        <v>244.8666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>249.5933333333332</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3231,21 @@
         <v>6619.0557</v>
       </c>
       <c r="G69" t="n">
+        <v>244.4999999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>249.6266666666665</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3269,21 @@
         <v>128.0484</v>
       </c>
       <c r="G70" t="n">
+        <v>243.1466666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>249.6599999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3307,21 @@
         <v>4766.4799</v>
       </c>
       <c r="G71" t="n">
+        <v>243.9999999999999</v>
+      </c>
+      <c r="H71" t="n">
         <v>250.0149999999998</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3345,21 @@
         <v>310.6277</v>
       </c>
       <c r="G72" t="n">
+        <v>243.6666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>250.0816666666665</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3383,21 @@
         <v>6660.05</v>
       </c>
       <c r="G73" t="n">
+        <v>244.6666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>250.3816666666665</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3421,21 @@
         <v>1392.6573</v>
       </c>
       <c r="G74" t="n">
+        <v>245.2199999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>250.5966666666665</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3459,21 @@
         <v>62.6016</v>
       </c>
       <c r="G75" t="n">
+        <v>245.8866666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>250.7316666666665</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3497,21 @@
         <v>2098.1563</v>
       </c>
       <c r="G76" t="n">
+        <v>246.0799999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>250.7966666666665</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3535,21 @@
         <v>2769.2535</v>
       </c>
       <c r="G77" t="n">
+        <v>246.3066666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>250.8949999999998</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3573,21 @@
         <v>3784.9</v>
       </c>
       <c r="G78" t="n">
+        <v>246.1466666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>250.9033333333332</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3611,21 @@
         <v>2226.4</v>
       </c>
       <c r="G79" t="n">
+        <v>245.9199999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>250.8949999999998</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3649,21 @@
         <v>404.1407</v>
       </c>
       <c r="G80" t="n">
+        <v>246.4333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>250.8883333333332</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3687,21 @@
         <v>15004</v>
       </c>
       <c r="G81" t="n">
+        <v>246.3466666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>250.7666666666665</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3725,21 @@
         <v>22</v>
       </c>
       <c r="G82" t="n">
+        <v>246.6466666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>250.6866666666665</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3763,21 @@
         <v>2104.4812</v>
       </c>
       <c r="G83" t="n">
+        <v>246.8266666666665</v>
+      </c>
+      <c r="H83" t="n">
         <v>250.6316666666665</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3801,21 @@
         <v>1944.8321</v>
       </c>
       <c r="G84" t="n">
+        <v>247.2199999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>250.5749999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3839,21 @@
         <v>31</v>
       </c>
       <c r="G85" t="n">
+        <v>247.5466666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>250.5033333333332</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3877,21 @@
         <v>2.5</v>
       </c>
       <c r="G86" t="n">
+        <v>246.5866666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>250.4483333333332</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3915,21 @@
         <v>1591.6734</v>
       </c>
       <c r="G87" t="n">
+        <v>246.8799999999999</v>
+      </c>
+      <c r="H87" t="n">
         <v>250.2999999999998</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +3953,21 @@
         <v>2000</v>
       </c>
       <c r="G88" t="n">
+        <v>246.0799999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>250.1116666666665</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +3991,21 @@
         <v>122</v>
       </c>
       <c r="G89" t="n">
+        <v>245.6599999999999</v>
+      </c>
+      <c r="H89" t="n">
         <v>249.9249999999998</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +4029,21 @@
         <v>1437.814</v>
       </c>
       <c r="G90" t="n">
+        <v>245.1933333333332</v>
+      </c>
+      <c r="H90" t="n">
         <v>249.6449999999999</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +4067,21 @@
         <v>2</v>
       </c>
       <c r="G91" t="n">
+        <v>245.1666666666665</v>
+      </c>
+      <c r="H91" t="n">
         <v>249.4033333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4105,21 @@
         <v>2000</v>
       </c>
       <c r="G92" t="n">
+        <v>244.6399999999999</v>
+      </c>
+      <c r="H92" t="n">
         <v>249.0849999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4143,21 @@
         <v>3580.9214</v>
       </c>
       <c r="G93" t="n">
+        <v>244.3399999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>248.7516666666665</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4181,21 @@
         <v>4262.3215</v>
       </c>
       <c r="G94" t="n">
+        <v>244.5333333333332</v>
+      </c>
+      <c r="H94" t="n">
         <v>248.6249999999999</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4219,21 @@
         <v>2077</v>
       </c>
       <c r="G95" t="n">
+        <v>244.1333333333332</v>
+      </c>
+      <c r="H95" t="n">
         <v>248.3916666666665</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4257,21 @@
         <v>3</v>
       </c>
       <c r="G96" t="n">
+        <v>244.2266666666665</v>
+      </c>
+      <c r="H96" t="n">
         <v>248.2566666666665</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4295,21 @@
         <v>2</v>
       </c>
       <c r="G97" t="n">
+        <v>244.1599999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>248.1566666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4333,21 @@
         <v>150</v>
       </c>
       <c r="G98" t="n">
+        <v>243.7266666666665</v>
+      </c>
+      <c r="H98" t="n">
         <v>247.8399999999998</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4371,21 @@
         <v>80</v>
       </c>
       <c r="G99" t="n">
+        <v>243.3333333333332</v>
+      </c>
+      <c r="H99" t="n">
         <v>247.4316666666665</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4409,21 @@
         <v>70.295</v>
       </c>
       <c r="G100" t="n">
+        <v>242.9733333333332</v>
+      </c>
+      <c r="H100" t="n">
         <v>247.0316666666665</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4447,21 @@
         <v>225.146</v>
       </c>
       <c r="G101" t="n">
+        <v>242.9466666666665</v>
+      </c>
+      <c r="H101" t="n">
         <v>246.8649999999998</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4485,21 @@
         <v>8882.9295</v>
       </c>
       <c r="G102" t="n">
+        <v>242.6533333333332</v>
+      </c>
+      <c r="H102" t="n">
         <v>246.6499999999998</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4523,21 @@
         <v>111.2345</v>
       </c>
       <c r="G103" t="n">
+        <v>242.4533333333332</v>
+      </c>
+      <c r="H103" t="n">
         <v>246.3849999999998</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4561,21 @@
         <v>2829.4677</v>
       </c>
       <c r="G104" t="n">
+        <v>242.8666666666665</v>
+      </c>
+      <c r="H104" t="n">
         <v>246.3466666666665</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4599,21 @@
         <v>1500</v>
       </c>
       <c r="G105" t="n">
+        <v>242.6999999999998</v>
+      </c>
+      <c r="H105" t="n">
         <v>246.0883333333332</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4637,21 @@
         <v>500</v>
       </c>
       <c r="G106" t="n">
+        <v>242.2666666666665</v>
+      </c>
+      <c r="H106" t="n">
         <v>245.6733333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4675,21 @@
         <v>3</v>
       </c>
       <c r="G107" t="n">
+        <v>242.3999999999998</v>
+      </c>
+      <c r="H107" t="n">
         <v>245.3233333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4713,21 @@
         <v>815.6909000000001</v>
       </c>
       <c r="G108" t="n">
+        <v>243.3866666666665</v>
+      </c>
+      <c r="H108" t="n">
         <v>245.1549999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4751,21 @@
         <v>7023</v>
       </c>
       <c r="G109" t="n">
+        <v>243.0266666666665</v>
+      </c>
+      <c r="H109" t="n">
         <v>245.0566666666665</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4789,21 @@
         <v>3310.1058</v>
       </c>
       <c r="G110" t="n">
+        <v>243.0933333333332</v>
+      </c>
+      <c r="H110" t="n">
         <v>244.8899999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4827,21 @@
         <v>990.1861</v>
       </c>
       <c r="G111" t="n">
+        <v>243.2266666666665</v>
+      </c>
+      <c r="H111" t="n">
         <v>244.8916666666665</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4865,21 @@
         <v>555.8939</v>
       </c>
       <c r="G112" t="n">
+        <v>243.0266666666665</v>
+      </c>
+      <c r="H112" t="n">
         <v>244.7099999999999</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4903,21 @@
         <v>1817.1061</v>
       </c>
       <c r="G113" t="n">
+        <v>243.4199999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>244.7099999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4941,21 @@
         <v>21</v>
       </c>
       <c r="G114" t="n">
+        <v>243.7199999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>244.6933333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +4979,21 @@
         <v>2503.5988</v>
       </c>
       <c r="G115" t="n">
+        <v>243.9199999999999</v>
+      </c>
+      <c r="H115" t="n">
         <v>244.3966666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +5017,21 @@
         <v>4120.7285</v>
       </c>
       <c r="G116" t="n">
+        <v>243.7199999999999</v>
+      </c>
+      <c r="H116" t="n">
         <v>244.3133333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +5055,21 @@
         <v>33</v>
       </c>
       <c r="G117" t="n">
+        <v>243.8466666666665</v>
+      </c>
+      <c r="H117" t="n">
         <v>244.2616666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5093,21 @@
         <v>20</v>
       </c>
       <c r="G118" t="n">
+        <v>243.9799999999999</v>
+      </c>
+      <c r="H118" t="n">
         <v>244.2949999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5131,21 @@
         <v>134.929</v>
       </c>
       <c r="G119" t="n">
+        <v>243.2599999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>244.2516666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5169,21 @@
         <v>4826.3911</v>
       </c>
       <c r="G120" t="n">
+        <v>243.3599999999999</v>
+      </c>
+      <c r="H120" t="n">
         <v>244.2849999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5207,21 @@
         <v>2</v>
       </c>
       <c r="G121" t="n">
+        <v>243.3599999999999</v>
+      </c>
+      <c r="H121" t="n">
         <v>244.2183333333332</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5245,21 @@
         <v>492.4577</v>
       </c>
       <c r="G122" t="n">
+        <v>243.1599999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>244.1266666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5283,21 @@
         <v>3614.2244</v>
       </c>
       <c r="G123" t="n">
+        <v>242.0466666666665</v>
+      </c>
+      <c r="H123" t="n">
         <v>243.9799999999999</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5321,21 @@
         <v>3876.5832</v>
       </c>
       <c r="G124" t="n">
+        <v>242.0466666666665</v>
+      </c>
+      <c r="H124" t="n">
         <v>243.8816666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5359,21 @@
         <v>24</v>
       </c>
       <c r="G125" t="n">
+        <v>241.9799999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>243.9099999999999</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5397,21 @@
         <v>3815.3681</v>
       </c>
       <c r="G126" t="n">
+        <v>241.6533333333332</v>
+      </c>
+      <c r="H126" t="n">
         <v>243.8633333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5435,21 @@
         <v>0.2711</v>
       </c>
       <c r="G127" t="n">
+        <v>241.5866666666665</v>
+      </c>
+      <c r="H127" t="n">
         <v>243.8549999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5473,21 @@
         <v>3</v>
       </c>
       <c r="G128" t="n">
+        <v>241.0266666666665</v>
+      </c>
+      <c r="H128" t="n">
         <v>243.7499999999999</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5511,21 @@
         <v>2</v>
       </c>
       <c r="G129" t="n">
+        <v>240.6933333333332</v>
+      </c>
+      <c r="H129" t="n">
         <v>243.7416666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5549,21 @@
         <v>5864.2585</v>
       </c>
       <c r="G130" t="n">
+        <v>240.4933333333332</v>
+      </c>
+      <c r="H130" t="n">
         <v>243.7333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5587,21 @@
         <v>35.511</v>
       </c>
       <c r="G131" t="n">
+        <v>240.1733333333332</v>
+      </c>
+      <c r="H131" t="n">
         <v>243.3566666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5625,21 @@
         <v>743.2474</v>
       </c>
       <c r="G132" t="n">
+        <v>239.9799999999998</v>
+      </c>
+      <c r="H132" t="n">
         <v>243.34</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5663,21 @@
         <v>6</v>
       </c>
       <c r="G133" t="n">
+        <v>239.7133333333332</v>
+      </c>
+      <c r="H133" t="n">
         <v>243.0566666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5701,21 @@
         <v>12</v>
       </c>
       <c r="G134" t="n">
+        <v>239.3866666666665</v>
+      </c>
+      <c r="H134" t="n">
         <v>242.7933333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5739,21 @@
         <v>4</v>
       </c>
       <c r="G135" t="n">
+        <v>239.1866666666665</v>
+      </c>
+      <c r="H135" t="n">
         <v>242.61</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5777,21 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
+        <v>239.0533333333332</v>
+      </c>
+      <c r="H136" t="n">
         <v>242.4616666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5815,401 @@
         <v>275.2759</v>
       </c>
       <c r="G137" t="n">
+        <v>238.9866666666665</v>
+      </c>
+      <c r="H137" t="n">
         <v>242.2966666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>240</v>
+      </c>
+      <c r="C138" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>240</v>
+      </c>
+      <c r="F138" t="n">
+        <v>180.4396</v>
+      </c>
+      <c r="G138" t="n">
+        <v>239.3733333333332</v>
+      </c>
+      <c r="H138" t="n">
+        <v>242.2866666666667</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>242</v>
+      </c>
+      <c r="C139" t="n">
+        <v>242</v>
+      </c>
+      <c r="D139" t="n">
+        <v>242</v>
+      </c>
+      <c r="E139" t="n">
+        <v>242</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" t="n">
+        <v>239.5066666666665</v>
+      </c>
+      <c r="H139" t="n">
+        <v>242.2783333333333</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>238</v>
+      </c>
+      <c r="C140" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>238</v>
+      </c>
+      <c r="E140" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5305.1295</v>
+      </c>
+      <c r="G140" t="n">
+        <v>239.3133333333332</v>
+      </c>
+      <c r="H140" t="n">
+        <v>242.13</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>238</v>
+      </c>
+      <c r="C141" t="n">
+        <v>238</v>
+      </c>
+      <c r="D141" t="n">
+        <v>238</v>
+      </c>
+      <c r="E141" t="n">
+        <v>238</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4</v>
+      </c>
+      <c r="G141" t="n">
+        <v>239.1133333333332</v>
+      </c>
+      <c r="H141" t="n">
+        <v>242.055</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>238</v>
+      </c>
+      <c r="C142" t="n">
+        <v>239</v>
+      </c>
+      <c r="D142" t="n">
+        <v>239</v>
+      </c>
+      <c r="E142" t="n">
+        <v>238</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>239.0466666666665</v>
+      </c>
+      <c r="H142" t="n">
+        <v>241.955</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6094.7346</v>
+      </c>
+      <c r="G143" t="n">
+        <v>239.0199999999998</v>
+      </c>
+      <c r="H143" t="n">
+        <v>241.7983333333333</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>239</v>
+      </c>
+      <c r="C144" t="n">
+        <v>239</v>
+      </c>
+      <c r="D144" t="n">
+        <v>239</v>
+      </c>
+      <c r="E144" t="n">
+        <v>239</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="n">
+        <v>238.9533333333332</v>
+      </c>
+      <c r="H144" t="n">
+        <v>241.675</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>239</v>
+      </c>
+      <c r="C145" t="n">
+        <v>239</v>
+      </c>
+      <c r="D145" t="n">
+        <v>239</v>
+      </c>
+      <c r="E145" t="n">
+        <v>239</v>
+      </c>
+      <c r="F145" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G145" t="n">
+        <v>238.8866666666665</v>
+      </c>
+      <c r="H145" t="n">
+        <v>241.5683333333333</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>239</v>
+      </c>
+      <c r="C146" t="n">
+        <v>239</v>
+      </c>
+      <c r="D146" t="n">
+        <v>239</v>
+      </c>
+      <c r="E146" t="n">
+        <v>239</v>
+      </c>
+      <c r="F146" t="n">
+        <v>30</v>
+      </c>
+      <c r="G146" t="n">
+        <v>239.0066666666665</v>
+      </c>
+      <c r="H146" t="n">
+        <v>241.4616666666667</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>240</v>
+      </c>
+      <c r="C147" t="n">
+        <v>240</v>
+      </c>
+      <c r="D147" t="n">
+        <v>240</v>
+      </c>
+      <c r="E147" t="n">
+        <v>240</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2</v>
+      </c>
+      <c r="G147" t="n">
+        <v>239.0066666666665</v>
+      </c>
+      <c r="H147" t="n">
+        <v>241.3716666666667</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-19 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>242.4</v>
+        <v>238</v>
       </c>
       <c r="C2" t="n">
-        <v>242.4</v>
+        <v>238</v>
       </c>
       <c r="D2" t="n">
-        <v>242.4</v>
+        <v>238</v>
       </c>
       <c r="E2" t="n">
-        <v>242.4</v>
+        <v>238</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1287.797</v>
       </c>
       <c r="G2" t="n">
-        <v>239.38</v>
+        <v>-64737.83402780083</v>
       </c>
       <c r="H2" t="n">
-        <v>238.2499999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>242.5</v>
+        <v>238.2</v>
       </c>
       <c r="C3" t="n">
-        <v>242.6</v>
+        <v>238.2</v>
       </c>
       <c r="D3" t="n">
-        <v>242.6</v>
+        <v>238.2</v>
       </c>
       <c r="E3" t="n">
-        <v>242.5</v>
+        <v>238.2</v>
       </c>
       <c r="F3" t="n">
-        <v>46</v>
+        <v>1012.8299</v>
       </c>
       <c r="G3" t="n">
-        <v>239.6866666666667</v>
+        <v>-63725.00412780083</v>
       </c>
       <c r="H3" t="n">
-        <v>238.3783333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>241</v>
+        <v>238.4</v>
       </c>
       <c r="C4" t="n">
-        <v>241</v>
+        <v>238.8</v>
       </c>
       <c r="D4" t="n">
-        <v>241</v>
+        <v>238.8</v>
       </c>
       <c r="E4" t="n">
-        <v>241</v>
+        <v>238.4</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>9539</v>
       </c>
       <c r="G4" t="n">
-        <v>239.8866666666667</v>
+        <v>-54186.00412780083</v>
       </c>
       <c r="H4" t="n">
-        <v>238.4316666666666</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,40 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>241</v>
+        <v>238.8</v>
       </c>
       <c r="C5" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E5" t="n">
-        <v>241</v>
+        <v>238.8</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G5" t="n">
-        <v>240.02</v>
+        <v>-53686.00412780083</v>
       </c>
       <c r="H5" t="n">
-        <v>238.485</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>241</v>
-      </c>
-      <c r="L5" t="n">
-        <v>241</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -594,44 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>241.7</v>
+        <v>240</v>
       </c>
       <c r="C6" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D6" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E6" t="n">
-        <v>241.7</v>
+        <v>240</v>
       </c>
       <c r="F6" t="n">
-        <v>34528.7658</v>
+        <v>15928.1241</v>
       </c>
       <c r="G6" t="n">
-        <v>240.2866666666667</v>
+        <v>-53686.00412780083</v>
       </c>
       <c r="H6" t="n">
-        <v>238.585</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>241</v>
-      </c>
-      <c r="L6" t="n">
-        <v>241</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -640,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C7" t="n">
-        <v>238.5</v>
+        <v>238</v>
       </c>
       <c r="D7" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E7" t="n">
         <v>238</v>
       </c>
       <c r="F7" t="n">
-        <v>3540.601</v>
+        <v>6.277</v>
       </c>
       <c r="G7" t="n">
-        <v>240.32</v>
+        <v>-53692.28112780083</v>
       </c>
       <c r="H7" t="n">
-        <v>238.6283333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>241</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -684,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>238.5</v>
+        <v>240.5</v>
       </c>
       <c r="C8" t="n">
-        <v>238.5</v>
+        <v>241</v>
       </c>
       <c r="D8" t="n">
-        <v>238.5</v>
+        <v>241</v>
       </c>
       <c r="E8" t="n">
-        <v>238.5</v>
+        <v>240.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="n">
-        <v>240.3533333333334</v>
+        <v>-52692.28112780083</v>
       </c>
       <c r="H8" t="n">
-        <v>238.6683333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>241</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,42 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>238.5</v>
+        <v>239</v>
       </c>
       <c r="C9" t="n">
-        <v>238.5</v>
+        <v>239</v>
       </c>
       <c r="D9" t="n">
-        <v>238.5</v>
+        <v>239</v>
       </c>
       <c r="E9" t="n">
-        <v>238.5</v>
+        <v>239</v>
       </c>
       <c r="F9" t="n">
-        <v>857.4233</v>
+        <v>3363</v>
       </c>
       <c r="G9" t="n">
-        <v>240.3866666666667</v>
+        <v>-56055.28112780083</v>
       </c>
       <c r="H9" t="n">
-        <v>238.6966666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>241</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -772,42 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>238.5</v>
+        <v>238.3</v>
       </c>
       <c r="C10" t="n">
-        <v>238.5</v>
+        <v>238.3</v>
       </c>
       <c r="D10" t="n">
-        <v>238.5</v>
+        <v>238.3</v>
       </c>
       <c r="E10" t="n">
-        <v>238.5</v>
+        <v>238.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1054.2</v>
+        <v>278.8625</v>
       </c>
       <c r="G10" t="n">
-        <v>240.3533333333334</v>
+        <v>-56334.14362780083</v>
       </c>
       <c r="H10" t="n">
-        <v>238.725</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>241</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -816,44 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>238.5</v>
+        <v>239.3</v>
       </c>
       <c r="C11" t="n">
-        <v>238.5</v>
+        <v>239.3</v>
       </c>
       <c r="D11" t="n">
-        <v>238.5</v>
+        <v>239.3</v>
       </c>
       <c r="E11" t="n">
-        <v>238.5</v>
+        <v>239.3</v>
       </c>
       <c r="F11" t="n">
-        <v>776.7584000000001</v>
+        <v>1681.5</v>
       </c>
       <c r="G11" t="n">
-        <v>240.2533333333334</v>
+        <v>-54652.64362780083</v>
       </c>
       <c r="H11" t="n">
-        <v>238.7516666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>238.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>241</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -862,44 +783,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>238</v>
+        <v>239.3</v>
       </c>
       <c r="C12" t="n">
-        <v>237</v>
+        <v>239.3</v>
       </c>
       <c r="D12" t="n">
-        <v>238</v>
+        <v>239.3</v>
       </c>
       <c r="E12" t="n">
-        <v>237</v>
+        <v>239.3</v>
       </c>
       <c r="F12" t="n">
-        <v>3000</v>
+        <v>324.9543</v>
       </c>
       <c r="G12" t="n">
-        <v>240.12</v>
+        <v>-54652.64362780083</v>
       </c>
       <c r="H12" t="n">
-        <v>238.7533333333334</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>239.3</v>
       </c>
       <c r="K12" t="n">
-        <v>238.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>241</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -908,44 +822,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>237</v>
+        <v>239.3</v>
       </c>
       <c r="C13" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E13" t="n">
-        <v>237</v>
+        <v>239.3</v>
       </c>
       <c r="F13" t="n">
-        <v>141.4093</v>
+        <v>936.2457000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>239.9866666666667</v>
+        <v>-53716.39792780083</v>
       </c>
       <c r="H13" t="n">
-        <v>238.7366666666667</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>239.3</v>
       </c>
       <c r="K13" t="n">
-        <v>237</v>
-      </c>
-      <c r="L13" t="n">
-        <v>241</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,44 +865,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>239.4</v>
+        <v>240</v>
       </c>
       <c r="C14" t="n">
-        <v>240.9</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
-        <v>241.9</v>
+        <v>240</v>
       </c>
       <c r="E14" t="n">
-        <v>239.4</v>
+        <v>240</v>
       </c>
       <c r="F14" t="n">
-        <v>5810.3</v>
+        <v>3879.3887</v>
       </c>
       <c r="G14" t="n">
-        <v>239.98</v>
+        <v>-53716.39792780083</v>
       </c>
       <c r="H14" t="n">
-        <v>238.785</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="K14" t="n">
-        <v>237</v>
-      </c>
-      <c r="L14" t="n">
-        <v>241</v>
-      </c>
-      <c r="M14" t="inlineStr">
+        <v>239.3</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1000,44 +908,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>241.3</v>
+        <v>240</v>
       </c>
       <c r="C15" t="n">
-        <v>241.9</v>
+        <v>240</v>
       </c>
       <c r="D15" t="n">
-        <v>241.9</v>
+        <v>240</v>
       </c>
       <c r="E15" t="n">
-        <v>241.3</v>
+        <v>240</v>
       </c>
       <c r="F15" t="n">
-        <v>2007</v>
+        <v>1967.7824</v>
       </c>
       <c r="G15" t="n">
-        <v>240.04</v>
+        <v>-53716.39792780083</v>
       </c>
       <c r="H15" t="n">
-        <v>238.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>240.9</v>
-      </c>
-      <c r="L15" t="n">
-        <v>241</v>
-      </c>
-      <c r="M15" t="inlineStr">
+        <v>239.3</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,42 +949,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C16" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D16" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E16" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F16" t="n">
-        <v>43668.996</v>
+        <v>368.9</v>
       </c>
       <c r="G16" t="n">
-        <v>240.0866666666667</v>
+        <v>-53716.39792780083</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>241</v>
-      </c>
-      <c r="M16" t="inlineStr">
+        <v>240</v>
+      </c>
+      <c r="K16" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1090,42 +992,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C17" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D17" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E17" t="n">
-        <v>242.7</v>
+        <v>238</v>
       </c>
       <c r="F17" t="n">
-        <v>10323.2002</v>
+        <v>1687.9593</v>
       </c>
       <c r="G17" t="n">
-        <v>240.1266666666667</v>
+        <v>-55404.35722780084</v>
       </c>
       <c r="H17" t="n">
-        <v>238.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>241</v>
-      </c>
-      <c r="M17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1134,42 +1033,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C18" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D18" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E18" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F18" t="n">
-        <v>12800.7842</v>
+        <v>15930.4832</v>
       </c>
       <c r="G18" t="n">
-        <v>240.1533333333333</v>
+        <v>-55404.35722780084</v>
       </c>
       <c r="H18" t="n">
-        <v>239.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>241</v>
-      </c>
-      <c r="M18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1178,42 +1074,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C19" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D19" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E19" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F19" t="n">
-        <v>564.1583000000001</v>
+        <v>1735.569</v>
       </c>
       <c r="G19" t="n">
-        <v>240.2866666666667</v>
+        <v>-53668.78822780083</v>
       </c>
       <c r="H19" t="n">
-        <v>239.165</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>241</v>
-      </c>
-      <c r="M19" t="inlineStr">
+        <v>238</v>
+      </c>
+      <c r="K19" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1222,42 +1117,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C20" t="n">
-        <v>246.4</v>
+        <v>238</v>
       </c>
       <c r="D20" t="n">
-        <v>246.4</v>
+        <v>238</v>
       </c>
       <c r="E20" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F20" t="n">
-        <v>34767.6846</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>240.6466666666667</v>
+        <v>-53688.78822780083</v>
       </c>
       <c r="H20" t="n">
-        <v>239.3366666666666</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>241</v>
-      </c>
-      <c r="M20" t="inlineStr">
+        <v>239</v>
+      </c>
+      <c r="K20" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1266,42 +1160,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>246.4</v>
+        <v>238</v>
       </c>
       <c r="C21" t="n">
-        <v>249.8</v>
+        <v>238</v>
       </c>
       <c r="D21" t="n">
-        <v>249.8</v>
+        <v>238</v>
       </c>
       <c r="E21" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F21" t="n">
-        <v>3924.1801</v>
+        <v>893.2301</v>
       </c>
       <c r="G21" t="n">
-        <v>241.1666666666667</v>
+        <v>-53688.78822780083</v>
       </c>
       <c r="H21" t="n">
-        <v>239.5333333333333</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>241</v>
-      </c>
-      <c r="M21" t="inlineStr">
+        <v>238</v>
+      </c>
+      <c r="K21" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1310,42 +1203,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>249.7</v>
+        <v>238</v>
       </c>
       <c r="C22" t="n">
-        <v>249.8</v>
+        <v>238</v>
       </c>
       <c r="D22" t="n">
-        <v>249.8</v>
+        <v>238</v>
       </c>
       <c r="E22" t="n">
-        <v>249.7</v>
+        <v>238</v>
       </c>
       <c r="F22" t="n">
-        <v>3787</v>
+        <v>484.1117</v>
       </c>
       <c r="G22" t="n">
-        <v>241.92</v>
+        <v>-53688.78822780083</v>
       </c>
       <c r="H22" t="n">
-        <v>239.7616666666666</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>241</v>
-      </c>
-      <c r="M22" t="inlineStr">
+        <v>238</v>
+      </c>
+      <c r="K22" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1354,42 +1246,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>248.8</v>
+        <v>238</v>
       </c>
       <c r="C23" t="n">
-        <v>249.8</v>
+        <v>238</v>
       </c>
       <c r="D23" t="n">
-        <v>249.8</v>
+        <v>238</v>
       </c>
       <c r="E23" t="n">
-        <v>248.8</v>
+        <v>238</v>
       </c>
       <c r="F23" t="n">
-        <v>4094.826</v>
+        <v>1650.1442</v>
       </c>
       <c r="G23" t="n">
-        <v>242.6733333333334</v>
+        <v>-53688.78822780083</v>
       </c>
       <c r="H23" t="n">
-        <v>239.9899999999999</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>241</v>
-      </c>
-      <c r="M23" t="inlineStr">
+        <v>238</v>
+      </c>
+      <c r="K23" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1398,42 +1289,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>249.8</v>
+        <v>239</v>
       </c>
       <c r="C24" t="n">
-        <v>249.8</v>
+        <v>239</v>
       </c>
       <c r="D24" t="n">
-        <v>249.8</v>
+        <v>239</v>
       </c>
       <c r="E24" t="n">
-        <v>248.7</v>
+        <v>239</v>
       </c>
       <c r="F24" t="n">
-        <v>3977.2142</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>243.4266666666667</v>
+        <v>-53668.78822780083</v>
       </c>
       <c r="H24" t="n">
-        <v>240.2216666666666</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>241</v>
-      </c>
-      <c r="M24" t="inlineStr">
+        <v>238</v>
+      </c>
+      <c r="K24" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,42 +1332,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>249.7</v>
+        <v>240</v>
       </c>
       <c r="C25" t="n">
-        <v>249.7</v>
+        <v>240</v>
       </c>
       <c r="D25" t="n">
-        <v>249.7</v>
+        <v>240</v>
       </c>
       <c r="E25" t="n">
-        <v>249.7</v>
+        <v>240</v>
       </c>
       <c r="F25" t="n">
-        <v>5726.627</v>
+        <v>4088.9883</v>
       </c>
       <c r="G25" t="n">
-        <v>244.1733333333334</v>
+        <v>-49579.79992780084</v>
       </c>
       <c r="H25" t="n">
-        <v>240.4333333333333</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>241</v>
-      </c>
-      <c r="M25" t="inlineStr">
+        <v>239</v>
+      </c>
+      <c r="K25" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1486,42 +1375,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C26" t="n">
-        <v>248.7</v>
+        <v>239</v>
       </c>
       <c r="D26" t="n">
-        <v>248.7</v>
+        <v>239</v>
       </c>
       <c r="E26" t="n">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F26" t="n">
-        <v>6912.5958</v>
+        <v>405.5622</v>
       </c>
       <c r="G26" t="n">
-        <v>244.8533333333334</v>
+        <v>-49985.36212780084</v>
       </c>
       <c r="H26" t="n">
-        <v>240.645</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>241</v>
-      </c>
-      <c r="M26" t="inlineStr">
+        <v>240</v>
+      </c>
+      <c r="K26" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1530,42 +1418,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>248.7</v>
+        <v>239</v>
       </c>
       <c r="C27" t="n">
-        <v>254.3</v>
+        <v>239</v>
       </c>
       <c r="D27" t="n">
-        <v>254.3</v>
+        <v>239</v>
       </c>
       <c r="E27" t="n">
-        <v>248.7</v>
+        <v>239</v>
       </c>
       <c r="F27" t="n">
-        <v>22572.0424</v>
+        <v>1148.2</v>
       </c>
       <c r="G27" t="n">
-        <v>246.0066666666667</v>
+        <v>-49985.36212780084</v>
       </c>
       <c r="H27" t="n">
-        <v>240.9333333333333</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>241</v>
-      </c>
-      <c r="M27" t="inlineStr">
+        <v>239</v>
+      </c>
+      <c r="K27" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,42 +1461,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>254.3</v>
+        <v>240</v>
       </c>
       <c r="C28" t="n">
-        <v>254.3</v>
+        <v>241</v>
       </c>
       <c r="D28" t="n">
-        <v>254.3</v>
+        <v>241</v>
       </c>
       <c r="E28" t="n">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F28" t="n">
-        <v>621</v>
+        <v>344.5</v>
       </c>
       <c r="G28" t="n">
-        <v>247.1600000000001</v>
+        <v>-49640.86212780084</v>
       </c>
       <c r="H28" t="n">
-        <v>241.2216666666666</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>241</v>
-      </c>
-      <c r="M28" t="inlineStr">
+        <v>239</v>
+      </c>
+      <c r="K28" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1618,42 +1504,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>254.3</v>
+        <v>241</v>
       </c>
       <c r="C29" t="n">
-        <v>258.7</v>
+        <v>241</v>
       </c>
       <c r="D29" t="n">
-        <v>258.7</v>
+        <v>241</v>
       </c>
       <c r="E29" t="n">
-        <v>254.3</v>
+        <v>241</v>
       </c>
       <c r="F29" t="n">
-        <v>20748.5795</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>248.3466666666667</v>
+        <v>-49640.86212780084</v>
       </c>
       <c r="H29" t="n">
-        <v>241.5666666666666</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
         <v>241</v>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="K29" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1662,42 +1547,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>258.9</v>
+        <v>242</v>
       </c>
       <c r="C30" t="n">
-        <v>259.8</v>
+        <v>242.3</v>
       </c>
       <c r="D30" t="n">
-        <v>259.8</v>
+        <v>242.3</v>
       </c>
       <c r="E30" t="n">
-        <v>258.9</v>
+        <v>242</v>
       </c>
       <c r="F30" t="n">
-        <v>15182.7355</v>
+        <v>63.55</v>
       </c>
       <c r="G30" t="n">
-        <v>249.54</v>
+        <v>-49577.31212780083</v>
       </c>
       <c r="H30" t="n">
-        <v>241.9299999999999</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
         <v>241</v>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="K30" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,42 +1590,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>259.8</v>
+        <v>242.4</v>
       </c>
       <c r="C31" t="n">
-        <v>261</v>
+        <v>242.4</v>
       </c>
       <c r="D31" t="n">
-        <v>261</v>
+        <v>242.4</v>
       </c>
       <c r="E31" t="n">
-        <v>259.8</v>
+        <v>242.4</v>
       </c>
       <c r="F31" t="n">
-        <v>14066.996</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>250.7400000000001</v>
+        <v>-49574.31212780083</v>
       </c>
       <c r="H31" t="n">
-        <v>242.3133333333332</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>241</v>
-      </c>
-      <c r="M31" t="inlineStr">
+        <v>242.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1750,42 +1633,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>260.1</v>
+        <v>242.5</v>
       </c>
       <c r="C32" t="n">
-        <v>260.1</v>
+        <v>242.6</v>
       </c>
       <c r="D32" t="n">
-        <v>260.1</v>
+        <v>242.6</v>
       </c>
       <c r="E32" t="n">
-        <v>260.1</v>
+        <v>242.5</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="G32" t="n">
-        <v>251.8800000000001</v>
+        <v>-49528.31212780083</v>
       </c>
       <c r="H32" t="n">
-        <v>242.6783333333333</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>241</v>
-      </c>
-      <c r="M32" t="inlineStr">
+        <v>242.4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,42 +1676,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C33" t="n">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D33" t="n">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E33" t="n">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F33" t="n">
-        <v>5353.0442</v>
+        <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>252.9466666666667</v>
+        <v>-49548.31212780083</v>
       </c>
       <c r="H33" t="n">
-        <v>243.0283333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>241</v>
-      </c>
-      <c r="M33" t="inlineStr">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1838,42 +1717,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C34" t="n">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D34" t="n">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E34" t="n">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F34" t="n">
-        <v>10491.8994</v>
+        <v>30</v>
       </c>
       <c r="G34" t="n">
-        <v>253.6133333333334</v>
+        <v>-49548.31212780083</v>
       </c>
       <c r="H34" t="n">
-        <v>243.2749999999999</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
         <v>241</v>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="K34" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,42 +1760,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>251</v>
+        <v>241.7</v>
       </c>
       <c r="C35" t="n">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D35" t="n">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E35" t="n">
-        <v>246</v>
+        <v>241.7</v>
       </c>
       <c r="F35" t="n">
-        <v>14217.9644</v>
+        <v>34528.7658</v>
       </c>
       <c r="G35" t="n">
-        <v>254.12</v>
+        <v>-15019.54632780083</v>
       </c>
       <c r="H35" t="n">
-        <v>243.5283333333333</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
         <v>241</v>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="K35" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1926,42 +1803,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C36" t="n">
-        <v>252</v>
+        <v>238.5</v>
       </c>
       <c r="D36" t="n">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E36" t="n">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F36" t="n">
-        <v>16.3983</v>
+        <v>3540.601</v>
       </c>
       <c r="G36" t="n">
-        <v>254.2666666666667</v>
+        <v>-18560.14732780083</v>
       </c>
       <c r="H36" t="n">
-        <v>243.7283333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>241</v>
-      </c>
-      <c r="M36" t="inlineStr">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1970,42 +1844,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>252</v>
+        <v>238.5</v>
       </c>
       <c r="C37" t="n">
-        <v>250</v>
+        <v>238.5</v>
       </c>
       <c r="D37" t="n">
-        <v>253.9</v>
+        <v>238.5</v>
       </c>
       <c r="E37" t="n">
-        <v>250</v>
+        <v>238.5</v>
       </c>
       <c r="F37" t="n">
-        <v>484.7</v>
+        <v>1600</v>
       </c>
       <c r="G37" t="n">
-        <v>254.28</v>
+        <v>-18560.14732780083</v>
       </c>
       <c r="H37" t="n">
-        <v>243.8949999999999</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>241</v>
-      </c>
-      <c r="M37" t="inlineStr">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2014,42 +1885,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>248</v>
+        <v>238.5</v>
       </c>
       <c r="C38" t="n">
-        <v>259</v>
+        <v>238.5</v>
       </c>
       <c r="D38" t="n">
-        <v>259</v>
+        <v>238.5</v>
       </c>
       <c r="E38" t="n">
-        <v>246.1</v>
+        <v>238.5</v>
       </c>
       <c r="F38" t="n">
-        <v>11297.1575</v>
+        <v>857.4233</v>
       </c>
       <c r="G38" t="n">
-        <v>254.8933333333333</v>
+        <v>-18560.14732780083</v>
       </c>
       <c r="H38" t="n">
-        <v>244.2449999999999</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>241</v>
-      </c>
-      <c r="M38" t="inlineStr">
+        <v>238.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,42 +1928,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>259</v>
+        <v>238.5</v>
       </c>
       <c r="C39" t="n">
-        <v>265</v>
+        <v>238.5</v>
       </c>
       <c r="D39" t="n">
-        <v>265</v>
+        <v>238.5</v>
       </c>
       <c r="E39" t="n">
-        <v>253</v>
+        <v>238.5</v>
       </c>
       <c r="F39" t="n">
-        <v>12191.61467664151</v>
+        <v>1054.2</v>
       </c>
       <c r="G39" t="n">
-        <v>255.9066666666667</v>
+        <v>-18560.14732780083</v>
       </c>
       <c r="H39" t="n">
-        <v>244.6449999999999</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>241</v>
-      </c>
-      <c r="M39" t="inlineStr">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2102,42 +1969,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>264</v>
+        <v>238.5</v>
       </c>
       <c r="C40" t="n">
-        <v>264</v>
+        <v>238.5</v>
       </c>
       <c r="D40" t="n">
-        <v>264</v>
+        <v>238.5</v>
       </c>
       <c r="E40" t="n">
-        <v>264</v>
+        <v>238.5</v>
       </c>
       <c r="F40" t="n">
-        <v>22</v>
+        <v>776.7584000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>256.86</v>
+        <v>-18560.14732780083</v>
       </c>
       <c r="H40" t="n">
-        <v>245.0616666666666</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>241</v>
-      </c>
-      <c r="M40" t="inlineStr">
+        <v>238.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,43 +2012,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C41" t="n">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D41" t="n">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E41" t="n">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="F41" t="n">
-        <v>1502.1698</v>
+        <v>3000</v>
       </c>
       <c r="G41" t="n">
-        <v>257.28</v>
+        <v>-21560.14732780083</v>
       </c>
       <c r="H41" t="n">
-        <v>245.3399999999999</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>241</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>1.053091286307054</v>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2190,36 +2053,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>253.9</v>
+        <v>237</v>
       </c>
       <c r="C42" t="n">
-        <v>253.9</v>
+        <v>237</v>
       </c>
       <c r="D42" t="n">
-        <v>253.9</v>
+        <v>237</v>
       </c>
       <c r="E42" t="n">
-        <v>253.9</v>
+        <v>237</v>
       </c>
       <c r="F42" t="n">
-        <v>22</v>
+        <v>141.4093</v>
       </c>
       <c r="G42" t="n">
-        <v>257.2533333333333</v>
+        <v>-21560.14732780083</v>
       </c>
       <c r="H42" t="n">
-        <v>245.5833333333333</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+        <v>237</v>
+      </c>
+      <c r="K42" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2228,36 +2096,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>252</v>
+        <v>239.4</v>
       </c>
       <c r="C43" t="n">
-        <v>255.9</v>
+        <v>240.9</v>
       </c>
       <c r="D43" t="n">
-        <v>257</v>
+        <v>241.9</v>
       </c>
       <c r="E43" t="n">
-        <v>252</v>
+        <v>239.4</v>
       </c>
       <c r="F43" t="n">
-        <v>3901.2</v>
+        <v>5810.3</v>
       </c>
       <c r="G43" t="n">
-        <v>257.36</v>
+        <v>-15749.84732780083</v>
       </c>
       <c r="H43" t="n">
-        <v>245.86</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+        <v>237</v>
+      </c>
+      <c r="K43" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2266,36 +2139,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>254.9</v>
+        <v>241.3</v>
       </c>
       <c r="C44" t="n">
-        <v>256</v>
+        <v>241.9</v>
       </c>
       <c r="D44" t="n">
-        <v>256</v>
+        <v>241.9</v>
       </c>
       <c r="E44" t="n">
-        <v>254.9</v>
+        <v>241.3</v>
       </c>
       <c r="F44" t="n">
-        <v>150.0407</v>
+        <v>2007</v>
       </c>
       <c r="G44" t="n">
-        <v>257.18</v>
+        <v>-13742.84732780083</v>
       </c>
       <c r="H44" t="n">
-        <v>246.1266666666666</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+        <v>240.9</v>
+      </c>
+      <c r="K44" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2304,36 +2182,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>255.9</v>
+        <v>242</v>
       </c>
       <c r="C45" t="n">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D45" t="n">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E45" t="n">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F45" t="n">
-        <v>28</v>
+        <v>43668.996</v>
       </c>
       <c r="G45" t="n">
-        <v>256.9266666666666</v>
+        <v>29926.14867219917</v>
       </c>
       <c r="H45" t="n">
-        <v>246.3933333333333</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+        <v>241.9</v>
+      </c>
+      <c r="K45" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,36 +2225,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>253.1</v>
+        <v>243</v>
       </c>
       <c r="C46" t="n">
-        <v>264.9</v>
+        <v>243</v>
       </c>
       <c r="D46" t="n">
-        <v>264.9</v>
+        <v>243</v>
       </c>
       <c r="E46" t="n">
-        <v>249</v>
+        <v>242.7</v>
       </c>
       <c r="F46" t="n">
-        <v>13397.7295</v>
+        <v>10323.2002</v>
       </c>
       <c r="G46" t="n">
-        <v>257.1866666666666</v>
+        <v>29926.14867219917</v>
       </c>
       <c r="H46" t="n">
-        <v>246.8083333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2380,36 +2266,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C47" t="n">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="D47" t="n">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="E47" t="n">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>12800.7842</v>
       </c>
       <c r="G47" t="n">
-        <v>257.4466666666666</v>
+        <v>29926.14867219917</v>
       </c>
       <c r="H47" t="n">
-        <v>247.2083333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2418,36 +2307,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C48" t="n">
-        <v>263.9</v>
+        <v>243</v>
       </c>
       <c r="D48" t="n">
-        <v>263.9</v>
+        <v>243</v>
       </c>
       <c r="E48" t="n">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F48" t="n">
-        <v>1778.9</v>
+        <v>564.1583000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>257.7733333333333</v>
+        <v>29926.14867219917</v>
       </c>
       <c r="H48" t="n">
-        <v>247.6399999999999</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2456,36 +2348,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C49" t="n">
-        <v>245.9</v>
+        <v>246.4</v>
       </c>
       <c r="D49" t="n">
-        <v>253</v>
+        <v>246.4</v>
       </c>
       <c r="E49" t="n">
-        <v>245.9</v>
+        <v>243</v>
       </c>
       <c r="F49" t="n">
-        <v>13966.8673</v>
+        <v>34767.6846</v>
       </c>
       <c r="G49" t="n">
-        <v>257.3</v>
+        <v>64693.83327219917</v>
       </c>
       <c r="H49" t="n">
-        <v>247.7716666666666</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,36 +2389,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>251</v>
+        <v>246.4</v>
       </c>
       <c r="C50" t="n">
-        <v>251</v>
+        <v>249.8</v>
       </c>
       <c r="D50" t="n">
-        <v>251</v>
+        <v>249.8</v>
       </c>
       <c r="E50" t="n">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>3924.1801</v>
       </c>
       <c r="G50" t="n">
-        <v>257.1</v>
+        <v>68618.01337219917</v>
       </c>
       <c r="H50" t="n">
-        <v>247.9716666666666</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2532,36 +2430,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>247</v>
+        <v>249.7</v>
       </c>
       <c r="C51" t="n">
-        <v>245.8</v>
+        <v>249.8</v>
       </c>
       <c r="D51" t="n">
-        <v>247</v>
+        <v>249.8</v>
       </c>
       <c r="E51" t="n">
-        <v>245.8</v>
+        <v>249.7</v>
       </c>
       <c r="F51" t="n">
-        <v>12020.254</v>
+        <v>3787</v>
       </c>
       <c r="G51" t="n">
-        <v>256.6866666666666</v>
+        <v>68618.01337219917</v>
       </c>
       <c r="H51" t="n">
-        <v>248.1016666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2570,36 +2471,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>245</v>
+        <v>248.8</v>
       </c>
       <c r="C52" t="n">
-        <v>251.9</v>
+        <v>249.8</v>
       </c>
       <c r="D52" t="n">
-        <v>251.9</v>
+        <v>249.8</v>
       </c>
       <c r="E52" t="n">
-        <v>237.5</v>
+        <v>248.8</v>
       </c>
       <c r="F52" t="n">
-        <v>12312.6147</v>
+        <v>4094.826</v>
       </c>
       <c r="G52" t="n">
-        <v>256.8133333333333</v>
+        <v>68618.01337219917</v>
       </c>
       <c r="H52" t="n">
-        <v>248.3333333333332</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2608,36 +2512,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>245.9</v>
+        <v>249.8</v>
       </c>
       <c r="C53" t="n">
-        <v>245.9</v>
+        <v>249.8</v>
       </c>
       <c r="D53" t="n">
-        <v>245.9</v>
+        <v>249.8</v>
       </c>
       <c r="E53" t="n">
-        <v>245.9</v>
+        <v>248.7</v>
       </c>
       <c r="F53" t="n">
-        <v>1997.2</v>
+        <v>3977.2142</v>
       </c>
       <c r="G53" t="n">
-        <v>255.9399999999999</v>
+        <v>68618.01337219917</v>
       </c>
       <c r="H53" t="n">
-        <v>248.4649999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2646,36 +2553,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>246</v>
+        <v>249.7</v>
       </c>
       <c r="C54" t="n">
-        <v>246</v>
+        <v>249.7</v>
       </c>
       <c r="D54" t="n">
-        <v>246</v>
+        <v>249.7</v>
       </c>
       <c r="E54" t="n">
-        <v>246</v>
+        <v>249.7</v>
       </c>
       <c r="F54" t="n">
-        <v>18</v>
+        <v>5726.627</v>
       </c>
       <c r="G54" t="n">
-        <v>254.6733333333332</v>
+        <v>62891.38637219917</v>
       </c>
       <c r="H54" t="n">
-        <v>248.5983333333332</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2684,36 +2594,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C55" t="n">
-        <v>260.8</v>
+        <v>248.7</v>
       </c>
       <c r="D55" t="n">
-        <v>260.9</v>
+        <v>248.7</v>
       </c>
       <c r="E55" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F55" t="n">
-        <v>729</v>
+        <v>6912.5958</v>
       </c>
       <c r="G55" t="n">
-        <v>254.4599999999999</v>
+        <v>55978.79057219917</v>
       </c>
       <c r="H55" t="n">
-        <v>248.9616666666666</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,36 +2635,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>246</v>
+        <v>248.7</v>
       </c>
       <c r="C56" t="n">
-        <v>247</v>
+        <v>254.3</v>
       </c>
       <c r="D56" t="n">
-        <v>247</v>
+        <v>254.3</v>
       </c>
       <c r="E56" t="n">
-        <v>242.2</v>
+        <v>248.7</v>
       </c>
       <c r="F56" t="n">
-        <v>2787.6352</v>
+        <v>22572.0424</v>
       </c>
       <c r="G56" t="n">
-        <v>253.9266666666666</v>
+        <v>78550.83297219916</v>
       </c>
       <c r="H56" t="n">
-        <v>249.0783333333332</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2760,36 +2676,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>246</v>
+        <v>254.3</v>
       </c>
       <c r="C57" t="n">
-        <v>246</v>
+        <v>254.3</v>
       </c>
       <c r="D57" t="n">
-        <v>246</v>
+        <v>254.3</v>
       </c>
       <c r="E57" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F57" t="n">
-        <v>50</v>
+        <v>621</v>
       </c>
       <c r="G57" t="n">
-        <v>253.3999999999999</v>
+        <v>78550.83297219916</v>
       </c>
       <c r="H57" t="n">
-        <v>249.1949999999999</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2798,36 +2717,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>245.6</v>
+        <v>254.3</v>
       </c>
       <c r="C58" t="n">
-        <v>240</v>
+        <v>258.7</v>
       </c>
       <c r="D58" t="n">
-        <v>245.6</v>
+        <v>258.7</v>
       </c>
       <c r="E58" t="n">
-        <v>240</v>
+        <v>254.3</v>
       </c>
       <c r="F58" t="n">
-        <v>3858.7843</v>
+        <v>20748.5795</v>
       </c>
       <c r="G58" t="n">
-        <v>252.3399999999999</v>
+        <v>99299.41247219915</v>
       </c>
       <c r="H58" t="n">
-        <v>249.2116666666666</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2836,36 +2758,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>245.5</v>
+        <v>258.9</v>
       </c>
       <c r="C59" t="n">
-        <v>245.5</v>
+        <v>259.8</v>
       </c>
       <c r="D59" t="n">
-        <v>245.5</v>
+        <v>259.8</v>
       </c>
       <c r="E59" t="n">
-        <v>245.5</v>
+        <v>258.9</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>15182.7355</v>
       </c>
       <c r="G59" t="n">
-        <v>251.6399999999999</v>
+        <v>114482.1479721991</v>
       </c>
       <c r="H59" t="n">
-        <v>249.2866666666665</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2874,36 +2799,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>240</v>
+        <v>259.8</v>
       </c>
       <c r="C60" t="n">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="D60" t="n">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E60" t="n">
-        <v>240</v>
+        <v>259.8</v>
       </c>
       <c r="F60" t="n">
-        <v>1199.4851</v>
+        <v>14066.996</v>
       </c>
       <c r="G60" t="n">
-        <v>250.5733333333332</v>
+        <v>128549.1439721991</v>
       </c>
       <c r="H60" t="n">
-        <v>249.2699999999999</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,36 +2840,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>244</v>
+        <v>260.1</v>
       </c>
       <c r="C61" t="n">
-        <v>244</v>
+        <v>260.1</v>
       </c>
       <c r="D61" t="n">
-        <v>244</v>
+        <v>260.1</v>
       </c>
       <c r="E61" t="n">
-        <v>244</v>
+        <v>260.1</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>249.1799999999999</v>
+        <v>128547.1439721991</v>
       </c>
       <c r="H61" t="n">
-        <v>249.2983333333332</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,36 +2881,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>245.5</v>
+        <v>254</v>
       </c>
       <c r="C62" t="n">
-        <v>245.5</v>
+        <v>259</v>
       </c>
       <c r="D62" t="n">
-        <v>245.5</v>
+        <v>260</v>
       </c>
       <c r="E62" t="n">
-        <v>245.5</v>
+        <v>251</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>5353.0442</v>
       </c>
       <c r="G62" t="n">
-        <v>247.9466666666666</v>
+        <v>123194.0997721991</v>
       </c>
       <c r="H62" t="n">
-        <v>249.3499999999999</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,36 +2922,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>245.9</v>
+        <v>253</v>
       </c>
       <c r="C63" t="n">
-        <v>245.9</v>
+        <v>253</v>
       </c>
       <c r="D63" t="n">
-        <v>245.9</v>
+        <v>254</v>
       </c>
       <c r="E63" t="n">
-        <v>245.9</v>
+        <v>250</v>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>10491.8994</v>
       </c>
       <c r="G63" t="n">
-        <v>246.7466666666666</v>
+        <v>112702.2003721991</v>
       </c>
       <c r="H63" t="n">
-        <v>249.4049999999999</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3026,36 +2963,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>245.9</v>
+        <v>251</v>
       </c>
       <c r="C64" t="n">
-        <v>245.9</v>
+        <v>254</v>
       </c>
       <c r="D64" t="n">
-        <v>245.9</v>
+        <v>254</v>
       </c>
       <c r="E64" t="n">
-        <v>245.9</v>
+        <v>246</v>
       </c>
       <c r="F64" t="n">
-        <v>12</v>
+        <v>14217.9644</v>
       </c>
       <c r="G64" t="n">
-        <v>246.7466666666666</v>
+        <v>126920.1647721991</v>
       </c>
       <c r="H64" t="n">
-        <v>249.4866666666666</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3064,36 +3004,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>240.5</v>
+        <v>252</v>
       </c>
       <c r="C65" t="n">
-        <v>238.3</v>
+        <v>252</v>
       </c>
       <c r="D65" t="n">
-        <v>240.5</v>
+        <v>252</v>
       </c>
       <c r="E65" t="n">
-        <v>238.3</v>
+        <v>252</v>
       </c>
       <c r="F65" t="n">
-        <v>9170.357</v>
+        <v>16.3983</v>
       </c>
       <c r="G65" t="n">
-        <v>245.8999999999999</v>
+        <v>126903.7664721991</v>
       </c>
       <c r="H65" t="n">
-        <v>249.4416666666665</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,36 +3045,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>243.8</v>
+        <v>252</v>
       </c>
       <c r="C66" t="n">
-        <v>243.8</v>
+        <v>250</v>
       </c>
       <c r="D66" t="n">
-        <v>243.8</v>
+        <v>253.9</v>
       </c>
       <c r="E66" t="n">
-        <v>243.8</v>
+        <v>250</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>484.7</v>
       </c>
       <c r="G66" t="n">
-        <v>245.7666666666666</v>
+        <v>126419.0664721991</v>
       </c>
       <c r="H66" t="n">
-        <v>249.4716666666665</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,36 +3086,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>240.5</v>
+        <v>248</v>
       </c>
       <c r="C67" t="n">
-        <v>240.5</v>
+        <v>259</v>
       </c>
       <c r="D67" t="n">
-        <v>240.5</v>
+        <v>259</v>
       </c>
       <c r="E67" t="n">
-        <v>240.5</v>
+        <v>246.1</v>
       </c>
       <c r="F67" t="n">
-        <v>3.8698</v>
+        <v>11297.1575</v>
       </c>
       <c r="G67" t="n">
-        <v>245.0066666666666</v>
+        <v>137716.2239721991</v>
       </c>
       <c r="H67" t="n">
-        <v>249.5049999999999</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,36 +3127,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>243.8</v>
+        <v>259</v>
       </c>
       <c r="C68" t="n">
-        <v>243.8</v>
+        <v>265</v>
       </c>
       <c r="D68" t="n">
-        <v>243.8</v>
+        <v>265</v>
       </c>
       <c r="E68" t="n">
-        <v>243.8</v>
+        <v>253</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>12191.61467664151</v>
       </c>
       <c r="G68" t="n">
-        <v>244.8666666666666</v>
+        <v>149907.8386488406</v>
       </c>
       <c r="H68" t="n">
-        <v>249.5933333333332</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,36 +3168,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>240.5</v>
+        <v>264</v>
       </c>
       <c r="C69" t="n">
-        <v>240.5</v>
+        <v>264</v>
       </c>
       <c r="D69" t="n">
-        <v>240.5</v>
+        <v>264</v>
       </c>
       <c r="E69" t="n">
-        <v>240.5</v>
+        <v>264</v>
       </c>
       <c r="F69" t="n">
-        <v>6619.0557</v>
+        <v>22</v>
       </c>
       <c r="G69" t="n">
-        <v>244.4999999999999</v>
+        <v>149885.8386488406</v>
       </c>
       <c r="H69" t="n">
-        <v>249.6266666666665</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3254,36 +3209,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>240.5</v>
+        <v>253</v>
       </c>
       <c r="C70" t="n">
-        <v>240.5</v>
+        <v>255</v>
       </c>
       <c r="D70" t="n">
-        <v>240.5</v>
+        <v>255</v>
       </c>
       <c r="E70" t="n">
-        <v>240.5</v>
+        <v>253</v>
       </c>
       <c r="F70" t="n">
-        <v>128.0484</v>
+        <v>1502.1698</v>
       </c>
       <c r="G70" t="n">
-        <v>243.1466666666666</v>
+        <v>148383.6688488406</v>
       </c>
       <c r="H70" t="n">
-        <v>249.6599999999999</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3292,36 +3250,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>241.9</v>
+        <v>253.9</v>
       </c>
       <c r="C71" t="n">
-        <v>259.8</v>
+        <v>253.9</v>
       </c>
       <c r="D71" t="n">
-        <v>259.8</v>
+        <v>253.9</v>
       </c>
       <c r="E71" t="n">
-        <v>241.9</v>
+        <v>253.9</v>
       </c>
       <c r="F71" t="n">
-        <v>4766.4799</v>
+        <v>22</v>
       </c>
       <c r="G71" t="n">
-        <v>243.9999999999999</v>
+        <v>148361.6688488406</v>
       </c>
       <c r="H71" t="n">
-        <v>250.0149999999998</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,36 +3291,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>240.5</v>
+        <v>252</v>
       </c>
       <c r="C72" t="n">
-        <v>241</v>
+        <v>255.9</v>
       </c>
       <c r="D72" t="n">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E72" t="n">
-        <v>240.5</v>
+        <v>252</v>
       </c>
       <c r="F72" t="n">
-        <v>310.6277</v>
+        <v>3901.2</v>
       </c>
       <c r="G72" t="n">
-        <v>243.6666666666666</v>
+        <v>152262.8688488406</v>
       </c>
       <c r="H72" t="n">
-        <v>250.0816666666665</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3368,36 +3332,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>255</v>
+        <v>254.9</v>
       </c>
       <c r="C73" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D73" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E73" t="n">
-        <v>251.7</v>
+        <v>254.9</v>
       </c>
       <c r="F73" t="n">
-        <v>6660.05</v>
+        <v>150.0407</v>
       </c>
       <c r="G73" t="n">
-        <v>244.6666666666666</v>
+        <v>152412.9095488407</v>
       </c>
       <c r="H73" t="n">
-        <v>250.3816666666665</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,36 +3373,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>253.8</v>
+        <v>255.9</v>
       </c>
       <c r="C74" t="n">
-        <v>253.8</v>
+        <v>256</v>
       </c>
       <c r="D74" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E74" t="n">
-        <v>253.8</v>
+        <v>255</v>
       </c>
       <c r="F74" t="n">
-        <v>1392.6573</v>
+        <v>28</v>
       </c>
       <c r="G74" t="n">
-        <v>245.2199999999999</v>
+        <v>152412.9095488407</v>
       </c>
       <c r="H74" t="n">
-        <v>250.5966666666665</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3444,36 +3414,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>250</v>
+        <v>253.1</v>
       </c>
       <c r="C75" t="n">
-        <v>250</v>
+        <v>264.9</v>
       </c>
       <c r="D75" t="n">
-        <v>250</v>
+        <v>264.9</v>
       </c>
       <c r="E75" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F75" t="n">
-        <v>62.6016</v>
+        <v>13397.7295</v>
       </c>
       <c r="G75" t="n">
-        <v>245.8866666666666</v>
+        <v>165810.6390488406</v>
       </c>
       <c r="H75" t="n">
-        <v>250.7316666666665</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,37 +3455,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>246.9</v>
+        <v>264</v>
       </c>
       <c r="C76" t="n">
-        <v>246.9</v>
+        <v>264</v>
       </c>
       <c r="D76" t="n">
-        <v>246.9</v>
+        <v>264</v>
       </c>
       <c r="E76" t="n">
-        <v>246.9</v>
+        <v>264</v>
       </c>
       <c r="F76" t="n">
-        <v>2098.1563</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>246.0799999999999</v>
+        <v>165805.6390488406</v>
       </c>
       <c r="H76" t="n">
-        <v>250.7966666666665</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>1.098217718345174</v>
       </c>
     </row>
     <row r="77">
@@ -3520,36 +3496,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C77" t="n">
-        <v>248.9</v>
+        <v>263.9</v>
       </c>
       <c r="D77" t="n">
-        <v>248.9</v>
+        <v>263.9</v>
       </c>
       <c r="E77" t="n">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F77" t="n">
-        <v>2769.2535</v>
+        <v>1778.9</v>
       </c>
       <c r="G77" t="n">
-        <v>246.3066666666666</v>
+        <v>164026.7390488407</v>
       </c>
       <c r="H77" t="n">
-        <v>250.8949999999998</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3558,36 +3531,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>243.5</v>
+        <v>253</v>
       </c>
       <c r="C78" t="n">
-        <v>243.5</v>
+        <v>245.9</v>
       </c>
       <c r="D78" t="n">
-        <v>243.5</v>
+        <v>253</v>
       </c>
       <c r="E78" t="n">
-        <v>243.5</v>
+        <v>245.9</v>
       </c>
       <c r="F78" t="n">
-        <v>3784.9</v>
+        <v>13966.8673</v>
       </c>
       <c r="G78" t="n">
-        <v>246.1466666666666</v>
+        <v>150059.8717488406</v>
       </c>
       <c r="H78" t="n">
-        <v>250.9033333333332</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3596,36 +3566,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C79" t="n">
-        <v>242.5</v>
+        <v>251</v>
       </c>
       <c r="D79" t="n">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E79" t="n">
-        <v>242.5</v>
+        <v>251</v>
       </c>
       <c r="F79" t="n">
-        <v>2226.4</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>245.9199999999999</v>
+        <v>150061.8717488406</v>
       </c>
       <c r="H79" t="n">
-        <v>250.8949999999998</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,36 +3601,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>242.5</v>
+        <v>247</v>
       </c>
       <c r="C80" t="n">
-        <v>246</v>
+        <v>245.8</v>
       </c>
       <c r="D80" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E80" t="n">
-        <v>242.5</v>
+        <v>245.8</v>
       </c>
       <c r="F80" t="n">
-        <v>404.1407</v>
+        <v>12020.254</v>
       </c>
       <c r="G80" t="n">
-        <v>246.4333333333333</v>
+        <v>138041.6177488407</v>
       </c>
       <c r="H80" t="n">
-        <v>250.8883333333332</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3672,36 +3636,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C81" t="n">
-        <v>242.5</v>
+        <v>251.9</v>
       </c>
       <c r="D81" t="n">
-        <v>246</v>
+        <v>251.9</v>
       </c>
       <c r="E81" t="n">
-        <v>242.5</v>
+        <v>237.5</v>
       </c>
       <c r="F81" t="n">
-        <v>15004</v>
+        <v>12312.6147</v>
       </c>
       <c r="G81" t="n">
-        <v>246.3466666666666</v>
+        <v>150354.2324488407</v>
       </c>
       <c r="H81" t="n">
-        <v>250.7666666666665</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,36 +3671,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>245</v>
+        <v>245.9</v>
       </c>
       <c r="C82" t="n">
-        <v>245</v>
+        <v>245.9</v>
       </c>
       <c r="D82" t="n">
-        <v>245</v>
+        <v>245.9</v>
       </c>
       <c r="E82" t="n">
-        <v>245</v>
+        <v>245.9</v>
       </c>
       <c r="F82" t="n">
-        <v>22</v>
+        <v>1997.2</v>
       </c>
       <c r="G82" t="n">
-        <v>246.6466666666666</v>
+        <v>148357.0324488406</v>
       </c>
       <c r="H82" t="n">
-        <v>250.6866666666665</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3748,36 +3706,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C83" t="n">
-        <v>246.5</v>
+        <v>246</v>
       </c>
       <c r="D83" t="n">
-        <v>246.5</v>
+        <v>246</v>
       </c>
       <c r="E83" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F83" t="n">
-        <v>2104.4812</v>
+        <v>18</v>
       </c>
       <c r="G83" t="n">
-        <v>246.8266666666665</v>
+        <v>148375.0324488406</v>
       </c>
       <c r="H83" t="n">
-        <v>250.6316666666665</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3786,36 +3741,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>246.5</v>
+        <v>246</v>
       </c>
       <c r="C84" t="n">
-        <v>246.4</v>
+        <v>260.8</v>
       </c>
       <c r="D84" t="n">
-        <v>246.5</v>
+        <v>260.9</v>
       </c>
       <c r="E84" t="n">
-        <v>246.4</v>
+        <v>246</v>
       </c>
       <c r="F84" t="n">
-        <v>1944.8321</v>
+        <v>729</v>
       </c>
       <c r="G84" t="n">
-        <v>247.2199999999999</v>
+        <v>149104.0324488406</v>
       </c>
       <c r="H84" t="n">
-        <v>250.5749999999999</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,36 +3776,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C85" t="n">
-        <v>245.4</v>
+        <v>247</v>
       </c>
       <c r="D85" t="n">
-        <v>245.4</v>
+        <v>247</v>
       </c>
       <c r="E85" t="n">
-        <v>245</v>
+        <v>242.2</v>
       </c>
       <c r="F85" t="n">
-        <v>31</v>
+        <v>2787.6352</v>
       </c>
       <c r="G85" t="n">
-        <v>247.5466666666666</v>
+        <v>146316.3972488407</v>
       </c>
       <c r="H85" t="n">
-        <v>250.5033333333332</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,36 +3811,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>245.4</v>
+        <v>246</v>
       </c>
       <c r="C86" t="n">
-        <v>245.4</v>
+        <v>246</v>
       </c>
       <c r="D86" t="n">
-        <v>245.4</v>
+        <v>246</v>
       </c>
       <c r="E86" t="n">
-        <v>245.4</v>
+        <v>246</v>
       </c>
       <c r="F86" t="n">
-        <v>2.5</v>
+        <v>50</v>
       </c>
       <c r="G86" t="n">
-        <v>246.5866666666666</v>
+        <v>146266.3972488407</v>
       </c>
       <c r="H86" t="n">
-        <v>250.4483333333332</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,36 +3846,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>245.4</v>
+        <v>245.6</v>
       </c>
       <c r="C87" t="n">
-        <v>245.4</v>
+        <v>240</v>
       </c>
       <c r="D87" t="n">
-        <v>245.4</v>
+        <v>245.6</v>
       </c>
       <c r="E87" t="n">
-        <v>245.4</v>
+        <v>240</v>
       </c>
       <c r="F87" t="n">
-        <v>1591.6734</v>
+        <v>3858.7843</v>
       </c>
       <c r="G87" t="n">
-        <v>246.8799999999999</v>
+        <v>142407.6129488407</v>
       </c>
       <c r="H87" t="n">
-        <v>250.2999999999998</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,36 +3881,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>243</v>
+        <v>245.5</v>
       </c>
       <c r="C88" t="n">
-        <v>243</v>
+        <v>245.5</v>
       </c>
       <c r="D88" t="n">
-        <v>243</v>
+        <v>245.5</v>
       </c>
       <c r="E88" t="n">
-        <v>243</v>
+        <v>245.5</v>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>246.0799999999999</v>
+        <v>142409.6129488407</v>
       </c>
       <c r="H88" t="n">
-        <v>250.1116666666665</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,36 +3916,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>245.4</v>
+        <v>240</v>
       </c>
       <c r="C89" t="n">
-        <v>247.5</v>
+        <v>240</v>
       </c>
       <c r="D89" t="n">
-        <v>247.5</v>
+        <v>240</v>
       </c>
       <c r="E89" t="n">
-        <v>245.4</v>
+        <v>240</v>
       </c>
       <c r="F89" t="n">
-        <v>122</v>
+        <v>1199.4851</v>
       </c>
       <c r="G89" t="n">
-        <v>245.6599999999999</v>
+        <v>141210.1278488407</v>
       </c>
       <c r="H89" t="n">
-        <v>249.9249999999998</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,36 +3951,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C90" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D90" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E90" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F90" t="n">
-        <v>1437.814</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>245.1933333333332</v>
+        <v>141212.1278488407</v>
       </c>
       <c r="H90" t="n">
-        <v>249.6449999999999</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,36 +3986,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>246.5</v>
+        <v>245.5</v>
       </c>
       <c r="C91" t="n">
-        <v>246.5</v>
+        <v>245.5</v>
       </c>
       <c r="D91" t="n">
-        <v>246.5</v>
+        <v>245.5</v>
       </c>
       <c r="E91" t="n">
-        <v>246.5</v>
+        <v>245.5</v>
       </c>
       <c r="F91" t="n">
         <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>245.1666666666665</v>
+        <v>141214.1278488407</v>
       </c>
       <c r="H91" t="n">
-        <v>249.4033333333332</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,36 +4021,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>243</v>
+        <v>245.9</v>
       </c>
       <c r="C92" t="n">
-        <v>241</v>
+        <v>245.9</v>
       </c>
       <c r="D92" t="n">
-        <v>243</v>
+        <v>245.9</v>
       </c>
       <c r="E92" t="n">
-        <v>241</v>
+        <v>245.9</v>
       </c>
       <c r="F92" t="n">
-        <v>2000</v>
+        <v>5</v>
       </c>
       <c r="G92" t="n">
-        <v>244.6399999999999</v>
+        <v>141219.1278488407</v>
       </c>
       <c r="H92" t="n">
-        <v>249.0849999999999</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,36 +4056,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>242</v>
+        <v>245.9</v>
       </c>
       <c r="C93" t="n">
-        <v>239</v>
+        <v>245.9</v>
       </c>
       <c r="D93" t="n">
-        <v>242</v>
+        <v>245.9</v>
       </c>
       <c r="E93" t="n">
-        <v>239</v>
+        <v>245.9</v>
       </c>
       <c r="F93" t="n">
-        <v>3580.9214</v>
+        <v>12</v>
       </c>
       <c r="G93" t="n">
-        <v>244.3399999999999</v>
+        <v>141219.1278488407</v>
       </c>
       <c r="H93" t="n">
-        <v>248.7516666666665</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4166,36 +4091,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>239</v>
+        <v>240.5</v>
       </c>
       <c r="C94" t="n">
-        <v>245.4</v>
+        <v>238.3</v>
       </c>
       <c r="D94" t="n">
-        <v>245.4</v>
+        <v>240.5</v>
       </c>
       <c r="E94" t="n">
-        <v>239</v>
+        <v>238.3</v>
       </c>
       <c r="F94" t="n">
-        <v>4262.3215</v>
+        <v>9170.357</v>
       </c>
       <c r="G94" t="n">
-        <v>244.5333333333332</v>
+        <v>132048.7708488407</v>
       </c>
       <c r="H94" t="n">
-        <v>248.6249999999999</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,36 +4126,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>240</v>
+        <v>243.8</v>
       </c>
       <c r="C95" t="n">
-        <v>240</v>
+        <v>243.8</v>
       </c>
       <c r="D95" t="n">
         <v>243.8</v>
       </c>
       <c r="E95" t="n">
-        <v>240</v>
+        <v>243.8</v>
       </c>
       <c r="F95" t="n">
-        <v>2077</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>244.1333333333332</v>
+        <v>132050.7708488407</v>
       </c>
       <c r="H95" t="n">
-        <v>248.3916666666665</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4242,36 +4161,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>243.9</v>
+        <v>240.5</v>
       </c>
       <c r="C96" t="n">
-        <v>243.9</v>
+        <v>240.5</v>
       </c>
       <c r="D96" t="n">
-        <v>243.9</v>
+        <v>240.5</v>
       </c>
       <c r="E96" t="n">
-        <v>243.9</v>
+        <v>240.5</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>3.8698</v>
       </c>
       <c r="G96" t="n">
-        <v>244.2266666666665</v>
+        <v>132046.9010488407</v>
       </c>
       <c r="H96" t="n">
-        <v>248.2566666666665</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,36 +4196,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>244</v>
+        <v>243.8</v>
       </c>
       <c r="C97" t="n">
-        <v>244</v>
+        <v>243.8</v>
       </c>
       <c r="D97" t="n">
-        <v>244</v>
+        <v>243.8</v>
       </c>
       <c r="E97" t="n">
-        <v>244</v>
+        <v>243.8</v>
       </c>
       <c r="F97" t="n">
         <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>244.1599999999999</v>
+        <v>132048.9010488407</v>
       </c>
       <c r="H97" t="n">
-        <v>248.1566666666665</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,33 +4234,30 @@
         <v>240.5</v>
       </c>
       <c r="C98" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="D98" t="n">
         <v>240.5</v>
       </c>
       <c r="E98" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="F98" t="n">
-        <v>150</v>
+        <v>6619.0557</v>
       </c>
       <c r="G98" t="n">
-        <v>243.7266666666665</v>
+        <v>125429.8453488407</v>
       </c>
       <c r="H98" t="n">
-        <v>247.8399999999998</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,24 +4278,21 @@
         <v>240.5</v>
       </c>
       <c r="F99" t="n">
-        <v>80</v>
+        <v>128.0484</v>
       </c>
       <c r="G99" t="n">
-        <v>243.3333333333332</v>
+        <v>125429.8453488407</v>
       </c>
       <c r="H99" t="n">
-        <v>247.4316666666665</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,36 +4301,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>240.5</v>
+        <v>241.9</v>
       </c>
       <c r="C100" t="n">
-        <v>240</v>
+        <v>259.8</v>
       </c>
       <c r="D100" t="n">
-        <v>240.5</v>
+        <v>259.8</v>
       </c>
       <c r="E100" t="n">
-        <v>240</v>
+        <v>241.9</v>
       </c>
       <c r="F100" t="n">
-        <v>70.295</v>
+        <v>4766.4799</v>
       </c>
       <c r="G100" t="n">
-        <v>242.9733333333332</v>
+        <v>130196.3252488407</v>
       </c>
       <c r="H100" t="n">
-        <v>247.0316666666665</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4432,36 +4336,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>242</v>
+        <v>240.5</v>
       </c>
       <c r="C101" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D101" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E101" t="n">
-        <v>242</v>
+        <v>240.5</v>
       </c>
       <c r="F101" t="n">
-        <v>225.146</v>
+        <v>310.6277</v>
       </c>
       <c r="G101" t="n">
-        <v>242.9466666666665</v>
+        <v>129885.6975488407</v>
       </c>
       <c r="H101" t="n">
-        <v>246.8649999999998</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4470,36 +4371,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>243.9</v>
+        <v>255</v>
       </c>
       <c r="C102" t="n">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D102" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E102" t="n">
-        <v>240.5</v>
+        <v>251.7</v>
       </c>
       <c r="F102" t="n">
-        <v>8882.9295</v>
+        <v>6660.05</v>
       </c>
       <c r="G102" t="n">
-        <v>242.6533333333332</v>
+        <v>136545.7475488407</v>
       </c>
       <c r="H102" t="n">
-        <v>246.6499999999998</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,36 +4406,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>245</v>
+        <v>253.8</v>
       </c>
       <c r="C103" t="n">
-        <v>240</v>
+        <v>253.8</v>
       </c>
       <c r="D103" t="n">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E103" t="n">
-        <v>240</v>
+        <v>253.8</v>
       </c>
       <c r="F103" t="n">
-        <v>111.2345</v>
+        <v>1392.6573</v>
       </c>
       <c r="G103" t="n">
-        <v>242.4533333333332</v>
+        <v>135153.0902488407</v>
       </c>
       <c r="H103" t="n">
-        <v>246.3849999999998</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,36 +4441,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C104" t="n">
-        <v>253.7</v>
+        <v>250</v>
       </c>
       <c r="D104" t="n">
-        <v>253.7</v>
+        <v>250</v>
       </c>
       <c r="E104" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F104" t="n">
-        <v>2829.4677</v>
+        <v>62.6016</v>
       </c>
       <c r="G104" t="n">
-        <v>242.8666666666665</v>
+        <v>135090.4886488407</v>
       </c>
       <c r="H104" t="n">
-        <v>246.3466666666665</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,36 +4476,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>240.5</v>
+        <v>246.9</v>
       </c>
       <c r="C105" t="n">
-        <v>240.5</v>
+        <v>246.9</v>
       </c>
       <c r="D105" t="n">
-        <v>240.5</v>
+        <v>246.9</v>
       </c>
       <c r="E105" t="n">
-        <v>240.5</v>
+        <v>246.9</v>
       </c>
       <c r="F105" t="n">
-        <v>1500</v>
+        <v>2098.1563</v>
       </c>
       <c r="G105" t="n">
-        <v>242.6999999999998</v>
+        <v>132992.3323488407</v>
       </c>
       <c r="H105" t="n">
-        <v>246.0883333333332</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4622,36 +4511,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>240.5</v>
+        <v>247</v>
       </c>
       <c r="C106" t="n">
-        <v>240</v>
+        <v>248.9</v>
       </c>
       <c r="D106" t="n">
-        <v>240.5</v>
+        <v>248.9</v>
       </c>
       <c r="E106" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F106" t="n">
-        <v>500</v>
+        <v>2769.2535</v>
       </c>
       <c r="G106" t="n">
-        <v>242.2666666666665</v>
+        <v>135761.5858488407</v>
       </c>
       <c r="H106" t="n">
-        <v>245.6733333333332</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,36 +4546,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>243</v>
+        <v>243.5</v>
       </c>
       <c r="C107" t="n">
-        <v>243</v>
+        <v>243.5</v>
       </c>
       <c r="D107" t="n">
-        <v>243</v>
+        <v>243.5</v>
       </c>
       <c r="E107" t="n">
-        <v>243</v>
+        <v>243.5</v>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>3784.9</v>
       </c>
       <c r="G107" t="n">
-        <v>242.3999999999998</v>
+        <v>131976.6858488407</v>
       </c>
       <c r="H107" t="n">
-        <v>245.3233333333332</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,36 +4581,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>241.5</v>
+        <v>243</v>
       </c>
       <c r="C108" t="n">
-        <v>253.8</v>
+        <v>242.5</v>
       </c>
       <c r="D108" t="n">
-        <v>253.8</v>
+        <v>243</v>
       </c>
       <c r="E108" t="n">
-        <v>241.5</v>
+        <v>242.5</v>
       </c>
       <c r="F108" t="n">
-        <v>815.6909000000001</v>
+        <v>2226.4</v>
       </c>
       <c r="G108" t="n">
-        <v>243.3866666666665</v>
+        <v>129750.2858488407</v>
       </c>
       <c r="H108" t="n">
-        <v>245.1549999999999</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,36 +4616,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>240.1</v>
+        <v>242.5</v>
       </c>
       <c r="C109" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D109" t="n">
-        <v>240.1</v>
+        <v>246</v>
       </c>
       <c r="E109" t="n">
-        <v>240</v>
+        <v>242.5</v>
       </c>
       <c r="F109" t="n">
-        <v>7023</v>
+        <v>404.1407</v>
       </c>
       <c r="G109" t="n">
-        <v>243.0266666666665</v>
+        <v>130154.4265488407</v>
       </c>
       <c r="H109" t="n">
-        <v>245.0566666666665</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,36 +4651,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C110" t="n">
-        <v>241</v>
+        <v>242.5</v>
       </c>
       <c r="D110" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E110" t="n">
-        <v>240</v>
+        <v>242.5</v>
       </c>
       <c r="F110" t="n">
-        <v>3310.1058</v>
+        <v>15004</v>
       </c>
       <c r="G110" t="n">
-        <v>243.0933333333332</v>
+        <v>115150.4265488407</v>
       </c>
       <c r="H110" t="n">
-        <v>244.8899999999999</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4812,36 +4686,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>243.9</v>
+        <v>245</v>
       </c>
       <c r="C111" t="n">
-        <v>245.9</v>
+        <v>245</v>
       </c>
       <c r="D111" t="n">
-        <v>245.9</v>
+        <v>245</v>
       </c>
       <c r="E111" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F111" t="n">
-        <v>990.1861</v>
+        <v>22</v>
       </c>
       <c r="G111" t="n">
-        <v>243.2266666666665</v>
+        <v>115172.4265488407</v>
       </c>
       <c r="H111" t="n">
-        <v>244.8916666666665</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4850,36 +4721,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C112" t="n">
-        <v>241</v>
+        <v>246.5</v>
       </c>
       <c r="D112" t="n">
-        <v>246</v>
+        <v>246.5</v>
       </c>
       <c r="E112" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F112" t="n">
-        <v>555.8939</v>
+        <v>2104.4812</v>
       </c>
       <c r="G112" t="n">
-        <v>243.0266666666665</v>
+        <v>117276.9077488407</v>
       </c>
       <c r="H112" t="n">
-        <v>244.7099999999999</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4888,36 +4756,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>241</v>
+        <v>246.5</v>
       </c>
       <c r="C113" t="n">
-        <v>245.9</v>
+        <v>246.4</v>
       </c>
       <c r="D113" t="n">
-        <v>246</v>
+        <v>246.5</v>
       </c>
       <c r="E113" t="n">
-        <v>241</v>
+        <v>246.4</v>
       </c>
       <c r="F113" t="n">
-        <v>1817.1061</v>
+        <v>1944.8321</v>
       </c>
       <c r="G113" t="n">
-        <v>243.4199999999999</v>
+        <v>115332.0756488407</v>
       </c>
       <c r="H113" t="n">
-        <v>244.7099999999999</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4926,36 +4791,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C114" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="E114" t="n">
         <v>245</v>
       </c>
-      <c r="D114" t="n">
-        <v>245</v>
-      </c>
-      <c r="E114" t="n">
-        <v>244</v>
-      </c>
       <c r="F114" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G114" t="n">
-        <v>243.7199999999999</v>
+        <v>115301.0756488407</v>
       </c>
       <c r="H114" t="n">
-        <v>244.6933333333332</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,36 +4826,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>241</v>
+        <v>245.4</v>
       </c>
       <c r="C115" t="n">
-        <v>243</v>
+        <v>245.4</v>
       </c>
       <c r="D115" t="n">
-        <v>243</v>
+        <v>245.4</v>
       </c>
       <c r="E115" t="n">
-        <v>240</v>
+        <v>245.4</v>
       </c>
       <c r="F115" t="n">
-        <v>2503.5988</v>
+        <v>2.5</v>
       </c>
       <c r="G115" t="n">
-        <v>243.9199999999999</v>
+        <v>115301.0756488407</v>
       </c>
       <c r="H115" t="n">
-        <v>244.3966666666666</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5002,36 +4861,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>239.7</v>
+        <v>245.4</v>
       </c>
       <c r="C116" t="n">
-        <v>242</v>
+        <v>245.4</v>
       </c>
       <c r="D116" t="n">
-        <v>242</v>
+        <v>245.4</v>
       </c>
       <c r="E116" t="n">
-        <v>239.5</v>
+        <v>245.4</v>
       </c>
       <c r="F116" t="n">
-        <v>4120.7285</v>
+        <v>1591.6734</v>
       </c>
       <c r="G116" t="n">
-        <v>243.7199999999999</v>
+        <v>115301.0756488407</v>
       </c>
       <c r="H116" t="n">
-        <v>244.3133333333332</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5040,36 +4896,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C117" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="D117" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="E117" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F117" t="n">
-        <v>33</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="n">
-        <v>243.8466666666665</v>
+        <v>113301.0756488407</v>
       </c>
       <c r="H117" t="n">
-        <v>244.2616666666666</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,36 +4931,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>242</v>
+        <v>245.4</v>
       </c>
       <c r="C118" t="n">
-        <v>242</v>
+        <v>247.5</v>
       </c>
       <c r="D118" t="n">
-        <v>242</v>
+        <v>247.5</v>
       </c>
       <c r="E118" t="n">
-        <v>242</v>
+        <v>245.4</v>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="G118" t="n">
-        <v>243.9799999999999</v>
+        <v>113423.0756488407</v>
       </c>
       <c r="H118" t="n">
-        <v>244.2949999999999</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5116,36 +4966,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="C119" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="D119" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="E119" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="F119" t="n">
-        <v>134.929</v>
+        <v>1437.814</v>
       </c>
       <c r="G119" t="n">
-        <v>243.2599999999999</v>
+        <v>111985.2616488407</v>
       </c>
       <c r="H119" t="n">
-        <v>244.2516666666666</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,36 +5001,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>239.9</v>
+        <v>246.5</v>
       </c>
       <c r="C120" t="n">
-        <v>242</v>
+        <v>246.5</v>
       </c>
       <c r="D120" t="n">
-        <v>242</v>
+        <v>246.5</v>
       </c>
       <c r="E120" t="n">
-        <v>238.3</v>
+        <v>246.5</v>
       </c>
       <c r="F120" t="n">
-        <v>4826.3911</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>243.3599999999999</v>
+        <v>111987.2616488407</v>
       </c>
       <c r="H120" t="n">
-        <v>244.2849999999999</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,36 +5036,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C121" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D121" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E121" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G121" t="n">
-        <v>243.3599999999999</v>
+        <v>109987.2616488407</v>
       </c>
       <c r="H121" t="n">
-        <v>244.2183333333332</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5230,36 +5071,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>238.3</v>
+        <v>242</v>
       </c>
       <c r="C122" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D122" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E122" t="n">
-        <v>238.3</v>
+        <v>239</v>
       </c>
       <c r="F122" t="n">
-        <v>492.4577</v>
+        <v>3580.9214</v>
       </c>
       <c r="G122" t="n">
-        <v>243.1599999999999</v>
+        <v>106406.3402488407</v>
       </c>
       <c r="H122" t="n">
-        <v>244.1266666666666</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5268,36 +5106,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>238.3</v>
+        <v>239</v>
       </c>
       <c r="C123" t="n">
-        <v>237.1</v>
+        <v>245.4</v>
       </c>
       <c r="D123" t="n">
-        <v>238.3</v>
+        <v>245.4</v>
       </c>
       <c r="E123" t="n">
-        <v>237.1</v>
+        <v>239</v>
       </c>
       <c r="F123" t="n">
-        <v>3614.2244</v>
+        <v>4262.3215</v>
       </c>
       <c r="G123" t="n">
-        <v>242.0466666666665</v>
+        <v>110668.6617488407</v>
       </c>
       <c r="H123" t="n">
-        <v>243.9799999999999</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5306,36 +5141,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>237.1</v>
+        <v>240</v>
       </c>
       <c r="C124" t="n">
         <v>240</v>
       </c>
       <c r="D124" t="n">
-        <v>240</v>
+        <v>243.8</v>
       </c>
       <c r="E124" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F124" t="n">
-        <v>3876.5832</v>
+        <v>2077</v>
       </c>
       <c r="G124" t="n">
-        <v>242.0466666666665</v>
+        <v>108591.6617488407</v>
       </c>
       <c r="H124" t="n">
-        <v>243.8816666666666</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,36 +5176,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>240</v>
+        <v>243.9</v>
       </c>
       <c r="C125" t="n">
-        <v>240</v>
+        <v>243.9</v>
       </c>
       <c r="D125" t="n">
-        <v>240</v>
+        <v>243.9</v>
       </c>
       <c r="E125" t="n">
-        <v>240</v>
+        <v>243.9</v>
       </c>
       <c r="F125" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G125" t="n">
-        <v>241.9799999999999</v>
+        <v>108594.6617488407</v>
       </c>
       <c r="H125" t="n">
-        <v>243.9099999999999</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,36 +5211,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C126" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D126" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E126" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F126" t="n">
-        <v>3815.3681</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>241.6533333333332</v>
+        <v>108596.6617488407</v>
       </c>
       <c r="H126" t="n">
-        <v>243.8633333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5420,36 +5246,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="C127" t="n">
         <v>240</v>
       </c>
       <c r="D127" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="E127" t="n">
         <v>240</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2711</v>
+        <v>150</v>
       </c>
       <c r="G127" t="n">
-        <v>241.5866666666665</v>
+        <v>108446.6617488407</v>
       </c>
       <c r="H127" t="n">
-        <v>243.8549999999999</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5458,36 +5281,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>237.5</v>
+        <v>240.5</v>
       </c>
       <c r="C128" t="n">
-        <v>237.5</v>
+        <v>240.5</v>
       </c>
       <c r="D128" t="n">
-        <v>237.5</v>
+        <v>240.5</v>
       </c>
       <c r="E128" t="n">
-        <v>237.5</v>
+        <v>240.5</v>
       </c>
       <c r="F128" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="G128" t="n">
-        <v>241.0266666666665</v>
+        <v>108526.6617488407</v>
       </c>
       <c r="H128" t="n">
-        <v>243.7499999999999</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5496,36 +5316,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="C129" t="n">
         <v>240</v>
       </c>
       <c r="D129" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="E129" t="n">
         <v>240</v>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>70.295</v>
       </c>
       <c r="G129" t="n">
-        <v>240.6933333333332</v>
+        <v>108456.3667488407</v>
       </c>
       <c r="H129" t="n">
-        <v>243.7416666666666</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5534,36 +5351,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>237.5</v>
+        <v>242</v>
       </c>
       <c r="C130" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D130" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E130" t="n">
-        <v>237.1</v>
+        <v>242</v>
       </c>
       <c r="F130" t="n">
-        <v>5864.2585</v>
+        <v>225.146</v>
       </c>
       <c r="G130" t="n">
-        <v>240.4933333333332</v>
+        <v>108681.5127488407</v>
       </c>
       <c r="H130" t="n">
-        <v>243.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5572,36 +5386,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>237.2</v>
+        <v>243.9</v>
       </c>
       <c r="C131" t="n">
-        <v>237.2</v>
+        <v>241</v>
       </c>
       <c r="D131" t="n">
-        <v>237.2</v>
+        <v>245</v>
       </c>
       <c r="E131" t="n">
-        <v>237.2</v>
+        <v>240.5</v>
       </c>
       <c r="F131" t="n">
-        <v>35.511</v>
+        <v>8882.9295</v>
       </c>
       <c r="G131" t="n">
-        <v>240.1733333333332</v>
+        <v>99798.58324884072</v>
       </c>
       <c r="H131" t="n">
-        <v>243.3566666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,36 +5421,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>237.1</v>
+        <v>245</v>
       </c>
       <c r="C132" t="n">
         <v>240</v>
       </c>
       <c r="D132" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E132" t="n">
-        <v>237.1</v>
+        <v>240</v>
       </c>
       <c r="F132" t="n">
-        <v>743.2474</v>
+        <v>111.2345</v>
       </c>
       <c r="G132" t="n">
-        <v>239.9799999999998</v>
+        <v>99687.34874884071</v>
       </c>
       <c r="H132" t="n">
-        <v>243.34</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,36 +5456,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C133" t="n">
-        <v>238</v>
+        <v>253.7</v>
       </c>
       <c r="D133" t="n">
-        <v>238</v>
+        <v>253.7</v>
       </c>
       <c r="E133" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F133" t="n">
-        <v>6</v>
+        <v>2829.4677</v>
       </c>
       <c r="G133" t="n">
-        <v>239.7133333333332</v>
+        <v>102516.8164488407</v>
       </c>
       <c r="H133" t="n">
-        <v>243.0566666666666</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5686,36 +5491,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="C134" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="D134" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="E134" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="F134" t="n">
-        <v>12</v>
+        <v>1500</v>
       </c>
       <c r="G134" t="n">
-        <v>239.3866666666665</v>
+        <v>101016.8164488407</v>
       </c>
       <c r="H134" t="n">
-        <v>242.7933333333333</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5724,36 +5526,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="C135" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D135" t="n">
-        <v>239</v>
+        <v>240.5</v>
       </c>
       <c r="E135" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F135" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="G135" t="n">
-        <v>239.1866666666665</v>
+        <v>100516.8164488407</v>
       </c>
       <c r="H135" t="n">
-        <v>242.61</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5762,36 +5561,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C136" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D136" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E136" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G136" t="n">
-        <v>239.0533333333332</v>
+        <v>100519.8164488407</v>
       </c>
       <c r="H136" t="n">
-        <v>242.4616666666666</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,36 +5596,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>238</v>
+        <v>241.5</v>
       </c>
       <c r="C137" t="n">
-        <v>239</v>
+        <v>253.8</v>
       </c>
       <c r="D137" t="n">
-        <v>242</v>
+        <v>253.8</v>
       </c>
       <c r="E137" t="n">
-        <v>238</v>
+        <v>241.5</v>
       </c>
       <c r="F137" t="n">
-        <v>275.2759</v>
+        <v>815.6909000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>238.9866666666665</v>
+        <v>101335.5073488407</v>
       </c>
       <c r="H137" t="n">
-        <v>242.2966666666667</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,36 +5631,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>240</v>
+        <v>240.1</v>
       </c>
       <c r="C138" t="n">
-        <v>242.9</v>
+        <v>240</v>
       </c>
       <c r="D138" t="n">
-        <v>242.9</v>
+        <v>240.1</v>
       </c>
       <c r="E138" t="n">
         <v>240</v>
       </c>
       <c r="F138" t="n">
-        <v>180.4396</v>
+        <v>7023</v>
       </c>
       <c r="G138" t="n">
-        <v>239.3733333333332</v>
+        <v>94312.50734884071</v>
       </c>
       <c r="H138" t="n">
-        <v>242.2866666666667</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5876,36 +5666,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C139" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D139" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E139" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>3310.1058</v>
       </c>
       <c r="G139" t="n">
-        <v>239.5066666666665</v>
+        <v>97622.61314884071</v>
       </c>
       <c r="H139" t="n">
-        <v>242.2783333333333</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5914,36 +5701,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>238</v>
+        <v>243.9</v>
       </c>
       <c r="C140" t="n">
-        <v>237.1</v>
+        <v>245.9</v>
       </c>
       <c r="D140" t="n">
-        <v>238</v>
+        <v>245.9</v>
       </c>
       <c r="E140" t="n">
-        <v>237.1</v>
+        <v>242</v>
       </c>
       <c r="F140" t="n">
-        <v>5305.1295</v>
+        <v>990.1861</v>
       </c>
       <c r="G140" t="n">
-        <v>239.3133333333332</v>
+        <v>98612.79924884072</v>
       </c>
       <c r="H140" t="n">
-        <v>242.13</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5952,36 +5736,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C141" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D141" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E141" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F141" t="n">
-        <v>4</v>
+        <v>555.8939</v>
       </c>
       <c r="G141" t="n">
-        <v>239.1133333333332</v>
+        <v>98056.90534884072</v>
       </c>
       <c r="H141" t="n">
-        <v>242.055</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5990,36 +5771,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C142" t="n">
-        <v>239</v>
+        <v>245.9</v>
       </c>
       <c r="D142" t="n">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E142" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F142" t="n">
-        <v>16.1</v>
+        <v>1817.1061</v>
       </c>
       <c r="G142" t="n">
-        <v>239.0466666666665</v>
+        <v>99874.01144884073</v>
       </c>
       <c r="H142" t="n">
-        <v>241.955</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6028,36 +5806,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>237.1</v>
+        <v>244</v>
       </c>
       <c r="C143" t="n">
-        <v>237.1</v>
+        <v>245</v>
       </c>
       <c r="D143" t="n">
-        <v>237.1</v>
+        <v>245</v>
       </c>
       <c r="E143" t="n">
-        <v>237.1</v>
+        <v>244</v>
       </c>
       <c r="F143" t="n">
-        <v>6094.7346</v>
+        <v>21</v>
       </c>
       <c r="G143" t="n">
-        <v>239.0199999999998</v>
+        <v>99853.01144884073</v>
       </c>
       <c r="H143" t="n">
-        <v>241.7983333333333</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,36 +5841,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C144" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D144" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E144" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>2503.5988</v>
       </c>
       <c r="G144" t="n">
-        <v>238.9533333333332</v>
+        <v>97349.41264884072</v>
       </c>
       <c r="H144" t="n">
-        <v>241.675</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6104,36 +5876,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>239</v>
+        <v>239.7</v>
       </c>
       <c r="C145" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D145" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E145" t="n">
-        <v>239</v>
+        <v>239.5</v>
       </c>
       <c r="F145" t="n">
-        <v>17.9</v>
+        <v>4120.7285</v>
       </c>
       <c r="G145" t="n">
-        <v>238.8866666666665</v>
+        <v>93228.68414884072</v>
       </c>
       <c r="H145" t="n">
-        <v>241.5683333333333</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6142,36 +5911,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C146" t="n">
-        <v>239</v>
+        <v>242.9</v>
       </c>
       <c r="D146" t="n">
-        <v>239</v>
+        <v>242.9</v>
       </c>
       <c r="E146" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F146" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G146" t="n">
-        <v>239.0066666666665</v>
+        <v>93261.68414884072</v>
       </c>
       <c r="H146" t="n">
-        <v>241.4616666666667</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6180,36 +5946,1048 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C147" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D147" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E147" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G147" t="n">
-        <v>239.0066666666665</v>
+        <v>93241.68414884072</v>
       </c>
       <c r="H147" t="n">
-        <v>241.3716666666667</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>134.929</v>
+      </c>
+      <c r="G148" t="n">
+        <v>93376.61314884073</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>239.9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>242</v>
+      </c>
+      <c r="D149" t="n">
+        <v>242</v>
+      </c>
+      <c r="E149" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4826.3911</v>
+      </c>
+      <c r="G149" t="n">
+        <v>88550.22204884073</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>240</v>
+      </c>
+      <c r="C150" t="n">
+        <v>240</v>
+      </c>
+      <c r="D150" t="n">
+        <v>240</v>
+      </c>
+      <c r="E150" t="n">
+        <v>240</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" t="n">
+        <v>88548.22204884073</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>240</v>
+      </c>
+      <c r="D151" t="n">
+        <v>240</v>
+      </c>
+      <c r="E151" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>492.4577</v>
+      </c>
+      <c r="G151" t="n">
+        <v>88548.22204884073</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3614.2244</v>
+      </c>
+      <c r="G152" t="n">
+        <v>84933.99764884073</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>240</v>
+      </c>
+      <c r="D153" t="n">
+        <v>240</v>
+      </c>
+      <c r="E153" t="n">
+        <v>237</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3876.5832</v>
+      </c>
+      <c r="G153" t="n">
+        <v>88810.58084884072</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>240</v>
+      </c>
+      <c r="C154" t="n">
+        <v>240</v>
+      </c>
+      <c r="D154" t="n">
+        <v>240</v>
+      </c>
+      <c r="E154" t="n">
+        <v>240</v>
+      </c>
+      <c r="F154" t="n">
+        <v>24</v>
+      </c>
+      <c r="G154" t="n">
+        <v>88810.58084884072</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>240</v>
+      </c>
+      <c r="C155" t="n">
+        <v>241</v>
+      </c>
+      <c r="D155" t="n">
+        <v>241</v>
+      </c>
+      <c r="E155" t="n">
+        <v>240</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3815.3681</v>
+      </c>
+      <c r="G155" t="n">
+        <v>92625.94894884073</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>240</v>
+      </c>
+      <c r="C156" t="n">
+        <v>240</v>
+      </c>
+      <c r="D156" t="n">
+        <v>240</v>
+      </c>
+      <c r="E156" t="n">
+        <v>240</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.2711</v>
+      </c>
+      <c r="G156" t="n">
+        <v>92625.67784884073</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3</v>
+      </c>
+      <c r="G157" t="n">
+        <v>92622.67784884073</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>240</v>
+      </c>
+      <c r="C158" t="n">
+        <v>240</v>
+      </c>
+      <c r="D158" t="n">
+        <v>240</v>
+      </c>
+      <c r="E158" t="n">
+        <v>240</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2</v>
+      </c>
+      <c r="G158" t="n">
+        <v>92624.67784884073</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>240</v>
+      </c>
+      <c r="D159" t="n">
+        <v>240</v>
+      </c>
+      <c r="E159" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5864.2585</v>
+      </c>
+      <c r="G159" t="n">
+        <v>92624.67784884073</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="C160" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="D160" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>35.511</v>
+      </c>
+      <c r="G160" t="n">
+        <v>92589.16684884073</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>240</v>
+      </c>
+      <c r="D161" t="n">
+        <v>240</v>
+      </c>
+      <c r="E161" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>743.2474</v>
+      </c>
+      <c r="G161" t="n">
+        <v>93332.41424884072</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>238</v>
+      </c>
+      <c r="C162" t="n">
+        <v>238</v>
+      </c>
+      <c r="D162" t="n">
+        <v>238</v>
+      </c>
+      <c r="E162" t="n">
+        <v>238</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6</v>
+      </c>
+      <c r="G162" t="n">
+        <v>93326.41424884072</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>238</v>
+      </c>
+      <c r="C163" t="n">
+        <v>238</v>
+      </c>
+      <c r="D163" t="n">
+        <v>238</v>
+      </c>
+      <c r="E163" t="n">
+        <v>238</v>
+      </c>
+      <c r="F163" t="n">
+        <v>12</v>
+      </c>
+      <c r="G163" t="n">
+        <v>93326.41424884072</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>238</v>
+      </c>
+      <c r="C164" t="n">
+        <v>239</v>
+      </c>
+      <c r="D164" t="n">
+        <v>239</v>
+      </c>
+      <c r="E164" t="n">
+        <v>238</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4</v>
+      </c>
+      <c r="G164" t="n">
+        <v>93330.41424884072</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>238</v>
+      </c>
+      <c r="C165" t="n">
+        <v>238</v>
+      </c>
+      <c r="D165" t="n">
+        <v>238</v>
+      </c>
+      <c r="E165" t="n">
+        <v>238</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>93329.41424884072</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>238</v>
+      </c>
+      <c r="C166" t="n">
+        <v>239</v>
+      </c>
+      <c r="D166" t="n">
+        <v>242</v>
+      </c>
+      <c r="E166" t="n">
+        <v>238</v>
+      </c>
+      <c r="F166" t="n">
+        <v>275.2759</v>
+      </c>
+      <c r="G166" t="n">
+        <v>93604.69014884072</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>240</v>
+      </c>
+      <c r="C167" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>240</v>
+      </c>
+      <c r="F167" t="n">
+        <v>180.4396</v>
+      </c>
+      <c r="G167" t="n">
+        <v>93785.12974884071</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>242</v>
+      </c>
+      <c r="C168" t="n">
+        <v>242</v>
+      </c>
+      <c r="D168" t="n">
+        <v>242</v>
+      </c>
+      <c r="E168" t="n">
+        <v>242</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2</v>
+      </c>
+      <c r="G168" t="n">
+        <v>93783.12974884071</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>238</v>
+      </c>
+      <c r="C169" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>238</v>
+      </c>
+      <c r="E169" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5305.1295</v>
+      </c>
+      <c r="G169" t="n">
+        <v>88478.00024884072</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>238</v>
+      </c>
+      <c r="C170" t="n">
+        <v>238</v>
+      </c>
+      <c r="D170" t="n">
+        <v>238</v>
+      </c>
+      <c r="E170" t="n">
+        <v>238</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4</v>
+      </c>
+      <c r="G170" t="n">
+        <v>88482.00024884072</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>238</v>
+      </c>
+      <c r="C171" t="n">
+        <v>239</v>
+      </c>
+      <c r="D171" t="n">
+        <v>239</v>
+      </c>
+      <c r="E171" t="n">
+        <v>238</v>
+      </c>
+      <c r="F171" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>88498.10024884072</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6094.7346</v>
+      </c>
+      <c r="G172" t="n">
+        <v>82403.36564884073</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>239</v>
+      </c>
+      <c r="C173" t="n">
+        <v>239</v>
+      </c>
+      <c r="D173" t="n">
+        <v>239</v>
+      </c>
+      <c r="E173" t="n">
+        <v>239</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2</v>
+      </c>
+      <c r="G173" t="n">
+        <v>82405.36564884073</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>239</v>
+      </c>
+      <c r="C174" t="n">
+        <v>239</v>
+      </c>
+      <c r="D174" t="n">
+        <v>239</v>
+      </c>
+      <c r="E174" t="n">
+        <v>239</v>
+      </c>
+      <c r="F174" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G174" t="n">
+        <v>82405.36564884073</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>239</v>
+      </c>
+      <c r="C175" t="n">
+        <v>239</v>
+      </c>
+      <c r="D175" t="n">
+        <v>239</v>
+      </c>
+      <c r="E175" t="n">
+        <v>239</v>
+      </c>
+      <c r="F175" t="n">
+        <v>30</v>
+      </c>
+      <c r="G175" t="n">
+        <v>82405.36564884073</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>240</v>
+      </c>
+      <c r="C176" t="n">
+        <v>240</v>
+      </c>
+      <c r="D176" t="n">
+        <v>240</v>
+      </c>
+      <c r="E176" t="n">
+        <v>240</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2</v>
+      </c>
+      <c r="G176" t="n">
+        <v>82407.36564884073</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-19 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>238</v>
+        <v>241.3</v>
       </c>
       <c r="C2" t="n">
-        <v>238</v>
+        <v>241.9</v>
       </c>
       <c r="D2" t="n">
-        <v>238</v>
+        <v>241.9</v>
       </c>
       <c r="E2" t="n">
-        <v>238</v>
+        <v>241.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1287.797</v>
+        <v>2007</v>
       </c>
       <c r="G2" t="n">
-        <v>-64737.83402780083</v>
+        <v>-13742.84732780083</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,63 +467,69 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>238.2</v>
+        <v>242</v>
       </c>
       <c r="C3" t="n">
-        <v>238.2</v>
+        <v>243</v>
       </c>
       <c r="D3" t="n">
-        <v>238.2</v>
+        <v>243</v>
       </c>
       <c r="E3" t="n">
-        <v>238.2</v>
+        <v>242</v>
       </c>
       <c r="F3" t="n">
-        <v>1012.8299</v>
+        <v>43668.996</v>
       </c>
       <c r="G3" t="n">
-        <v>-63725.00412780083</v>
+        <v>29926.14867219917</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>241.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>241.9</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>238.4</v>
+        <v>243</v>
       </c>
       <c r="C4" t="n">
-        <v>238.8</v>
+        <v>243</v>
       </c>
       <c r="D4" t="n">
-        <v>238.8</v>
+        <v>243</v>
       </c>
       <c r="E4" t="n">
-        <v>238.4</v>
+        <v>242.7</v>
       </c>
       <c r="F4" t="n">
-        <v>9539</v>
+        <v>10323.2002</v>
       </c>
       <c r="G4" t="n">
-        <v>-54186.00412780083</v>
+        <v>29926.14867219917</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -527,33 +538,40 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>241.9</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>238.8</v>
+        <v>243</v>
       </c>
       <c r="C5" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D5" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E5" t="n">
-        <v>238.8</v>
+        <v>243</v>
       </c>
       <c r="F5" t="n">
-        <v>500</v>
+        <v>12800.7842</v>
       </c>
       <c r="G5" t="n">
-        <v>-53686.00412780083</v>
+        <v>29926.14867219917</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,33 +580,40 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>241.9</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C6" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D6" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E6" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F6" t="n">
-        <v>15928.1241</v>
+        <v>564.1583000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-53686.00412780083</v>
+        <v>29926.14867219917</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,98 +627,113 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C7" t="n">
-        <v>238</v>
+        <v>246.4</v>
       </c>
       <c r="D7" t="n">
-        <v>238</v>
+        <v>246.4</v>
       </c>
       <c r="E7" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F7" t="n">
-        <v>6.277</v>
+        <v>34767.6846</v>
       </c>
       <c r="G7" t="n">
-        <v>-53692.28112780083</v>
+        <v>64693.83327219917</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>243</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>240.5</v>
+        <v>246.4</v>
       </c>
       <c r="C8" t="n">
-        <v>241</v>
+        <v>249.8</v>
       </c>
       <c r="D8" t="n">
-        <v>241</v>
+        <v>249.8</v>
       </c>
       <c r="E8" t="n">
-        <v>240.5</v>
+        <v>246</v>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>3924.1801</v>
       </c>
       <c r="G8" t="n">
-        <v>-52692.28112780083</v>
+        <v>68618.01337219917</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>246.4</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>239</v>
+        <v>249.7</v>
       </c>
       <c r="C9" t="n">
-        <v>239</v>
+        <v>249.8</v>
       </c>
       <c r="D9" t="n">
-        <v>239</v>
+        <v>249.8</v>
       </c>
       <c r="E9" t="n">
-        <v>239</v>
+        <v>249.7</v>
       </c>
       <c r="F9" t="n">
-        <v>3363</v>
+        <v>3787</v>
       </c>
       <c r="G9" t="n">
-        <v>-56055.28112780083</v>
+        <v>68618.01337219917</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,32 +743,37 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>238.3</v>
+        <v>248.8</v>
       </c>
       <c r="C10" t="n">
-        <v>238.3</v>
+        <v>249.8</v>
       </c>
       <c r="D10" t="n">
-        <v>238.3</v>
+        <v>249.8</v>
       </c>
       <c r="E10" t="n">
-        <v>238.3</v>
+        <v>248.8</v>
       </c>
       <c r="F10" t="n">
-        <v>278.8625</v>
+        <v>4094.826</v>
       </c>
       <c r="G10" t="n">
-        <v>-56334.14362780083</v>
+        <v>68618.01337219917</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,32 +783,37 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>239.3</v>
+        <v>249.8</v>
       </c>
       <c r="C11" t="n">
-        <v>239.3</v>
+        <v>249.8</v>
       </c>
       <c r="D11" t="n">
-        <v>239.3</v>
+        <v>249.8</v>
       </c>
       <c r="E11" t="n">
-        <v>239.3</v>
+        <v>248.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1681.5</v>
+        <v>3977.2142</v>
       </c>
       <c r="G11" t="n">
-        <v>-54652.64362780083</v>
+        <v>68618.01337219917</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,127 +823,126 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>239.3</v>
+        <v>249.7</v>
       </c>
       <c r="C12" t="n">
-        <v>239.3</v>
+        <v>249.7</v>
       </c>
       <c r="D12" t="n">
-        <v>239.3</v>
+        <v>249.7</v>
       </c>
       <c r="E12" t="n">
-        <v>239.3</v>
+        <v>249.7</v>
       </c>
       <c r="F12" t="n">
-        <v>324.9543</v>
+        <v>5726.627</v>
       </c>
       <c r="G12" t="n">
-        <v>-54652.64362780083</v>
+        <v>62891.38637219917</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>239.3</v>
+        <v>248</v>
       </c>
       <c r="C13" t="n">
-        <v>240</v>
+        <v>248.7</v>
       </c>
       <c r="D13" t="n">
-        <v>240</v>
+        <v>248.7</v>
       </c>
       <c r="E13" t="n">
-        <v>239.3</v>
+        <v>248</v>
       </c>
       <c r="F13" t="n">
-        <v>936.2457000000001</v>
+        <v>6912.5958</v>
       </c>
       <c r="G13" t="n">
-        <v>-53716.39792780083</v>
+        <v>55978.79057219917</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>240</v>
+        <v>248.7</v>
       </c>
       <c r="C14" t="n">
-        <v>240</v>
+        <v>254.3</v>
       </c>
       <c r="D14" t="n">
-        <v>240</v>
+        <v>254.3</v>
       </c>
       <c r="E14" t="n">
-        <v>240</v>
+        <v>248.7</v>
       </c>
       <c r="F14" t="n">
-        <v>3879.3887</v>
+        <v>22572.0424</v>
       </c>
       <c r="G14" t="n">
-        <v>-53716.39792780083</v>
+        <v>78550.83297219916</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>240</v>
-      </c>
-      <c r="K14" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -902,28 +951,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>240</v>
+        <v>254.3</v>
       </c>
       <c r="C15" t="n">
-        <v>240</v>
+        <v>254.3</v>
       </c>
       <c r="D15" t="n">
-        <v>240</v>
+        <v>254.3</v>
       </c>
       <c r="E15" t="n">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F15" t="n">
-        <v>1967.7824</v>
+        <v>621</v>
       </c>
       <c r="G15" t="n">
-        <v>-53716.39792780083</v>
+        <v>78550.83297219916</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -932,9 +982,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -943,41 +991,38 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>240</v>
+        <v>254.3</v>
       </c>
       <c r="C16" t="n">
-        <v>240</v>
+        <v>258.7</v>
       </c>
       <c r="D16" t="n">
-        <v>240</v>
+        <v>258.7</v>
       </c>
       <c r="E16" t="n">
-        <v>240</v>
+        <v>254.3</v>
       </c>
       <c r="F16" t="n">
-        <v>368.9</v>
+        <v>20748.5795</v>
       </c>
       <c r="G16" t="n">
-        <v>-53716.39792780083</v>
+        <v>99299.41247219915</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>240</v>
-      </c>
-      <c r="K16" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -986,28 +1031,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>239</v>
+        <v>258.9</v>
       </c>
       <c r="C17" t="n">
-        <v>238</v>
+        <v>259.8</v>
       </c>
       <c r="D17" t="n">
-        <v>239</v>
+        <v>259.8</v>
       </c>
       <c r="E17" t="n">
-        <v>238</v>
+        <v>258.9</v>
       </c>
       <c r="F17" t="n">
-        <v>1687.9593</v>
+        <v>15182.7355</v>
       </c>
       <c r="G17" t="n">
-        <v>-55404.35722780084</v>
+        <v>114482.1479721991</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1016,9 +1062,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1027,28 +1071,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>239</v>
+        <v>259.8</v>
       </c>
       <c r="C18" t="n">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="D18" t="n">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="E18" t="n">
-        <v>238</v>
+        <v>259.8</v>
       </c>
       <c r="F18" t="n">
-        <v>15930.4832</v>
+        <v>14066.996</v>
       </c>
       <c r="G18" t="n">
-        <v>-55404.35722780084</v>
+        <v>128549.1439721991</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1057,9 +1102,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1068,41 +1111,38 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>238</v>
+        <v>260.1</v>
       </c>
       <c r="C19" t="n">
-        <v>239</v>
+        <v>260.1</v>
       </c>
       <c r="D19" t="n">
-        <v>239</v>
+        <v>260.1</v>
       </c>
       <c r="E19" t="n">
-        <v>238</v>
+        <v>260.1</v>
       </c>
       <c r="F19" t="n">
-        <v>1735.569</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>-53668.78822780083</v>
+        <v>128547.1439721991</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>238</v>
-      </c>
-      <c r="K19" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1111,41 +1151,38 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C20" t="n">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="D20" t="n">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="E20" t="n">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>5353.0442</v>
       </c>
       <c r="G20" t="n">
-        <v>-53688.78822780083</v>
+        <v>123194.0997721991</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>239</v>
-      </c>
-      <c r="K20" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1154,41 +1191,38 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C21" t="n">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D21" t="n">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E21" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F21" t="n">
-        <v>893.2301</v>
+        <v>10491.8994</v>
       </c>
       <c r="G21" t="n">
-        <v>-53688.78822780083</v>
+        <v>112702.2003721991</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>238</v>
-      </c>
-      <c r="K21" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1197,41 +1231,38 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C22" t="n">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="D22" t="n">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E22" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F22" t="n">
-        <v>484.1117</v>
+        <v>14217.9644</v>
       </c>
       <c r="G22" t="n">
-        <v>-53688.78822780083</v>
+        <v>126920.1647721991</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>238</v>
-      </c>
-      <c r="K22" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1240,41 +1271,38 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C23" t="n">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D23" t="n">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E23" t="n">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F23" t="n">
-        <v>1650.1442</v>
+        <v>16.3983</v>
       </c>
       <c r="G23" t="n">
-        <v>-53688.78822780083</v>
+        <v>126903.7664721991</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>238</v>
-      </c>
-      <c r="K23" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1283,41 +1311,38 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C24" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D24" t="n">
-        <v>239</v>
+        <v>253.9</v>
       </c>
       <c r="E24" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>484.7</v>
       </c>
       <c r="G24" t="n">
-        <v>-53668.78822780083</v>
+        <v>126419.0664721991</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>238</v>
-      </c>
-      <c r="K24" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1326,41 +1351,38 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C25" t="n">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D25" t="n">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="E25" t="n">
-        <v>240</v>
+        <v>246.1</v>
       </c>
       <c r="F25" t="n">
-        <v>4088.9883</v>
+        <v>11297.1575</v>
       </c>
       <c r="G25" t="n">
-        <v>-49579.79992780084</v>
+        <v>137716.2239721991</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>239</v>
-      </c>
-      <c r="K25" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1369,41 +1391,38 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="C26" t="n">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D26" t="n">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="E26" t="n">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F26" t="n">
-        <v>405.5622</v>
+        <v>12191.61467664151</v>
       </c>
       <c r="G26" t="n">
-        <v>-49985.36212780084</v>
+        <v>149907.8386488406</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>240</v>
-      </c>
-      <c r="K26" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1412,41 +1431,38 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C27" t="n">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="D27" t="n">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="E27" t="n">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="F27" t="n">
-        <v>1148.2</v>
+        <v>22</v>
       </c>
       <c r="G27" t="n">
-        <v>-49985.36212780084</v>
+        <v>149885.8386488406</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>239</v>
-      </c>
-      <c r="K27" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1455,41 +1471,38 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C28" t="n">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D28" t="n">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E28" t="n">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F28" t="n">
-        <v>344.5</v>
+        <v>1502.1698</v>
       </c>
       <c r="G28" t="n">
-        <v>-49640.86212780084</v>
+        <v>148383.6688488406</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>239</v>
-      </c>
-      <c r="K28" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1498,41 +1511,38 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>241</v>
+        <v>253.9</v>
       </c>
       <c r="C29" t="n">
-        <v>241</v>
+        <v>253.9</v>
       </c>
       <c r="D29" t="n">
-        <v>241</v>
+        <v>253.9</v>
       </c>
       <c r="E29" t="n">
-        <v>241</v>
+        <v>253.9</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>-49640.86212780084</v>
+        <v>148361.6688488406</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>241</v>
-      </c>
-      <c r="K29" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1541,41 +1551,38 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C30" t="n">
-        <v>242.3</v>
+        <v>255.9</v>
       </c>
       <c r="D30" t="n">
-        <v>242.3</v>
+        <v>257</v>
       </c>
       <c r="E30" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F30" t="n">
-        <v>63.55</v>
+        <v>3901.2</v>
       </c>
       <c r="G30" t="n">
-        <v>-49577.31212780083</v>
+        <v>152262.8688488406</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>241</v>
-      </c>
-      <c r="K30" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1584,41 +1591,38 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>242.4</v>
+        <v>254.9</v>
       </c>
       <c r="C31" t="n">
-        <v>242.4</v>
+        <v>256</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4</v>
+        <v>256</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4</v>
+        <v>254.9</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>150.0407</v>
       </c>
       <c r="G31" t="n">
-        <v>-49574.31212780083</v>
+        <v>152412.9095488407</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>242.3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1627,41 +1631,38 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>242.5</v>
+        <v>255.9</v>
       </c>
       <c r="C32" t="n">
-        <v>242.6</v>
+        <v>256</v>
       </c>
       <c r="D32" t="n">
-        <v>242.6</v>
+        <v>256</v>
       </c>
       <c r="E32" t="n">
-        <v>242.5</v>
+        <v>255</v>
       </c>
       <c r="F32" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G32" t="n">
-        <v>-49528.31212780083</v>
+        <v>152412.9095488407</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>242.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1670,28 +1671,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>241</v>
+        <v>253.1</v>
       </c>
       <c r="C33" t="n">
-        <v>241</v>
+        <v>264.9</v>
       </c>
       <c r="D33" t="n">
-        <v>241</v>
+        <v>264.9</v>
       </c>
       <c r="E33" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>13397.7295</v>
       </c>
       <c r="G33" t="n">
-        <v>-49548.31212780083</v>
+        <v>165810.6390488406</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1700,9 +1702,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1711,41 +1711,38 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="C34" t="n">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="D34" t="n">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E34" t="n">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="F34" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>-49548.31212780083</v>
+        <v>165805.6390488406</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>241</v>
-      </c>
-      <c r="K34" t="n">
-        <v>239.3</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1754,196 +1751,175 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>241.7</v>
+        <v>254</v>
       </c>
       <c r="C35" t="n">
-        <v>242</v>
+        <v>263.9</v>
       </c>
       <c r="D35" t="n">
-        <v>242</v>
+        <v>263.9</v>
       </c>
       <c r="E35" t="n">
-        <v>241.7</v>
+        <v>254</v>
       </c>
       <c r="F35" t="n">
-        <v>34528.7658</v>
+        <v>1778.9</v>
       </c>
       <c r="G35" t="n">
-        <v>-15019.54632780083</v>
+        <v>164026.7390488407</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>241</v>
-      </c>
-      <c r="K35" t="n">
-        <v>239.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C36" t="n">
-        <v>238.5</v>
+        <v>245.9</v>
       </c>
       <c r="D36" t="n">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E36" t="n">
-        <v>238</v>
+        <v>245.9</v>
       </c>
       <c r="F36" t="n">
-        <v>3540.601</v>
+        <v>13966.8673</v>
       </c>
       <c r="G36" t="n">
-        <v>-18560.14732780083</v>
+        <v>150059.8717488406</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>238.5</v>
+        <v>251</v>
       </c>
       <c r="C37" t="n">
-        <v>238.5</v>
+        <v>251</v>
       </c>
       <c r="D37" t="n">
-        <v>238.5</v>
+        <v>251</v>
       </c>
       <c r="E37" t="n">
-        <v>238.5</v>
+        <v>251</v>
       </c>
       <c r="F37" t="n">
-        <v>1600</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>-18560.14732780083</v>
+        <v>150061.8717488406</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>238.5</v>
+        <v>247</v>
       </c>
       <c r="C38" t="n">
-        <v>238.5</v>
+        <v>245.8</v>
       </c>
       <c r="D38" t="n">
-        <v>238.5</v>
+        <v>247</v>
       </c>
       <c r="E38" t="n">
-        <v>238.5</v>
+        <v>245.8</v>
       </c>
       <c r="F38" t="n">
-        <v>857.4233</v>
+        <v>12020.254</v>
       </c>
       <c r="G38" t="n">
-        <v>-18560.14732780083</v>
+        <v>138041.6177488407</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>238.5</v>
-      </c>
-      <c r="K38" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>238.5</v>
+        <v>245</v>
       </c>
       <c r="C39" t="n">
-        <v>238.5</v>
+        <v>251.9</v>
       </c>
       <c r="D39" t="n">
-        <v>238.5</v>
+        <v>251.9</v>
       </c>
       <c r="E39" t="n">
-        <v>238.5</v>
+        <v>237.5</v>
       </c>
       <c r="F39" t="n">
-        <v>1054.2</v>
+        <v>12312.6147</v>
       </c>
       <c r="G39" t="n">
-        <v>-18560.14732780083</v>
+        <v>150354.2324488407</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1952,82 +1928,70 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>238.5</v>
+        <v>245.9</v>
       </c>
       <c r="C40" t="n">
-        <v>238.5</v>
+        <v>245.9</v>
       </c>
       <c r="D40" t="n">
-        <v>238.5</v>
+        <v>245.9</v>
       </c>
       <c r="E40" t="n">
-        <v>238.5</v>
+        <v>245.9</v>
       </c>
       <c r="F40" t="n">
-        <v>776.7584000000001</v>
+        <v>1997.2</v>
       </c>
       <c r="G40" t="n">
-        <v>-18560.14732780083</v>
+        <v>148357.0324488406</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>238.5</v>
-      </c>
-      <c r="K40" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C41" t="n">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D41" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E41" t="n">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F41" t="n">
-        <v>3000</v>
+        <v>18</v>
       </c>
       <c r="G41" t="n">
-        <v>-21560.14732780083</v>
+        <v>148375.0324488406</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2036,211 +2000,178 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C42" t="n">
-        <v>237</v>
+        <v>260.8</v>
       </c>
       <c r="D42" t="n">
-        <v>237</v>
+        <v>260.9</v>
       </c>
       <c r="E42" t="n">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F42" t="n">
-        <v>141.4093</v>
+        <v>729</v>
       </c>
       <c r="G42" t="n">
-        <v>-21560.14732780083</v>
+        <v>149104.0324488406</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>237</v>
-      </c>
-      <c r="K42" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>239.4</v>
+        <v>246</v>
       </c>
       <c r="C43" t="n">
-        <v>240.9</v>
+        <v>247</v>
       </c>
       <c r="D43" t="n">
-        <v>241.9</v>
+        <v>247</v>
       </c>
       <c r="E43" t="n">
-        <v>239.4</v>
+        <v>242.2</v>
       </c>
       <c r="F43" t="n">
-        <v>5810.3</v>
+        <v>2787.6352</v>
       </c>
       <c r="G43" t="n">
-        <v>-15749.84732780083</v>
+        <v>146316.3972488407</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>237</v>
-      </c>
-      <c r="K43" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>241.3</v>
+        <v>246</v>
       </c>
       <c r="C44" t="n">
-        <v>241.9</v>
+        <v>246</v>
       </c>
       <c r="D44" t="n">
-        <v>241.9</v>
+        <v>246</v>
       </c>
       <c r="E44" t="n">
-        <v>241.3</v>
+        <v>246</v>
       </c>
       <c r="F44" t="n">
-        <v>2007</v>
+        <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>-13742.84732780083</v>
+        <v>146266.3972488407</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>240.9</v>
-      </c>
-      <c r="K44" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>242</v>
+        <v>245.6</v>
       </c>
       <c r="C45" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D45" t="n">
-        <v>243</v>
+        <v>245.6</v>
       </c>
       <c r="E45" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F45" t="n">
-        <v>43668.996</v>
+        <v>3858.7843</v>
       </c>
       <c r="G45" t="n">
-        <v>29926.14867219917</v>
+        <v>142407.6129488407</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>241.9</v>
-      </c>
-      <c r="K45" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>243</v>
+        <v>245.5</v>
       </c>
       <c r="C46" t="n">
-        <v>243</v>
+        <v>245.5</v>
       </c>
       <c r="D46" t="n">
-        <v>243</v>
+        <v>245.5</v>
       </c>
       <c r="E46" t="n">
-        <v>242.7</v>
+        <v>245.5</v>
       </c>
       <c r="F46" t="n">
-        <v>10323.2002</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>29926.14867219917</v>
+        <v>142409.6129488407</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2249,39 +2180,34 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C47" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D47" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E47" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F47" t="n">
-        <v>12800.7842</v>
+        <v>1199.4851</v>
       </c>
       <c r="G47" t="n">
-        <v>29926.14867219917</v>
+        <v>141210.1278488407</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2290,39 +2216,34 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C48" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D48" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E48" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F48" t="n">
-        <v>564.1583000000001</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>29926.14867219917</v>
+        <v>141212.1278488407</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2331,39 +2252,34 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>243</v>
+        <v>245.5</v>
       </c>
       <c r="C49" t="n">
-        <v>246.4</v>
+        <v>245.5</v>
       </c>
       <c r="D49" t="n">
-        <v>246.4</v>
+        <v>245.5</v>
       </c>
       <c r="E49" t="n">
-        <v>243</v>
+        <v>245.5</v>
       </c>
       <c r="F49" t="n">
-        <v>34767.6846</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>64693.83327219917</v>
+        <v>141214.1278488407</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2372,39 +2288,34 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>246.4</v>
+        <v>245.9</v>
       </c>
       <c r="C50" t="n">
-        <v>249.8</v>
+        <v>245.9</v>
       </c>
       <c r="D50" t="n">
-        <v>249.8</v>
+        <v>245.9</v>
       </c>
       <c r="E50" t="n">
-        <v>246</v>
+        <v>245.9</v>
       </c>
       <c r="F50" t="n">
-        <v>3924.1801</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>68618.01337219917</v>
+        <v>141219.1278488407</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2413,39 +2324,34 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>249.7</v>
+        <v>245.9</v>
       </c>
       <c r="C51" t="n">
-        <v>249.8</v>
+        <v>245.9</v>
       </c>
       <c r="D51" t="n">
-        <v>249.8</v>
+        <v>245.9</v>
       </c>
       <c r="E51" t="n">
-        <v>249.7</v>
+        <v>245.9</v>
       </c>
       <c r="F51" t="n">
-        <v>3787</v>
+        <v>12</v>
       </c>
       <c r="G51" t="n">
-        <v>68618.01337219917</v>
+        <v>141219.1278488407</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2454,39 +2360,34 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>248.8</v>
+        <v>240.5</v>
       </c>
       <c r="C52" t="n">
-        <v>249.8</v>
+        <v>238.3</v>
       </c>
       <c r="D52" t="n">
-        <v>249.8</v>
+        <v>240.5</v>
       </c>
       <c r="E52" t="n">
-        <v>248.8</v>
+        <v>238.3</v>
       </c>
       <c r="F52" t="n">
-        <v>4094.826</v>
+        <v>9170.357</v>
       </c>
       <c r="G52" t="n">
-        <v>68618.01337219917</v>
+        <v>132048.7708488407</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2495,39 +2396,34 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>249.8</v>
+        <v>243.8</v>
       </c>
       <c r="C53" t="n">
-        <v>249.8</v>
+        <v>243.8</v>
       </c>
       <c r="D53" t="n">
-        <v>249.8</v>
+        <v>243.8</v>
       </c>
       <c r="E53" t="n">
-        <v>248.7</v>
+        <v>243.8</v>
       </c>
       <c r="F53" t="n">
-        <v>3977.2142</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>68618.01337219917</v>
+        <v>132050.7708488407</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2536,39 +2432,34 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>249.7</v>
+        <v>240.5</v>
       </c>
       <c r="C54" t="n">
-        <v>249.7</v>
+        <v>240.5</v>
       </c>
       <c r="D54" t="n">
-        <v>249.7</v>
+        <v>240.5</v>
       </c>
       <c r="E54" t="n">
-        <v>249.7</v>
+        <v>240.5</v>
       </c>
       <c r="F54" t="n">
-        <v>5726.627</v>
+        <v>3.8698</v>
       </c>
       <c r="G54" t="n">
-        <v>62891.38637219917</v>
+        <v>132046.9010488407</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2577,39 +2468,34 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>248</v>
+        <v>243.8</v>
       </c>
       <c r="C55" t="n">
-        <v>248.7</v>
+        <v>243.8</v>
       </c>
       <c r="D55" t="n">
-        <v>248.7</v>
+        <v>243.8</v>
       </c>
       <c r="E55" t="n">
-        <v>248</v>
+        <v>243.8</v>
       </c>
       <c r="F55" t="n">
-        <v>6912.5958</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>55978.79057219917</v>
+        <v>132048.9010488407</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2618,39 +2504,34 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>248.7</v>
+        <v>240.5</v>
       </c>
       <c r="C56" t="n">
-        <v>254.3</v>
+        <v>240.5</v>
       </c>
       <c r="D56" t="n">
-        <v>254.3</v>
+        <v>240.5</v>
       </c>
       <c r="E56" t="n">
-        <v>248.7</v>
+        <v>240.5</v>
       </c>
       <c r="F56" t="n">
-        <v>22572.0424</v>
+        <v>6619.0557</v>
       </c>
       <c r="G56" t="n">
-        <v>78550.83297219916</v>
+        <v>125429.8453488407</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2659,39 +2540,34 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>254.3</v>
+        <v>240.5</v>
       </c>
       <c r="C57" t="n">
-        <v>254.3</v>
+        <v>240.5</v>
       </c>
       <c r="D57" t="n">
-        <v>254.3</v>
+        <v>240.5</v>
       </c>
       <c r="E57" t="n">
-        <v>254</v>
+        <v>240.5</v>
       </c>
       <c r="F57" t="n">
-        <v>621</v>
+        <v>128.0484</v>
       </c>
       <c r="G57" t="n">
-        <v>78550.83297219916</v>
+        <v>125429.8453488407</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2700,39 +2576,34 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>254.3</v>
+        <v>241.9</v>
       </c>
       <c r="C58" t="n">
-        <v>258.7</v>
+        <v>259.8</v>
       </c>
       <c r="D58" t="n">
-        <v>258.7</v>
+        <v>259.8</v>
       </c>
       <c r="E58" t="n">
-        <v>254.3</v>
+        <v>241.9</v>
       </c>
       <c r="F58" t="n">
-        <v>20748.5795</v>
+        <v>4766.4799</v>
       </c>
       <c r="G58" t="n">
-        <v>99299.41247219915</v>
+        <v>130196.3252488407</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2741,39 +2612,34 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>258.9</v>
+        <v>240.5</v>
       </c>
       <c r="C59" t="n">
-        <v>259.8</v>
+        <v>241</v>
       </c>
       <c r="D59" t="n">
-        <v>259.8</v>
+        <v>241</v>
       </c>
       <c r="E59" t="n">
-        <v>258.9</v>
+        <v>240.5</v>
       </c>
       <c r="F59" t="n">
-        <v>15182.7355</v>
+        <v>310.6277</v>
       </c>
       <c r="G59" t="n">
-        <v>114482.1479721991</v>
+        <v>129885.6975488407</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2782,39 +2648,34 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>259.8</v>
+        <v>255</v>
       </c>
       <c r="C60" t="n">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D60" t="n">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E60" t="n">
-        <v>259.8</v>
+        <v>251.7</v>
       </c>
       <c r="F60" t="n">
-        <v>14066.996</v>
+        <v>6660.05</v>
       </c>
       <c r="G60" t="n">
-        <v>128549.1439721991</v>
+        <v>136545.7475488407</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2823,39 +2684,34 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>260.1</v>
+        <v>253.8</v>
       </c>
       <c r="C61" t="n">
-        <v>260.1</v>
+        <v>253.8</v>
       </c>
       <c r="D61" t="n">
-        <v>260.1</v>
+        <v>254</v>
       </c>
       <c r="E61" t="n">
-        <v>260.1</v>
+        <v>253.8</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1392.6573</v>
       </c>
       <c r="G61" t="n">
-        <v>128547.1439721991</v>
+        <v>135153.0902488407</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2864,39 +2720,34 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C62" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D62" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E62" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F62" t="n">
-        <v>5353.0442</v>
+        <v>62.6016</v>
       </c>
       <c r="G62" t="n">
-        <v>123194.0997721991</v>
+        <v>135090.4886488407</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2905,39 +2756,34 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>253</v>
+        <v>246.9</v>
       </c>
       <c r="C63" t="n">
-        <v>253</v>
+        <v>246.9</v>
       </c>
       <c r="D63" t="n">
-        <v>254</v>
+        <v>246.9</v>
       </c>
       <c r="E63" t="n">
-        <v>250</v>
+        <v>246.9</v>
       </c>
       <c r="F63" t="n">
-        <v>10491.8994</v>
+        <v>2098.1563</v>
       </c>
       <c r="G63" t="n">
-        <v>112702.2003721991</v>
+        <v>132992.3323488407</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2946,39 +2792,34 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C64" t="n">
-        <v>254</v>
+        <v>248.9</v>
       </c>
       <c r="D64" t="n">
-        <v>254</v>
+        <v>248.9</v>
       </c>
       <c r="E64" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F64" t="n">
-        <v>14217.9644</v>
+        <v>2769.2535</v>
       </c>
       <c r="G64" t="n">
-        <v>126920.1647721991</v>
+        <v>135761.5858488407</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2987,39 +2828,34 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>252</v>
+        <v>243.5</v>
       </c>
       <c r="C65" t="n">
-        <v>252</v>
+        <v>243.5</v>
       </c>
       <c r="D65" t="n">
-        <v>252</v>
+        <v>243.5</v>
       </c>
       <c r="E65" t="n">
-        <v>252</v>
+        <v>243.5</v>
       </c>
       <c r="F65" t="n">
-        <v>16.3983</v>
+        <v>3784.9</v>
       </c>
       <c r="G65" t="n">
-        <v>126903.7664721991</v>
+        <v>131976.6858488407</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3028,39 +2864,34 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C66" t="n">
-        <v>250</v>
+        <v>242.5</v>
       </c>
       <c r="D66" t="n">
-        <v>253.9</v>
+        <v>243</v>
       </c>
       <c r="E66" t="n">
-        <v>250</v>
+        <v>242.5</v>
       </c>
       <c r="F66" t="n">
-        <v>484.7</v>
+        <v>2226.4</v>
       </c>
       <c r="G66" t="n">
-        <v>126419.0664721991</v>
+        <v>129750.2858488407</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3069,39 +2900,34 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>248</v>
+        <v>242.5</v>
       </c>
       <c r="C67" t="n">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D67" t="n">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E67" t="n">
-        <v>246.1</v>
+        <v>242.5</v>
       </c>
       <c r="F67" t="n">
-        <v>11297.1575</v>
+        <v>404.1407</v>
       </c>
       <c r="G67" t="n">
-        <v>137716.2239721991</v>
+        <v>130154.4265488407</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3110,39 +2936,34 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C68" t="n">
-        <v>265</v>
+        <v>242.5</v>
       </c>
       <c r="D68" t="n">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E68" t="n">
-        <v>253</v>
+        <v>242.5</v>
       </c>
       <c r="F68" t="n">
-        <v>12191.61467664151</v>
+        <v>15004</v>
       </c>
       <c r="G68" t="n">
-        <v>149907.8386488406</v>
+        <v>115150.4265488407</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3151,39 +2972,34 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C69" t="n">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D69" t="n">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E69" t="n">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="F69" t="n">
         <v>22</v>
       </c>
       <c r="G69" t="n">
-        <v>149885.8386488406</v>
+        <v>115172.4265488407</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3192,39 +3008,34 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C70" t="n">
-        <v>255</v>
+        <v>246.5</v>
       </c>
       <c r="D70" t="n">
-        <v>255</v>
+        <v>246.5</v>
       </c>
       <c r="E70" t="n">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F70" t="n">
-        <v>1502.1698</v>
+        <v>2104.4812</v>
       </c>
       <c r="G70" t="n">
-        <v>148383.6688488406</v>
+        <v>117276.9077488407</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3233,39 +3044,34 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>253.9</v>
+        <v>246.5</v>
       </c>
       <c r="C71" t="n">
-        <v>253.9</v>
+        <v>246.4</v>
       </c>
       <c r="D71" t="n">
-        <v>253.9</v>
+        <v>246.5</v>
       </c>
       <c r="E71" t="n">
-        <v>253.9</v>
+        <v>246.4</v>
       </c>
       <c r="F71" t="n">
-        <v>22</v>
+        <v>1944.8321</v>
       </c>
       <c r="G71" t="n">
-        <v>148361.6688488406</v>
+        <v>115332.0756488407</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3274,39 +3080,34 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C72" t="n">
-        <v>255.9</v>
+        <v>245.4</v>
       </c>
       <c r="D72" t="n">
-        <v>257</v>
+        <v>245.4</v>
       </c>
       <c r="E72" t="n">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F72" t="n">
-        <v>3901.2</v>
+        <v>31</v>
       </c>
       <c r="G72" t="n">
-        <v>152262.8688488406</v>
+        <v>115301.0756488407</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3315,39 +3116,34 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>254.9</v>
+        <v>245.4</v>
       </c>
       <c r="C73" t="n">
-        <v>256</v>
+        <v>245.4</v>
       </c>
       <c r="D73" t="n">
-        <v>256</v>
+        <v>245.4</v>
       </c>
       <c r="E73" t="n">
-        <v>254.9</v>
+        <v>245.4</v>
       </c>
       <c r="F73" t="n">
-        <v>150.0407</v>
+        <v>2.5</v>
       </c>
       <c r="G73" t="n">
-        <v>152412.9095488407</v>
+        <v>115301.0756488407</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3356,39 +3152,34 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>255.9</v>
+        <v>245.4</v>
       </c>
       <c r="C74" t="n">
-        <v>256</v>
+        <v>245.4</v>
       </c>
       <c r="D74" t="n">
-        <v>256</v>
+        <v>245.4</v>
       </c>
       <c r="E74" t="n">
-        <v>255</v>
+        <v>245.4</v>
       </c>
       <c r="F74" t="n">
-        <v>28</v>
+        <v>1591.6734</v>
       </c>
       <c r="G74" t="n">
-        <v>152412.9095488407</v>
+        <v>115301.0756488407</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3397,39 +3188,34 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>253.1</v>
+        <v>243</v>
       </c>
       <c r="C75" t="n">
-        <v>264.9</v>
+        <v>243</v>
       </c>
       <c r="D75" t="n">
-        <v>264.9</v>
+        <v>243</v>
       </c>
       <c r="E75" t="n">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F75" t="n">
-        <v>13397.7295</v>
+        <v>2000</v>
       </c>
       <c r="G75" t="n">
-        <v>165810.6390488406</v>
+        <v>113301.0756488407</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3438,86 +3224,76 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>264</v>
+        <v>245.4</v>
       </c>
       <c r="C76" t="n">
-        <v>264</v>
+        <v>247.5</v>
       </c>
       <c r="D76" t="n">
-        <v>264</v>
+        <v>247.5</v>
       </c>
       <c r="E76" t="n">
-        <v>264</v>
+        <v>245.4</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="G76" t="n">
-        <v>165805.6390488406</v>
+        <v>113423.0756488407</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>1.098217718345174</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C77" t="n">
-        <v>263.9</v>
+        <v>243</v>
       </c>
       <c r="D77" t="n">
-        <v>263.9</v>
+        <v>243</v>
       </c>
       <c r="E77" t="n">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F77" t="n">
-        <v>1778.9</v>
+        <v>1437.814</v>
       </c>
       <c r="G77" t="n">
-        <v>164026.7390488407</v>
+        <v>111985.2616488407</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3525,34 +3301,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>253</v>
+        <v>246.5</v>
       </c>
       <c r="C78" t="n">
-        <v>245.9</v>
+        <v>246.5</v>
       </c>
       <c r="D78" t="n">
-        <v>253</v>
+        <v>246.5</v>
       </c>
       <c r="E78" t="n">
-        <v>245.9</v>
+        <v>246.5</v>
       </c>
       <c r="F78" t="n">
-        <v>13966.8673</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>150059.8717488406</v>
+        <v>111987.2616488407</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3560,28 +3337,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C79" t="n">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D79" t="n">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E79" t="n">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G79" t="n">
-        <v>150061.8717488406</v>
+        <v>109987.2616488407</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3595,28 +3373,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C80" t="n">
-        <v>245.8</v>
+        <v>239</v>
       </c>
       <c r="D80" t="n">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E80" t="n">
-        <v>245.8</v>
+        <v>239</v>
       </c>
       <c r="F80" t="n">
-        <v>12020.254</v>
+        <v>3580.9214</v>
       </c>
       <c r="G80" t="n">
-        <v>138041.6177488407</v>
+        <v>106406.3402488407</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3630,28 +3409,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C81" t="n">
-        <v>251.9</v>
+        <v>245.4</v>
       </c>
       <c r="D81" t="n">
-        <v>251.9</v>
+        <v>245.4</v>
       </c>
       <c r="E81" t="n">
-        <v>237.5</v>
+        <v>239</v>
       </c>
       <c r="F81" t="n">
-        <v>12312.6147</v>
+        <v>4262.3215</v>
       </c>
       <c r="G81" t="n">
-        <v>150354.2324488407</v>
+        <v>110668.6617488407</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3665,28 +3445,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>245.9</v>
+        <v>240</v>
       </c>
       <c r="C82" t="n">
-        <v>245.9</v>
+        <v>240</v>
       </c>
       <c r="D82" t="n">
-        <v>245.9</v>
+        <v>243.8</v>
       </c>
       <c r="E82" t="n">
-        <v>245.9</v>
+        <v>240</v>
       </c>
       <c r="F82" t="n">
-        <v>1997.2</v>
+        <v>2077</v>
       </c>
       <c r="G82" t="n">
-        <v>148357.0324488406</v>
+        <v>108591.6617488407</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3700,28 +3481,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>246</v>
+        <v>243.9</v>
       </c>
       <c r="C83" t="n">
-        <v>246</v>
+        <v>243.9</v>
       </c>
       <c r="D83" t="n">
-        <v>246</v>
+        <v>243.9</v>
       </c>
       <c r="E83" t="n">
-        <v>246</v>
+        <v>243.9</v>
       </c>
       <c r="F83" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>148375.0324488406</v>
+        <v>108594.6617488407</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3735,28 +3517,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C84" t="n">
-        <v>260.8</v>
+        <v>244</v>
       </c>
       <c r="D84" t="n">
-        <v>260.9</v>
+        <v>244</v>
       </c>
       <c r="E84" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F84" t="n">
-        <v>729</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>149104.0324488406</v>
+        <v>108596.6617488407</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3770,28 +3553,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>246</v>
+        <v>240.5</v>
       </c>
       <c r="C85" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D85" t="n">
-        <v>247</v>
+        <v>240.5</v>
       </c>
       <c r="E85" t="n">
-        <v>242.2</v>
+        <v>240</v>
       </c>
       <c r="F85" t="n">
-        <v>2787.6352</v>
+        <v>150</v>
       </c>
       <c r="G85" t="n">
-        <v>146316.3972488407</v>
+        <v>108446.6617488407</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3805,28 +3589,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>246</v>
+        <v>240.5</v>
       </c>
       <c r="C86" t="n">
-        <v>246</v>
+        <v>240.5</v>
       </c>
       <c r="D86" t="n">
-        <v>246</v>
+        <v>240.5</v>
       </c>
       <c r="E86" t="n">
-        <v>246</v>
+        <v>240.5</v>
       </c>
       <c r="F86" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G86" t="n">
-        <v>146266.3972488407</v>
+        <v>108526.6617488407</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3840,28 +3625,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>245.6</v>
+        <v>240.5</v>
       </c>
       <c r="C87" t="n">
         <v>240</v>
       </c>
       <c r="D87" t="n">
-        <v>245.6</v>
+        <v>240.5</v>
       </c>
       <c r="E87" t="n">
         <v>240</v>
       </c>
       <c r="F87" t="n">
-        <v>3858.7843</v>
+        <v>70.295</v>
       </c>
       <c r="G87" t="n">
-        <v>142407.6129488407</v>
+        <v>108456.3667488407</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3875,28 +3661,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>245.5</v>
+        <v>242</v>
       </c>
       <c r="C88" t="n">
-        <v>245.5</v>
+        <v>245</v>
       </c>
       <c r="D88" t="n">
-        <v>245.5</v>
+        <v>245</v>
       </c>
       <c r="E88" t="n">
-        <v>245.5</v>
+        <v>242</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>225.146</v>
       </c>
       <c r="G88" t="n">
-        <v>142409.6129488407</v>
+        <v>108681.5127488407</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3910,28 +3697,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>240</v>
+        <v>243.9</v>
       </c>
       <c r="C89" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D89" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E89" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="F89" t="n">
-        <v>1199.4851</v>
+        <v>8882.9295</v>
       </c>
       <c r="G89" t="n">
-        <v>141210.1278488407</v>
+        <v>99798.58324884072</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3945,28 +3733,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C90" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D90" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E90" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>111.2345</v>
       </c>
       <c r="G90" t="n">
-        <v>141212.1278488407</v>
+        <v>99687.34874884071</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3980,28 +3769,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>245.5</v>
+        <v>240</v>
       </c>
       <c r="C91" t="n">
-        <v>245.5</v>
+        <v>253.7</v>
       </c>
       <c r="D91" t="n">
-        <v>245.5</v>
+        <v>253.7</v>
       </c>
       <c r="E91" t="n">
-        <v>245.5</v>
+        <v>240</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>2829.4677</v>
       </c>
       <c r="G91" t="n">
-        <v>141214.1278488407</v>
+        <v>102516.8164488407</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4015,28 +3805,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>245.9</v>
+        <v>240.5</v>
       </c>
       <c r="C92" t="n">
-        <v>245.9</v>
+        <v>240.5</v>
       </c>
       <c r="D92" t="n">
-        <v>245.9</v>
+        <v>240.5</v>
       </c>
       <c r="E92" t="n">
-        <v>245.9</v>
+        <v>240.5</v>
       </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>1500</v>
       </c>
       <c r="G92" t="n">
-        <v>141219.1278488407</v>
+        <v>101016.8164488407</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4050,28 +3841,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>245.9</v>
+        <v>240.5</v>
       </c>
       <c r="C93" t="n">
-        <v>245.9</v>
+        <v>240</v>
       </c>
       <c r="D93" t="n">
-        <v>245.9</v>
+        <v>240.5</v>
       </c>
       <c r="E93" t="n">
-        <v>245.9</v>
+        <v>240</v>
       </c>
       <c r="F93" t="n">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G93" t="n">
-        <v>141219.1278488407</v>
+        <v>100516.8164488407</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4085,28 +3877,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>240.5</v>
+        <v>243</v>
       </c>
       <c r="C94" t="n">
-        <v>238.3</v>
+        <v>243</v>
       </c>
       <c r="D94" t="n">
-        <v>240.5</v>
+        <v>243</v>
       </c>
       <c r="E94" t="n">
-        <v>238.3</v>
+        <v>243</v>
       </c>
       <c r="F94" t="n">
-        <v>9170.357</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>132048.7708488407</v>
+        <v>100519.8164488407</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4120,28 +3913,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>243.8</v>
+        <v>241.5</v>
       </c>
       <c r="C95" t="n">
-        <v>243.8</v>
+        <v>253.8</v>
       </c>
       <c r="D95" t="n">
-        <v>243.8</v>
+        <v>253.8</v>
       </c>
       <c r="E95" t="n">
-        <v>243.8</v>
+        <v>241.5</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>815.6909000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>132050.7708488407</v>
+        <v>101335.5073488407</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4155,28 +3949,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>240.5</v>
+        <v>240.1</v>
       </c>
       <c r="C96" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="D96" t="n">
-        <v>240.5</v>
+        <v>240.1</v>
       </c>
       <c r="E96" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="F96" t="n">
-        <v>3.8698</v>
+        <v>7023</v>
       </c>
       <c r="G96" t="n">
-        <v>132046.9010488407</v>
+        <v>94312.50734884071</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4190,28 +3985,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>243.8</v>
+        <v>240</v>
       </c>
       <c r="C97" t="n">
-        <v>243.8</v>
+        <v>241</v>
       </c>
       <c r="D97" t="n">
-        <v>243.8</v>
+        <v>244</v>
       </c>
       <c r="E97" t="n">
-        <v>243.8</v>
+        <v>240</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>3310.1058</v>
       </c>
       <c r="G97" t="n">
-        <v>132048.9010488407</v>
+        <v>97622.61314884071</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4225,28 +4021,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>240.5</v>
+        <v>243.9</v>
       </c>
       <c r="C98" t="n">
-        <v>240.5</v>
+        <v>245.9</v>
       </c>
       <c r="D98" t="n">
-        <v>240.5</v>
+        <v>245.9</v>
       </c>
       <c r="E98" t="n">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="F98" t="n">
-        <v>6619.0557</v>
+        <v>990.1861</v>
       </c>
       <c r="G98" t="n">
-        <v>125429.8453488407</v>
+        <v>98612.79924884072</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4260,28 +4057,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>240.5</v>
+        <v>246</v>
       </c>
       <c r="C99" t="n">
-        <v>240.5</v>
+        <v>241</v>
       </c>
       <c r="D99" t="n">
-        <v>240.5</v>
+        <v>246</v>
       </c>
       <c r="E99" t="n">
-        <v>240.5</v>
+        <v>241</v>
       </c>
       <c r="F99" t="n">
-        <v>128.0484</v>
+        <v>555.8939</v>
       </c>
       <c r="G99" t="n">
-        <v>125429.8453488407</v>
+        <v>98056.90534884072</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4295,28 +4093,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>241.9</v>
+        <v>241</v>
       </c>
       <c r="C100" t="n">
-        <v>259.8</v>
+        <v>245.9</v>
       </c>
       <c r="D100" t="n">
-        <v>259.8</v>
+        <v>246</v>
       </c>
       <c r="E100" t="n">
-        <v>241.9</v>
+        <v>241</v>
       </c>
       <c r="F100" t="n">
-        <v>4766.4799</v>
+        <v>1817.1061</v>
       </c>
       <c r="G100" t="n">
-        <v>130196.3252488407</v>
+        <v>99874.01144884073</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4330,34 +4129,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>240.5</v>
+        <v>244</v>
       </c>
       <c r="C101" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D101" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E101" t="n">
-        <v>240.5</v>
+        <v>244</v>
       </c>
       <c r="F101" t="n">
-        <v>310.6277</v>
+        <v>21</v>
       </c>
       <c r="G101" t="n">
-        <v>129885.6975488407</v>
+        <v>99853.01144884073</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4365,28 +4165,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C102" t="n">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D102" t="n">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E102" t="n">
-        <v>251.7</v>
+        <v>240</v>
       </c>
       <c r="F102" t="n">
-        <v>6660.05</v>
+        <v>2503.5988</v>
       </c>
       <c r="G102" t="n">
-        <v>136545.7475488407</v>
+        <v>97349.41264884072</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4400,34 +4201,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>253.8</v>
+        <v>239.7</v>
       </c>
       <c r="C103" t="n">
-        <v>253.8</v>
+        <v>242</v>
       </c>
       <c r="D103" t="n">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E103" t="n">
-        <v>253.8</v>
+        <v>239.5</v>
       </c>
       <c r="F103" t="n">
-        <v>1392.6573</v>
+        <v>4120.7285</v>
       </c>
       <c r="G103" t="n">
-        <v>135153.0902488407</v>
+        <v>93228.68414884072</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4435,28 +4237,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C104" t="n">
-        <v>250</v>
+        <v>242.9</v>
       </c>
       <c r="D104" t="n">
-        <v>250</v>
+        <v>242.9</v>
       </c>
       <c r="E104" t="n">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F104" t="n">
-        <v>62.6016</v>
+        <v>33</v>
       </c>
       <c r="G104" t="n">
-        <v>135090.4886488407</v>
+        <v>93261.68414884072</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4470,28 +4273,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>246.9</v>
+        <v>242</v>
       </c>
       <c r="C105" t="n">
-        <v>246.9</v>
+        <v>242</v>
       </c>
       <c r="D105" t="n">
-        <v>246.9</v>
+        <v>242</v>
       </c>
       <c r="E105" t="n">
-        <v>246.9</v>
+        <v>242</v>
       </c>
       <c r="F105" t="n">
-        <v>2098.1563</v>
+        <v>20</v>
       </c>
       <c r="G105" t="n">
-        <v>132992.3323488407</v>
+        <v>93241.68414884072</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4505,28 +4309,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>247</v>
+        <v>242.9</v>
       </c>
       <c r="C106" t="n">
-        <v>248.9</v>
+        <v>242.9</v>
       </c>
       <c r="D106" t="n">
-        <v>248.9</v>
+        <v>242.9</v>
       </c>
       <c r="E106" t="n">
-        <v>245</v>
+        <v>242.9</v>
       </c>
       <c r="F106" t="n">
-        <v>2769.2535</v>
+        <v>134.929</v>
       </c>
       <c r="G106" t="n">
-        <v>135761.5858488407</v>
+        <v>93376.61314884073</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4540,28 +4345,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>243.5</v>
+        <v>239.9</v>
       </c>
       <c r="C107" t="n">
-        <v>243.5</v>
+        <v>242</v>
       </c>
       <c r="D107" t="n">
-        <v>243.5</v>
+        <v>242</v>
       </c>
       <c r="E107" t="n">
-        <v>243.5</v>
+        <v>238.3</v>
       </c>
       <c r="F107" t="n">
-        <v>3784.9</v>
+        <v>4826.3911</v>
       </c>
       <c r="G107" t="n">
-        <v>131976.6858488407</v>
+        <v>88550.22204884073</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4575,28 +4381,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C108" t="n">
-        <v>242.5</v>
+        <v>240</v>
       </c>
       <c r="D108" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E108" t="n">
-        <v>242.5</v>
+        <v>240</v>
       </c>
       <c r="F108" t="n">
-        <v>2226.4</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>129750.2858488407</v>
+        <v>88548.22204884073</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4610,28 +4417,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>242.5</v>
+        <v>238.3</v>
       </c>
       <c r="C109" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D109" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E109" t="n">
-        <v>242.5</v>
+        <v>238.3</v>
       </c>
       <c r="F109" t="n">
-        <v>404.1407</v>
+        <v>492.4577</v>
       </c>
       <c r="G109" t="n">
-        <v>130154.4265488407</v>
+        <v>88548.22204884073</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4645,28 +4453,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>246</v>
+        <v>238.3</v>
       </c>
       <c r="C110" t="n">
-        <v>242.5</v>
+        <v>237.1</v>
       </c>
       <c r="D110" t="n">
-        <v>246</v>
+        <v>238.3</v>
       </c>
       <c r="E110" t="n">
-        <v>242.5</v>
+        <v>237.1</v>
       </c>
       <c r="F110" t="n">
-        <v>15004</v>
+        <v>3614.2244</v>
       </c>
       <c r="G110" t="n">
-        <v>115150.4265488407</v>
+        <v>84933.99764884073</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4680,28 +4489,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>245</v>
+        <v>237.1</v>
       </c>
       <c r="C111" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D111" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E111" t="n">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F111" t="n">
-        <v>22</v>
+        <v>3876.5832</v>
       </c>
       <c r="G111" t="n">
-        <v>115172.4265488407</v>
+        <v>88810.58084884072</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4715,28 +4525,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C112" t="n">
-        <v>246.5</v>
+        <v>240</v>
       </c>
       <c r="D112" t="n">
-        <v>246.5</v>
+        <v>240</v>
       </c>
       <c r="E112" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F112" t="n">
-        <v>2104.4812</v>
+        <v>24</v>
       </c>
       <c r="G112" t="n">
-        <v>117276.9077488407</v>
+        <v>88810.58084884072</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4750,28 +4561,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>246.5</v>
+        <v>240</v>
       </c>
       <c r="C113" t="n">
-        <v>246.4</v>
+        <v>241</v>
       </c>
       <c r="D113" t="n">
-        <v>246.5</v>
+        <v>241</v>
       </c>
       <c r="E113" t="n">
-        <v>246.4</v>
+        <v>240</v>
       </c>
       <c r="F113" t="n">
-        <v>1944.8321</v>
+        <v>3815.3681</v>
       </c>
       <c r="G113" t="n">
-        <v>115332.0756488407</v>
+        <v>92625.94894884073</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4785,28 +4597,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C114" t="n">
-        <v>245.4</v>
+        <v>240</v>
       </c>
       <c r="D114" t="n">
-        <v>245.4</v>
+        <v>240</v>
       </c>
       <c r="E114" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F114" t="n">
-        <v>31</v>
+        <v>0.2711</v>
       </c>
       <c r="G114" t="n">
-        <v>115301.0756488407</v>
+        <v>92625.67784884073</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4820,28 +4633,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>245.4</v>
+        <v>237.5</v>
       </c>
       <c r="C115" t="n">
-        <v>245.4</v>
+        <v>237.5</v>
       </c>
       <c r="D115" t="n">
-        <v>245.4</v>
+        <v>237.5</v>
       </c>
       <c r="E115" t="n">
-        <v>245.4</v>
+        <v>237.5</v>
       </c>
       <c r="F115" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>115301.0756488407</v>
+        <v>92622.67784884073</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4855,28 +4669,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>245.4</v>
+        <v>240</v>
       </c>
       <c r="C116" t="n">
-        <v>245.4</v>
+        <v>240</v>
       </c>
       <c r="D116" t="n">
-        <v>245.4</v>
+        <v>240</v>
       </c>
       <c r="E116" t="n">
-        <v>245.4</v>
+        <v>240</v>
       </c>
       <c r="F116" t="n">
-        <v>1591.6734</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>115301.0756488407</v>
+        <v>92624.67784884073</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4890,28 +4705,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>243</v>
+        <v>237.5</v>
       </c>
       <c r="C117" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D117" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E117" t="n">
-        <v>243</v>
+        <v>237.1</v>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>5864.2585</v>
       </c>
       <c r="G117" t="n">
-        <v>113301.0756488407</v>
+        <v>92624.67784884073</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4925,28 +4741,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>245.4</v>
+        <v>237.2</v>
       </c>
       <c r="C118" t="n">
-        <v>247.5</v>
+        <v>237.2</v>
       </c>
       <c r="D118" t="n">
-        <v>247.5</v>
+        <v>237.2</v>
       </c>
       <c r="E118" t="n">
-        <v>245.4</v>
+        <v>237.2</v>
       </c>
       <c r="F118" t="n">
-        <v>122</v>
+        <v>35.511</v>
       </c>
       <c r="G118" t="n">
-        <v>113423.0756488407</v>
+        <v>92589.16684884073</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4960,28 +4777,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>243</v>
+        <v>237.1</v>
       </c>
       <c r="C119" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D119" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E119" t="n">
-        <v>243</v>
+        <v>237.1</v>
       </c>
       <c r="F119" t="n">
-        <v>1437.814</v>
+        <v>743.2474</v>
       </c>
       <c r="G119" t="n">
-        <v>111985.2616488407</v>
+        <v>93332.41424884072</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4995,28 +4813,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>246.5</v>
+        <v>238</v>
       </c>
       <c r="C120" t="n">
-        <v>246.5</v>
+        <v>238</v>
       </c>
       <c r="D120" t="n">
-        <v>246.5</v>
+        <v>238</v>
       </c>
       <c r="E120" t="n">
-        <v>246.5</v>
+        <v>238</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G120" t="n">
-        <v>111987.2616488407</v>
+        <v>93326.41424884072</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5030,28 +4849,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C121" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D121" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E121" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F121" t="n">
-        <v>2000</v>
+        <v>12</v>
       </c>
       <c r="G121" t="n">
-        <v>109987.2616488407</v>
+        <v>93326.41424884072</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5065,28 +4885,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C122" t="n">
         <v>239</v>
       </c>
       <c r="D122" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E122" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F122" t="n">
-        <v>3580.9214</v>
+        <v>4</v>
       </c>
       <c r="G122" t="n">
-        <v>106406.3402488407</v>
+        <v>93330.41424884072</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5100,28 +4921,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C123" t="n">
-        <v>245.4</v>
+        <v>238</v>
       </c>
       <c r="D123" t="n">
-        <v>245.4</v>
+        <v>238</v>
       </c>
       <c r="E123" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F123" t="n">
-        <v>4262.3215</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>110668.6617488407</v>
+        <v>93329.41424884072</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5135,28 +4957,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C124" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D124" t="n">
-        <v>243.8</v>
+        <v>242</v>
       </c>
       <c r="E124" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F124" t="n">
-        <v>2077</v>
+        <v>275.2759</v>
       </c>
       <c r="G124" t="n">
-        <v>108591.6617488407</v>
+        <v>93604.69014884072</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5170,28 +4993,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>243.9</v>
+        <v>240</v>
       </c>
       <c r="C125" t="n">
-        <v>243.9</v>
+        <v>242.9</v>
       </c>
       <c r="D125" t="n">
-        <v>243.9</v>
+        <v>242.9</v>
       </c>
       <c r="E125" t="n">
-        <v>243.9</v>
+        <v>240</v>
       </c>
       <c r="F125" t="n">
-        <v>3</v>
+        <v>180.4396</v>
       </c>
       <c r="G125" t="n">
-        <v>108594.6617488407</v>
+        <v>93785.12974884071</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5205,28 +5029,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C126" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D126" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E126" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F126" t="n">
         <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>108596.6617488407</v>
+        <v>93783.12974884071</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5240,28 +5065,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>240.5</v>
+        <v>238</v>
       </c>
       <c r="C127" t="n">
-        <v>240</v>
+        <v>237.1</v>
       </c>
       <c r="D127" t="n">
-        <v>240.5</v>
+        <v>238</v>
       </c>
       <c r="E127" t="n">
-        <v>240</v>
+        <v>237.1</v>
       </c>
       <c r="F127" t="n">
-        <v>150</v>
+        <v>5305.1295</v>
       </c>
       <c r="G127" t="n">
-        <v>108446.6617488407</v>
+        <v>88478.00024884072</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5275,28 +5101,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>240.5</v>
+        <v>238</v>
       </c>
       <c r="C128" t="n">
-        <v>240.5</v>
+        <v>238</v>
       </c>
       <c r="D128" t="n">
-        <v>240.5</v>
+        <v>238</v>
       </c>
       <c r="E128" t="n">
-        <v>240.5</v>
+        <v>238</v>
       </c>
       <c r="F128" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G128" t="n">
-        <v>108526.6617488407</v>
+        <v>88482.00024884072</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5310,28 +5137,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>240.5</v>
+        <v>238</v>
       </c>
       <c r="C129" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D129" t="n">
-        <v>240.5</v>
+        <v>239</v>
       </c>
       <c r="E129" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F129" t="n">
-        <v>70.295</v>
+        <v>16.1</v>
       </c>
       <c r="G129" t="n">
-        <v>108456.3667488407</v>
+        <v>88498.10024884072</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5345,28 +5173,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>242</v>
+        <v>237.1</v>
       </c>
       <c r="C130" t="n">
-        <v>245</v>
+        <v>237.1</v>
       </c>
       <c r="D130" t="n">
-        <v>245</v>
+        <v>237.1</v>
       </c>
       <c r="E130" t="n">
-        <v>242</v>
+        <v>237.1</v>
       </c>
       <c r="F130" t="n">
-        <v>225.146</v>
+        <v>6094.7346</v>
       </c>
       <c r="G130" t="n">
-        <v>108681.5127488407</v>
+        <v>82403.36564884073</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5380,28 +5209,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>243.9</v>
+        <v>239</v>
       </c>
       <c r="C131" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D131" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E131" t="n">
-        <v>240.5</v>
+        <v>239</v>
       </c>
       <c r="F131" t="n">
-        <v>8882.9295</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>99798.58324884072</v>
+        <v>82405.36564884073</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5415,28 +5245,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C132" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D132" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E132" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F132" t="n">
-        <v>111.2345</v>
+        <v>17.9</v>
       </c>
       <c r="G132" t="n">
-        <v>99687.34874884071</v>
+        <v>82405.36564884073</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5450,28 +5281,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C133" t="n">
-        <v>253.7</v>
+        <v>239</v>
       </c>
       <c r="D133" t="n">
-        <v>253.7</v>
+        <v>239</v>
       </c>
       <c r="E133" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F133" t="n">
-        <v>2829.4677</v>
+        <v>30</v>
       </c>
       <c r="G133" t="n">
-        <v>102516.8164488407</v>
+        <v>82405.36564884073</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5485,28 +5317,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="C134" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="D134" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="E134" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="F134" t="n">
-        <v>1500</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>101016.8164488407</v>
+        <v>82407.36564884073</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5520,1476 +5353,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>240.5</v>
-      </c>
-      <c r="C135" t="n">
-        <v>240</v>
-      </c>
-      <c r="D135" t="n">
-        <v>240.5</v>
-      </c>
-      <c r="E135" t="n">
-        <v>240</v>
-      </c>
-      <c r="F135" t="n">
-        <v>500</v>
-      </c>
-      <c r="G135" t="n">
-        <v>100516.8164488407</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>243</v>
-      </c>
-      <c r="C136" t="n">
-        <v>243</v>
-      </c>
-      <c r="D136" t="n">
-        <v>243</v>
-      </c>
-      <c r="E136" t="n">
-        <v>243</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3</v>
-      </c>
-      <c r="G136" t="n">
-        <v>100519.8164488407</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="C137" t="n">
-        <v>253.8</v>
-      </c>
-      <c r="D137" t="n">
-        <v>253.8</v>
-      </c>
-      <c r="E137" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>815.6909000000001</v>
-      </c>
-      <c r="G137" t="n">
-        <v>101335.5073488407</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>240.1</v>
-      </c>
-      <c r="C138" t="n">
-        <v>240</v>
-      </c>
-      <c r="D138" t="n">
-        <v>240.1</v>
-      </c>
-      <c r="E138" t="n">
-        <v>240</v>
-      </c>
-      <c r="F138" t="n">
-        <v>7023</v>
-      </c>
-      <c r="G138" t="n">
-        <v>94312.50734884071</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>240</v>
-      </c>
-      <c r="C139" t="n">
-        <v>241</v>
-      </c>
-      <c r="D139" t="n">
-        <v>244</v>
-      </c>
-      <c r="E139" t="n">
-        <v>240</v>
-      </c>
-      <c r="F139" t="n">
-        <v>3310.1058</v>
-      </c>
-      <c r="G139" t="n">
-        <v>97622.61314884071</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="C140" t="n">
-        <v>245.9</v>
-      </c>
-      <c r="D140" t="n">
-        <v>245.9</v>
-      </c>
-      <c r="E140" t="n">
-        <v>242</v>
-      </c>
-      <c r="F140" t="n">
-        <v>990.1861</v>
-      </c>
-      <c r="G140" t="n">
-        <v>98612.79924884072</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>246</v>
-      </c>
-      <c r="C141" t="n">
-        <v>241</v>
-      </c>
-      <c r="D141" t="n">
-        <v>246</v>
-      </c>
-      <c r="E141" t="n">
-        <v>241</v>
-      </c>
-      <c r="F141" t="n">
-        <v>555.8939</v>
-      </c>
-      <c r="G141" t="n">
-        <v>98056.90534884072</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>241</v>
-      </c>
-      <c r="C142" t="n">
-        <v>245.9</v>
-      </c>
-      <c r="D142" t="n">
-        <v>246</v>
-      </c>
-      <c r="E142" t="n">
-        <v>241</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1817.1061</v>
-      </c>
-      <c r="G142" t="n">
-        <v>99874.01144884073</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>244</v>
-      </c>
-      <c r="C143" t="n">
-        <v>245</v>
-      </c>
-      <c r="D143" t="n">
-        <v>245</v>
-      </c>
-      <c r="E143" t="n">
-        <v>244</v>
-      </c>
-      <c r="F143" t="n">
-        <v>21</v>
-      </c>
-      <c r="G143" t="n">
-        <v>99853.01144884073</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>241</v>
-      </c>
-      <c r="C144" t="n">
-        <v>243</v>
-      </c>
-      <c r="D144" t="n">
-        <v>243</v>
-      </c>
-      <c r="E144" t="n">
-        <v>240</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2503.5988</v>
-      </c>
-      <c r="G144" t="n">
-        <v>97349.41264884072</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>239.7</v>
-      </c>
-      <c r="C145" t="n">
-        <v>242</v>
-      </c>
-      <c r="D145" t="n">
-        <v>242</v>
-      </c>
-      <c r="E145" t="n">
-        <v>239.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4120.7285</v>
-      </c>
-      <c r="G145" t="n">
-        <v>93228.68414884072</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>241</v>
-      </c>
-      <c r="C146" t="n">
-        <v>242.9</v>
-      </c>
-      <c r="D146" t="n">
-        <v>242.9</v>
-      </c>
-      <c r="E146" t="n">
-        <v>241</v>
-      </c>
-      <c r="F146" t="n">
-        <v>33</v>
-      </c>
-      <c r="G146" t="n">
-        <v>93261.68414884072</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>242</v>
-      </c>
-      <c r="C147" t="n">
-        <v>242</v>
-      </c>
-      <c r="D147" t="n">
-        <v>242</v>
-      </c>
-      <c r="E147" t="n">
-        <v>242</v>
-      </c>
-      <c r="F147" t="n">
-        <v>20</v>
-      </c>
-      <c r="G147" t="n">
-        <v>93241.68414884072</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>242.9</v>
-      </c>
-      <c r="C148" t="n">
-        <v>242.9</v>
-      </c>
-      <c r="D148" t="n">
-        <v>242.9</v>
-      </c>
-      <c r="E148" t="n">
-        <v>242.9</v>
-      </c>
-      <c r="F148" t="n">
-        <v>134.929</v>
-      </c>
-      <c r="G148" t="n">
-        <v>93376.61314884073</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>239.9</v>
-      </c>
-      <c r="C149" t="n">
-        <v>242</v>
-      </c>
-      <c r="D149" t="n">
-        <v>242</v>
-      </c>
-      <c r="E149" t="n">
-        <v>238.3</v>
-      </c>
-      <c r="F149" t="n">
-        <v>4826.3911</v>
-      </c>
-      <c r="G149" t="n">
-        <v>88550.22204884073</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>240</v>
-      </c>
-      <c r="C150" t="n">
-        <v>240</v>
-      </c>
-      <c r="D150" t="n">
-        <v>240</v>
-      </c>
-      <c r="E150" t="n">
-        <v>240</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2</v>
-      </c>
-      <c r="G150" t="n">
-        <v>88548.22204884073</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>238.3</v>
-      </c>
-      <c r="C151" t="n">
-        <v>240</v>
-      </c>
-      <c r="D151" t="n">
-        <v>240</v>
-      </c>
-      <c r="E151" t="n">
-        <v>238.3</v>
-      </c>
-      <c r="F151" t="n">
-        <v>492.4577</v>
-      </c>
-      <c r="G151" t="n">
-        <v>88548.22204884073</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>238.3</v>
-      </c>
-      <c r="C152" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>238.3</v>
-      </c>
-      <c r="E152" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3614.2244</v>
-      </c>
-      <c r="G152" t="n">
-        <v>84933.99764884073</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="C153" t="n">
-        <v>240</v>
-      </c>
-      <c r="D153" t="n">
-        <v>240</v>
-      </c>
-      <c r="E153" t="n">
-        <v>237</v>
-      </c>
-      <c r="F153" t="n">
-        <v>3876.5832</v>
-      </c>
-      <c r="G153" t="n">
-        <v>88810.58084884072</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>240</v>
-      </c>
-      <c r="C154" t="n">
-        <v>240</v>
-      </c>
-      <c r="D154" t="n">
-        <v>240</v>
-      </c>
-      <c r="E154" t="n">
-        <v>240</v>
-      </c>
-      <c r="F154" t="n">
-        <v>24</v>
-      </c>
-      <c r="G154" t="n">
-        <v>88810.58084884072</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>240</v>
-      </c>
-      <c r="C155" t="n">
-        <v>241</v>
-      </c>
-      <c r="D155" t="n">
-        <v>241</v>
-      </c>
-      <c r="E155" t="n">
-        <v>240</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3815.3681</v>
-      </c>
-      <c r="G155" t="n">
-        <v>92625.94894884073</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>240</v>
-      </c>
-      <c r="C156" t="n">
-        <v>240</v>
-      </c>
-      <c r="D156" t="n">
-        <v>240</v>
-      </c>
-      <c r="E156" t="n">
-        <v>240</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.2711</v>
-      </c>
-      <c r="G156" t="n">
-        <v>92625.67784884073</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="C157" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="D157" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="E157" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3</v>
-      </c>
-      <c r="G157" t="n">
-        <v>92622.67784884073</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>240</v>
-      </c>
-      <c r="C158" t="n">
-        <v>240</v>
-      </c>
-      <c r="D158" t="n">
-        <v>240</v>
-      </c>
-      <c r="E158" t="n">
-        <v>240</v>
-      </c>
-      <c r="F158" t="n">
-        <v>2</v>
-      </c>
-      <c r="G158" t="n">
-        <v>92624.67784884073</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>240</v>
-      </c>
-      <c r="D159" t="n">
-        <v>240</v>
-      </c>
-      <c r="E159" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5864.2585</v>
-      </c>
-      <c r="G159" t="n">
-        <v>92624.67784884073</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="C160" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="D160" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="E160" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="F160" t="n">
-        <v>35.511</v>
-      </c>
-      <c r="G160" t="n">
-        <v>92589.16684884073</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>240</v>
-      </c>
-      <c r="D161" t="n">
-        <v>240</v>
-      </c>
-      <c r="E161" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="F161" t="n">
-        <v>743.2474</v>
-      </c>
-      <c r="G161" t="n">
-        <v>93332.41424884072</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>238</v>
-      </c>
-      <c r="C162" t="n">
-        <v>238</v>
-      </c>
-      <c r="D162" t="n">
-        <v>238</v>
-      </c>
-      <c r="E162" t="n">
-        <v>238</v>
-      </c>
-      <c r="F162" t="n">
-        <v>6</v>
-      </c>
-      <c r="G162" t="n">
-        <v>93326.41424884072</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>238</v>
-      </c>
-      <c r="C163" t="n">
-        <v>238</v>
-      </c>
-      <c r="D163" t="n">
-        <v>238</v>
-      </c>
-      <c r="E163" t="n">
-        <v>238</v>
-      </c>
-      <c r="F163" t="n">
-        <v>12</v>
-      </c>
-      <c r="G163" t="n">
-        <v>93326.41424884072</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>238</v>
-      </c>
-      <c r="C164" t="n">
-        <v>239</v>
-      </c>
-      <c r="D164" t="n">
-        <v>239</v>
-      </c>
-      <c r="E164" t="n">
-        <v>238</v>
-      </c>
-      <c r="F164" t="n">
-        <v>4</v>
-      </c>
-      <c r="G164" t="n">
-        <v>93330.41424884072</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>238</v>
-      </c>
-      <c r="C165" t="n">
-        <v>238</v>
-      </c>
-      <c r="D165" t="n">
-        <v>238</v>
-      </c>
-      <c r="E165" t="n">
-        <v>238</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" t="n">
-        <v>93329.41424884072</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>238</v>
-      </c>
-      <c r="C166" t="n">
-        <v>239</v>
-      </c>
-      <c r="D166" t="n">
-        <v>242</v>
-      </c>
-      <c r="E166" t="n">
-        <v>238</v>
-      </c>
-      <c r="F166" t="n">
-        <v>275.2759</v>
-      </c>
-      <c r="G166" t="n">
-        <v>93604.69014884072</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>240</v>
-      </c>
-      <c r="C167" t="n">
-        <v>242.9</v>
-      </c>
-      <c r="D167" t="n">
-        <v>242.9</v>
-      </c>
-      <c r="E167" t="n">
-        <v>240</v>
-      </c>
-      <c r="F167" t="n">
-        <v>180.4396</v>
-      </c>
-      <c r="G167" t="n">
-        <v>93785.12974884071</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>242</v>
-      </c>
-      <c r="C168" t="n">
-        <v>242</v>
-      </c>
-      <c r="D168" t="n">
-        <v>242</v>
-      </c>
-      <c r="E168" t="n">
-        <v>242</v>
-      </c>
-      <c r="F168" t="n">
-        <v>2</v>
-      </c>
-      <c r="G168" t="n">
-        <v>93783.12974884071</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>238</v>
-      </c>
-      <c r="C169" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="D169" t="n">
-        <v>238</v>
-      </c>
-      <c r="E169" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="F169" t="n">
-        <v>5305.1295</v>
-      </c>
-      <c r="G169" t="n">
-        <v>88478.00024884072</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>238</v>
-      </c>
-      <c r="C170" t="n">
-        <v>238</v>
-      </c>
-      <c r="D170" t="n">
-        <v>238</v>
-      </c>
-      <c r="E170" t="n">
-        <v>238</v>
-      </c>
-      <c r="F170" t="n">
-        <v>4</v>
-      </c>
-      <c r="G170" t="n">
-        <v>88482.00024884072</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>238</v>
-      </c>
-      <c r="C171" t="n">
-        <v>239</v>
-      </c>
-      <c r="D171" t="n">
-        <v>239</v>
-      </c>
-      <c r="E171" t="n">
-        <v>238</v>
-      </c>
-      <c r="F171" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="G171" t="n">
-        <v>88498.10024884072</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="D172" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="E172" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="F172" t="n">
-        <v>6094.7346</v>
-      </c>
-      <c r="G172" t="n">
-        <v>82403.36564884073</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>239</v>
-      </c>
-      <c r="C173" t="n">
-        <v>239</v>
-      </c>
-      <c r="D173" t="n">
-        <v>239</v>
-      </c>
-      <c r="E173" t="n">
-        <v>239</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2</v>
-      </c>
-      <c r="G173" t="n">
-        <v>82405.36564884073</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>239</v>
-      </c>
-      <c r="C174" t="n">
-        <v>239</v>
-      </c>
-      <c r="D174" t="n">
-        <v>239</v>
-      </c>
-      <c r="E174" t="n">
-        <v>239</v>
-      </c>
-      <c r="F174" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="G174" t="n">
-        <v>82405.36564884073</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>239</v>
-      </c>
-      <c r="C175" t="n">
-        <v>239</v>
-      </c>
-      <c r="D175" t="n">
-        <v>239</v>
-      </c>
-      <c r="E175" t="n">
-        <v>239</v>
-      </c>
-      <c r="F175" t="n">
-        <v>30</v>
-      </c>
-      <c r="G175" t="n">
-        <v>82405.36564884073</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>240</v>
-      </c>
-      <c r="C176" t="n">
-        <v>240</v>
-      </c>
-      <c r="D176" t="n">
-        <v>240</v>
-      </c>
-      <c r="E176" t="n">
-        <v>240</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2</v>
-      </c>
-      <c r="G176" t="n">
-        <v>82407.36564884073</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
+      <c r="N134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-19 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>241.3</v>
+        <v>235.8</v>
       </c>
       <c r="C2" t="n">
-        <v>241.9</v>
+        <v>237.8</v>
       </c>
       <c r="D2" t="n">
-        <v>241.9</v>
+        <v>237.8</v>
       </c>
       <c r="E2" t="n">
-        <v>241.3</v>
+        <v>235.8</v>
       </c>
       <c r="F2" t="n">
-        <v>2007</v>
+        <v>9.513999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>-13742.84732780083</v>
+        <v>-49017.39362780083</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>242</v>
+        <v>237.8</v>
       </c>
       <c r="C3" t="n">
-        <v>243</v>
+        <v>237.8</v>
       </c>
       <c r="D3" t="n">
-        <v>243</v>
+        <v>237.8</v>
       </c>
       <c r="E3" t="n">
-        <v>242</v>
+        <v>237.8</v>
       </c>
       <c r="F3" t="n">
-        <v>43668.996</v>
+        <v>1468.9807</v>
       </c>
       <c r="G3" t="n">
-        <v>29926.14867219917</v>
+        <v>-49017.39362780083</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>241.9</v>
+        <v>237.8</v>
       </c>
       <c r="K3" t="n">
-        <v>241.9</v>
+        <v>237.8</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -514,36 +514,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>243</v>
+        <v>236.8</v>
       </c>
       <c r="C4" t="n">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D4" t="n">
-        <v>243</v>
+        <v>236.8</v>
       </c>
       <c r="E4" t="n">
-        <v>242.7</v>
+        <v>236</v>
       </c>
       <c r="F4" t="n">
-        <v>10323.2002</v>
+        <v>3998.1031</v>
       </c>
       <c r="G4" t="n">
-        <v>29926.14867219917</v>
+        <v>-53015.49672780083</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>237.8</v>
+      </c>
       <c r="K4" t="n">
-        <v>241.9</v>
+        <v>237.8</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -556,36 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>243</v>
+        <v>235.9</v>
       </c>
       <c r="C5" t="n">
-        <v>243</v>
+        <v>235.9</v>
       </c>
       <c r="D5" t="n">
-        <v>243</v>
+        <v>235.9</v>
       </c>
       <c r="E5" t="n">
-        <v>243</v>
+        <v>235.9</v>
       </c>
       <c r="F5" t="n">
-        <v>12800.7842</v>
+        <v>148.0096</v>
       </c>
       <c r="G5" t="n">
-        <v>29926.14867219917</v>
+        <v>-53163.50632780083</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>236</v>
+      </c>
       <c r="K5" t="n">
-        <v>241.9</v>
+        <v>237.8</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -598,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>243</v>
+        <v>236.1</v>
       </c>
       <c r="C6" t="n">
-        <v>243</v>
+        <v>236.1</v>
       </c>
       <c r="D6" t="n">
-        <v>243</v>
+        <v>236.1</v>
       </c>
       <c r="E6" t="n">
-        <v>243</v>
+        <v>236.1</v>
       </c>
       <c r="F6" t="n">
-        <v>564.1583000000001</v>
+        <v>110.9459</v>
       </c>
       <c r="G6" t="n">
-        <v>29926.14867219917</v>
+        <v>-53052.56042780083</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>235.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -634,22 +646,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>243</v>
+        <v>236.8</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4</v>
+        <v>236.8</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4</v>
+        <v>236.8</v>
       </c>
       <c r="E7" t="n">
-        <v>243</v>
+        <v>236.8</v>
       </c>
       <c r="F7" t="n">
-        <v>34767.6846</v>
+        <v>1201.3368</v>
       </c>
       <c r="G7" t="n">
-        <v>64693.83327219917</v>
+        <v>-51851.22362780083</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -658,12 +670,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>243</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>236.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -676,22 +690,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>246.4</v>
+        <v>236.8</v>
       </c>
       <c r="C8" t="n">
-        <v>249.8</v>
+        <v>236.8</v>
       </c>
       <c r="D8" t="n">
-        <v>249.8</v>
+        <v>236.8</v>
       </c>
       <c r="E8" t="n">
-        <v>246</v>
+        <v>236.8</v>
       </c>
       <c r="F8" t="n">
-        <v>3924.1801</v>
+        <v>3152.0904</v>
       </c>
       <c r="G8" t="n">
-        <v>68618.01337219917</v>
+        <v>-51851.22362780083</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -700,9 +714,11 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>246.4</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>236.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -718,31 +734,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>249.7</v>
+        <v>236.9</v>
       </c>
       <c r="C9" t="n">
-        <v>249.8</v>
+        <v>236.9</v>
       </c>
       <c r="D9" t="n">
-        <v>249.8</v>
+        <v>236.9</v>
       </c>
       <c r="E9" t="n">
-        <v>249.7</v>
+        <v>236.9</v>
       </c>
       <c r="F9" t="n">
-        <v>3787</v>
+        <v>1257.2</v>
       </c>
       <c r="G9" t="n">
-        <v>68618.01337219917</v>
+        <v>-50594.02362780084</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -758,31 +778,35 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>248.8</v>
+        <v>236.9</v>
       </c>
       <c r="C10" t="n">
-        <v>249.8</v>
+        <v>236.9</v>
       </c>
       <c r="D10" t="n">
-        <v>249.8</v>
+        <v>236.9</v>
       </c>
       <c r="E10" t="n">
-        <v>248.8</v>
+        <v>236.9</v>
       </c>
       <c r="F10" t="n">
-        <v>4094.826</v>
+        <v>942.9</v>
       </c>
       <c r="G10" t="n">
-        <v>68618.01337219917</v>
+        <v>-50594.02362780084</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>236.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -798,31 +822,35 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>249.8</v>
+        <v>237.9</v>
       </c>
       <c r="C11" t="n">
-        <v>249.8</v>
+        <v>238</v>
       </c>
       <c r="D11" t="n">
-        <v>249.8</v>
+        <v>238</v>
       </c>
       <c r="E11" t="n">
-        <v>248.7</v>
+        <v>237.9</v>
       </c>
       <c r="F11" t="n">
-        <v>3977.2142</v>
+        <v>7240.8238</v>
       </c>
       <c r="G11" t="n">
-        <v>68618.01337219917</v>
+        <v>-43353.19982780084</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>236.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -838,31 +866,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>249.7</v>
+        <v>238</v>
       </c>
       <c r="C12" t="n">
-        <v>249.7</v>
+        <v>238</v>
       </c>
       <c r="D12" t="n">
-        <v>249.7</v>
+        <v>238</v>
       </c>
       <c r="E12" t="n">
-        <v>249.7</v>
+        <v>238</v>
       </c>
       <c r="F12" t="n">
-        <v>5726.627</v>
+        <v>1066.8927</v>
       </c>
       <c r="G12" t="n">
-        <v>62891.38637219917</v>
+        <v>-43353.19982780084</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>238</v>
+      </c>
+      <c r="K12" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -878,31 +910,35 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C13" t="n">
-        <v>248.7</v>
+        <v>239</v>
       </c>
       <c r="D13" t="n">
-        <v>248.7</v>
+        <v>239</v>
       </c>
       <c r="E13" t="n">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F13" t="n">
-        <v>6912.5958</v>
+        <v>2.0921</v>
       </c>
       <c r="G13" t="n">
-        <v>55978.79057219917</v>
+        <v>-43351.10772780084</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>238</v>
+      </c>
+      <c r="K13" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -918,31 +954,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>248.7</v>
+        <v>239</v>
       </c>
       <c r="C14" t="n">
-        <v>254.3</v>
+        <v>239</v>
       </c>
       <c r="D14" t="n">
-        <v>254.3</v>
+        <v>239</v>
       </c>
       <c r="E14" t="n">
-        <v>248.7</v>
+        <v>239</v>
       </c>
       <c r="F14" t="n">
-        <v>22572.0424</v>
+        <v>498.1079</v>
       </c>
       <c r="G14" t="n">
-        <v>78550.83297219916</v>
+        <v>-43351.10772780084</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>239</v>
+      </c>
+      <c r="K14" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -958,31 +998,35 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>254.3</v>
+        <v>239</v>
       </c>
       <c r="C15" t="n">
-        <v>254.3</v>
+        <v>238</v>
       </c>
       <c r="D15" t="n">
-        <v>254.3</v>
+        <v>239</v>
       </c>
       <c r="E15" t="n">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="F15" t="n">
-        <v>621</v>
+        <v>5892.5978</v>
       </c>
       <c r="G15" t="n">
-        <v>78550.83297219916</v>
+        <v>-49243.70552780083</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>239</v>
+      </c>
+      <c r="K15" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -998,22 +1042,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>254.3</v>
+        <v>238</v>
       </c>
       <c r="C16" t="n">
-        <v>258.7</v>
+        <v>238</v>
       </c>
       <c r="D16" t="n">
-        <v>258.7</v>
+        <v>238</v>
       </c>
       <c r="E16" t="n">
-        <v>254.3</v>
+        <v>238</v>
       </c>
       <c r="F16" t="n">
-        <v>20748.5795</v>
+        <v>7542.6238</v>
       </c>
       <c r="G16" t="n">
-        <v>99299.41247219915</v>
+        <v>-49243.70552780083</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1022,7 +1066,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1038,22 +1084,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>258.9</v>
+        <v>237.1</v>
       </c>
       <c r="C17" t="n">
-        <v>259.8</v>
+        <v>237.1</v>
       </c>
       <c r="D17" t="n">
-        <v>259.8</v>
+        <v>237.1</v>
       </c>
       <c r="E17" t="n">
-        <v>258.9</v>
+        <v>237.1</v>
       </c>
       <c r="F17" t="n">
-        <v>15182.7355</v>
+        <v>657.3</v>
       </c>
       <c r="G17" t="n">
-        <v>114482.1479721991</v>
+        <v>-49901.00552780084</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1062,7 +1108,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1078,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>259.8</v>
+        <v>236.2</v>
       </c>
       <c r="C18" t="n">
-        <v>261</v>
+        <v>236.1</v>
       </c>
       <c r="D18" t="n">
-        <v>261</v>
+        <v>236.2</v>
       </c>
       <c r="E18" t="n">
-        <v>259.8</v>
+        <v>236.1</v>
       </c>
       <c r="F18" t="n">
-        <v>14066.996</v>
+        <v>8199.5756</v>
       </c>
       <c r="G18" t="n">
-        <v>128549.1439721991</v>
+        <v>-58100.58112780083</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1102,7 +1150,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1118,22 +1168,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>260.1</v>
+        <v>238</v>
       </c>
       <c r="C19" t="n">
-        <v>260.1</v>
+        <v>238</v>
       </c>
       <c r="D19" t="n">
-        <v>260.1</v>
+        <v>238</v>
       </c>
       <c r="E19" t="n">
-        <v>260.1</v>
+        <v>238</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="G19" t="n">
-        <v>128547.1439721991</v>
+        <v>-58098.03112780083</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1142,7 +1192,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1158,22 +1210,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>254</v>
+        <v>236.9</v>
       </c>
       <c r="C20" t="n">
-        <v>259</v>
+        <v>236.1</v>
       </c>
       <c r="D20" t="n">
-        <v>260</v>
+        <v>236.9</v>
       </c>
       <c r="E20" t="n">
-        <v>251</v>
+        <v>236.1</v>
       </c>
       <c r="F20" t="n">
-        <v>5353.0442</v>
+        <v>1663.7172</v>
       </c>
       <c r="G20" t="n">
-        <v>123194.0997721991</v>
+        <v>-59761.74832780083</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1182,7 +1234,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1198,22 +1252,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>253</v>
+        <v>236.1</v>
       </c>
       <c r="C21" t="n">
-        <v>253</v>
+        <v>236.1</v>
       </c>
       <c r="D21" t="n">
-        <v>254</v>
+        <v>236.1</v>
       </c>
       <c r="E21" t="n">
-        <v>250</v>
+        <v>236.1</v>
       </c>
       <c r="F21" t="n">
-        <v>10491.8994</v>
+        <v>2015.2074</v>
       </c>
       <c r="G21" t="n">
-        <v>112702.2003721991</v>
+        <v>-59761.74832780083</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1222,7 +1276,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1238,22 +1294,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>251</v>
+        <v>236.2</v>
       </c>
       <c r="C22" t="n">
-        <v>254</v>
+        <v>235.9</v>
       </c>
       <c r="D22" t="n">
-        <v>254</v>
+        <v>236.2</v>
       </c>
       <c r="E22" t="n">
-        <v>246</v>
+        <v>235.9</v>
       </c>
       <c r="F22" t="n">
-        <v>14217.9644</v>
+        <v>6551.1842</v>
       </c>
       <c r="G22" t="n">
-        <v>126920.1647721991</v>
+        <v>-66312.93252780083</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1262,7 +1318,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1278,22 +1336,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C23" t="n">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D23" t="n">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E23" t="n">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F23" t="n">
-        <v>16.3983</v>
+        <v>3701.9015</v>
       </c>
       <c r="G23" t="n">
-        <v>126903.7664721991</v>
+        <v>-62611.03102780083</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1302,7 +1360,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1318,22 +1378,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C24" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D24" t="n">
-        <v>253.9</v>
+        <v>236</v>
       </c>
       <c r="E24" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="F24" t="n">
-        <v>484.7</v>
+        <v>1964.093</v>
       </c>
       <c r="G24" t="n">
-        <v>126419.0664721991</v>
+        <v>-64575.12402780083</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1342,7 +1402,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1358,22 +1420,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C25" t="n">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D25" t="n">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="E25" t="n">
-        <v>246.1</v>
+        <v>237</v>
       </c>
       <c r="F25" t="n">
-        <v>11297.1575</v>
+        <v>868.9</v>
       </c>
       <c r="G25" t="n">
-        <v>137716.2239721991</v>
+        <v>-63706.22402780083</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1382,7 +1444,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1398,22 +1462,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C26" t="n">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="D26" t="n">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="E26" t="n">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="F26" t="n">
-        <v>12191.61467664151</v>
+        <v>2381.9468</v>
       </c>
       <c r="G26" t="n">
-        <v>149907.8386488406</v>
+        <v>-63706.22402780083</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1422,7 +1486,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1438,22 +1504,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="C27" t="n">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="D27" t="n">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="E27" t="n">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>81.7398</v>
       </c>
       <c r="G27" t="n">
-        <v>149885.8386488406</v>
+        <v>-63624.48422780083</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1462,7 +1528,9 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1478,22 +1546,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C28" t="n">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="D28" t="n">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E28" t="n">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F28" t="n">
-        <v>1502.1698</v>
+        <v>1757.4543</v>
       </c>
       <c r="G28" t="n">
-        <v>148383.6688488406</v>
+        <v>-63624.48422780083</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1502,7 +1570,9 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1518,22 +1588,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>253.9</v>
+        <v>238</v>
       </c>
       <c r="C29" t="n">
-        <v>253.9</v>
+        <v>238</v>
       </c>
       <c r="D29" t="n">
-        <v>253.9</v>
+        <v>238</v>
       </c>
       <c r="E29" t="n">
-        <v>253.9</v>
+        <v>238</v>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>2000</v>
       </c>
       <c r="G29" t="n">
-        <v>148361.6688488406</v>
+        <v>-63624.48422780083</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1542,7 +1612,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1558,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>252</v>
+        <v>238.2</v>
       </c>
       <c r="C30" t="n">
-        <v>255.9</v>
+        <v>238.2</v>
       </c>
       <c r="D30" t="n">
-        <v>257</v>
+        <v>238.2</v>
       </c>
       <c r="E30" t="n">
-        <v>252</v>
+        <v>238.2</v>
       </c>
       <c r="F30" t="n">
-        <v>3901.2</v>
+        <v>174.4472</v>
       </c>
       <c r="G30" t="n">
-        <v>152262.8688488406</v>
+        <v>-63450.03702780083</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1582,7 +1654,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1598,22 +1672,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>254.9</v>
+        <v>238</v>
       </c>
       <c r="C31" t="n">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="D31" t="n">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="E31" t="n">
-        <v>254.9</v>
+        <v>238</v>
       </c>
       <c r="F31" t="n">
-        <v>150.0407</v>
+        <v>1287.797</v>
       </c>
       <c r="G31" t="n">
-        <v>152412.9095488407</v>
+        <v>-64737.83402780083</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1622,7 +1696,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1638,22 +1714,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>255.9</v>
+        <v>238.2</v>
       </c>
       <c r="C32" t="n">
-        <v>256</v>
+        <v>238.2</v>
       </c>
       <c r="D32" t="n">
-        <v>256</v>
+        <v>238.2</v>
       </c>
       <c r="E32" t="n">
-        <v>255</v>
+        <v>238.2</v>
       </c>
       <c r="F32" t="n">
-        <v>28</v>
+        <v>1012.8299</v>
       </c>
       <c r="G32" t="n">
-        <v>152412.9095488407</v>
+        <v>-63725.00412780083</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1662,7 +1738,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1678,22 +1756,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>253.1</v>
+        <v>238.4</v>
       </c>
       <c r="C33" t="n">
-        <v>264.9</v>
+        <v>238.8</v>
       </c>
       <c r="D33" t="n">
-        <v>264.9</v>
+        <v>238.8</v>
       </c>
       <c r="E33" t="n">
-        <v>249</v>
+        <v>238.4</v>
       </c>
       <c r="F33" t="n">
-        <v>13397.7295</v>
+        <v>9539</v>
       </c>
       <c r="G33" t="n">
-        <v>165810.6390488406</v>
+        <v>-54186.00412780083</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1702,7 +1780,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1718,22 +1798,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>264</v>
+        <v>238.8</v>
       </c>
       <c r="C34" t="n">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="D34" t="n">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="E34" t="n">
-        <v>264</v>
+        <v>238.8</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="G34" t="n">
-        <v>165805.6390488406</v>
+        <v>-53686.00412780083</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1742,7 +1822,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1758,37 +1840,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C35" t="n">
-        <v>263.9</v>
+        <v>240</v>
       </c>
       <c r="D35" t="n">
-        <v>263.9</v>
+        <v>240</v>
       </c>
       <c r="E35" t="n">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F35" t="n">
-        <v>1778.9</v>
+        <v>15928.1241</v>
       </c>
       <c r="G35" t="n">
-        <v>164026.7390488407</v>
+        <v>-53686.00412780083</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>237.8</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
       <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1796,32 +1882,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C36" t="n">
-        <v>245.9</v>
+        <v>238</v>
       </c>
       <c r="D36" t="n">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E36" t="n">
-        <v>245.9</v>
+        <v>238</v>
       </c>
       <c r="F36" t="n">
-        <v>13966.8673</v>
+        <v>6.277</v>
       </c>
       <c r="G36" t="n">
-        <v>150059.8717488406</v>
+        <v>-53692.28112780083</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1832,32 +1924,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>251</v>
+        <v>240.5</v>
       </c>
       <c r="C37" t="n">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D37" t="n">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E37" t="n">
-        <v>251</v>
+        <v>240.5</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="G37" t="n">
-        <v>150061.8717488406</v>
+        <v>-52692.28112780083</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1966,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C38" t="n">
-        <v>245.8</v>
+        <v>239</v>
       </c>
       <c r="D38" t="n">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E38" t="n">
-        <v>245.8</v>
+        <v>239</v>
       </c>
       <c r="F38" t="n">
-        <v>12020.254</v>
+        <v>3363</v>
       </c>
       <c r="G38" t="n">
-        <v>138041.6177488407</v>
+        <v>-56055.28112780083</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1892,8 +1990,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1904,22 +2008,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>245</v>
+        <v>238.3</v>
       </c>
       <c r="C39" t="n">
-        <v>251.9</v>
+        <v>238.3</v>
       </c>
       <c r="D39" t="n">
-        <v>251.9</v>
+        <v>238.3</v>
       </c>
       <c r="E39" t="n">
-        <v>237.5</v>
+        <v>238.3</v>
       </c>
       <c r="F39" t="n">
-        <v>12312.6147</v>
+        <v>278.8625</v>
       </c>
       <c r="G39" t="n">
-        <v>150354.2324488407</v>
+        <v>-56334.14362780083</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1928,8 +2032,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1940,22 +2050,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>245.9</v>
+        <v>239.3</v>
       </c>
       <c r="C40" t="n">
-        <v>245.9</v>
+        <v>239.3</v>
       </c>
       <c r="D40" t="n">
-        <v>245.9</v>
+        <v>239.3</v>
       </c>
       <c r="E40" t="n">
-        <v>245.9</v>
+        <v>239.3</v>
       </c>
       <c r="F40" t="n">
-        <v>1997.2</v>
+        <v>1681.5</v>
       </c>
       <c r="G40" t="n">
-        <v>148357.0324488406</v>
+        <v>-54652.64362780083</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1964,8 +2074,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1976,22 +2092,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>246</v>
+        <v>239.3</v>
       </c>
       <c r="C41" t="n">
-        <v>246</v>
+        <v>239.3</v>
       </c>
       <c r="D41" t="n">
-        <v>246</v>
+        <v>239.3</v>
       </c>
       <c r="E41" t="n">
-        <v>246</v>
+        <v>239.3</v>
       </c>
       <c r="F41" t="n">
-        <v>18</v>
+        <v>324.9543</v>
       </c>
       <c r="G41" t="n">
-        <v>148375.0324488406</v>
+        <v>-54652.64362780083</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2000,8 +2116,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2012,22 +2134,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>246</v>
+        <v>239.3</v>
       </c>
       <c r="C42" t="n">
-        <v>260.8</v>
+        <v>240</v>
       </c>
       <c r="D42" t="n">
-        <v>260.9</v>
+        <v>240</v>
       </c>
       <c r="E42" t="n">
-        <v>246</v>
+        <v>239.3</v>
       </c>
       <c r="F42" t="n">
-        <v>729</v>
+        <v>936.2457000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>149104.0324488406</v>
+        <v>-53716.39792780083</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2036,8 +2158,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2048,22 +2176,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C43" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D43" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E43" t="n">
-        <v>242.2</v>
+        <v>240</v>
       </c>
       <c r="F43" t="n">
-        <v>2787.6352</v>
+        <v>3879.3887</v>
       </c>
       <c r="G43" t="n">
-        <v>146316.3972488407</v>
+        <v>-53716.39792780083</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2072,8 +2200,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2084,22 +2218,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C44" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D44" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E44" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>1967.7824</v>
       </c>
       <c r="G44" t="n">
-        <v>146266.3972488407</v>
+        <v>-53716.39792780083</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2108,8 +2242,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2120,22 +2260,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>245.6</v>
+        <v>240</v>
       </c>
       <c r="C45" t="n">
         <v>240</v>
       </c>
       <c r="D45" t="n">
-        <v>245.6</v>
+        <v>240</v>
       </c>
       <c r="E45" t="n">
         <v>240</v>
       </c>
       <c r="F45" t="n">
-        <v>3858.7843</v>
+        <v>368.9</v>
       </c>
       <c r="G45" t="n">
-        <v>142407.6129488407</v>
+        <v>-53716.39792780083</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2144,8 +2284,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2156,22 +2302,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>245.5</v>
+        <v>239</v>
       </c>
       <c r="C46" t="n">
-        <v>245.5</v>
+        <v>238</v>
       </c>
       <c r="D46" t="n">
-        <v>245.5</v>
+        <v>239</v>
       </c>
       <c r="E46" t="n">
-        <v>245.5</v>
+        <v>238</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1687.9593</v>
       </c>
       <c r="G46" t="n">
-        <v>142409.6129488407</v>
+        <v>-55404.35722780084</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2180,8 +2326,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2192,22 +2344,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C47" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D47" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E47" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F47" t="n">
-        <v>1199.4851</v>
+        <v>15930.4832</v>
       </c>
       <c r="G47" t="n">
-        <v>141210.1278488407</v>
+        <v>-55404.35722780084</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2216,8 +2368,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2228,22 +2386,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C48" t="n">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D48" t="n">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E48" t="n">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1735.569</v>
       </c>
       <c r="G48" t="n">
-        <v>141212.1278488407</v>
+        <v>-53668.78822780083</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2252,8 +2410,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2264,22 +2428,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>245.5</v>
+        <v>238</v>
       </c>
       <c r="C49" t="n">
-        <v>245.5</v>
+        <v>238</v>
       </c>
       <c r="D49" t="n">
-        <v>245.5</v>
+        <v>238</v>
       </c>
       <c r="E49" t="n">
-        <v>245.5</v>
+        <v>238</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G49" t="n">
-        <v>141214.1278488407</v>
+        <v>-53688.78822780083</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2288,8 +2452,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2300,22 +2470,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>245.9</v>
+        <v>238</v>
       </c>
       <c r="C50" t="n">
-        <v>245.9</v>
+        <v>238</v>
       </c>
       <c r="D50" t="n">
-        <v>245.9</v>
+        <v>238</v>
       </c>
       <c r="E50" t="n">
-        <v>245.9</v>
+        <v>238</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>893.2301</v>
       </c>
       <c r="G50" t="n">
-        <v>141219.1278488407</v>
+        <v>-53688.78822780083</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2324,8 +2494,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2336,22 +2512,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>245.9</v>
+        <v>238</v>
       </c>
       <c r="C51" t="n">
-        <v>245.9</v>
+        <v>238</v>
       </c>
       <c r="D51" t="n">
-        <v>245.9</v>
+        <v>238</v>
       </c>
       <c r="E51" t="n">
-        <v>245.9</v>
+        <v>238</v>
       </c>
       <c r="F51" t="n">
-        <v>12</v>
+        <v>484.1117</v>
       </c>
       <c r="G51" t="n">
-        <v>141219.1278488407</v>
+        <v>-53688.78822780083</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2360,8 +2536,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2372,22 +2554,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>240.5</v>
+        <v>238</v>
       </c>
       <c r="C52" t="n">
-        <v>238.3</v>
+        <v>238</v>
       </c>
       <c r="D52" t="n">
-        <v>240.5</v>
+        <v>238</v>
       </c>
       <c r="E52" t="n">
-        <v>238.3</v>
+        <v>238</v>
       </c>
       <c r="F52" t="n">
-        <v>9170.357</v>
+        <v>1650.1442</v>
       </c>
       <c r="G52" t="n">
-        <v>132048.7708488407</v>
+        <v>-53688.78822780083</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2396,8 +2578,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2408,32 +2596,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>243.8</v>
+        <v>239</v>
       </c>
       <c r="C53" t="n">
-        <v>243.8</v>
+        <v>239</v>
       </c>
       <c r="D53" t="n">
-        <v>243.8</v>
+        <v>239</v>
       </c>
       <c r="E53" t="n">
-        <v>243.8</v>
+        <v>239</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G53" t="n">
-        <v>132050.7708488407</v>
+        <v>-53668.78822780083</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>238</v>
+      </c>
+      <c r="K53" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2444,22 +2640,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="C54" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="D54" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="E54" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="F54" t="n">
-        <v>3.8698</v>
+        <v>4088.9883</v>
       </c>
       <c r="G54" t="n">
-        <v>132046.9010488407</v>
+        <v>-49579.79992780084</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2468,8 +2664,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2480,22 +2682,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>243.8</v>
+        <v>239</v>
       </c>
       <c r="C55" t="n">
-        <v>243.8</v>
+        <v>239</v>
       </c>
       <c r="D55" t="n">
-        <v>243.8</v>
+        <v>239</v>
       </c>
       <c r="E55" t="n">
-        <v>243.8</v>
+        <v>239</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>405.5622</v>
       </c>
       <c r="G55" t="n">
-        <v>132048.9010488407</v>
+        <v>-49985.36212780084</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2504,8 +2706,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2516,32 +2724,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>240.5</v>
+        <v>239</v>
       </c>
       <c r="C56" t="n">
-        <v>240.5</v>
+        <v>239</v>
       </c>
       <c r="D56" t="n">
-        <v>240.5</v>
+        <v>239</v>
       </c>
       <c r="E56" t="n">
-        <v>240.5</v>
+        <v>239</v>
       </c>
       <c r="F56" t="n">
-        <v>6619.0557</v>
+        <v>1148.2</v>
       </c>
       <c r="G56" t="n">
-        <v>125429.8453488407</v>
+        <v>-49985.36212780084</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>239</v>
+      </c>
+      <c r="K56" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2552,22 +2768,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="C57" t="n">
-        <v>240.5</v>
+        <v>241</v>
       </c>
       <c r="D57" t="n">
-        <v>240.5</v>
+        <v>241</v>
       </c>
       <c r="E57" t="n">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="F57" t="n">
-        <v>128.0484</v>
+        <v>344.5</v>
       </c>
       <c r="G57" t="n">
-        <v>125429.8453488407</v>
+        <v>-49640.86212780084</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2576,8 +2792,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2588,22 +2810,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>241.9</v>
+        <v>241</v>
       </c>
       <c r="C58" t="n">
-        <v>259.8</v>
+        <v>241</v>
       </c>
       <c r="D58" t="n">
-        <v>259.8</v>
+        <v>241</v>
       </c>
       <c r="E58" t="n">
-        <v>241.9</v>
+        <v>241</v>
       </c>
       <c r="F58" t="n">
-        <v>4766.4799</v>
+        <v>30</v>
       </c>
       <c r="G58" t="n">
-        <v>130196.3252488407</v>
+        <v>-49640.86212780084</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2612,8 +2834,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2624,22 +2852,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="C59" t="n">
-        <v>241</v>
+        <v>242.3</v>
       </c>
       <c r="D59" t="n">
-        <v>241</v>
+        <v>242.3</v>
       </c>
       <c r="E59" t="n">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="F59" t="n">
-        <v>310.6277</v>
+        <v>63.55</v>
       </c>
       <c r="G59" t="n">
-        <v>129885.6975488407</v>
+        <v>-49577.31212780083</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2648,8 +2876,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2660,22 +2894,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>255</v>
+        <v>242.4</v>
       </c>
       <c r="C60" t="n">
-        <v>255</v>
+        <v>242.4</v>
       </c>
       <c r="D60" t="n">
-        <v>255</v>
+        <v>242.4</v>
       </c>
       <c r="E60" t="n">
-        <v>251.7</v>
+        <v>242.4</v>
       </c>
       <c r="F60" t="n">
-        <v>6660.05</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>136545.7475488407</v>
+        <v>-49574.31212780083</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2684,8 +2918,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2696,22 +2936,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>253.8</v>
+        <v>242.5</v>
       </c>
       <c r="C61" t="n">
-        <v>253.8</v>
+        <v>242.6</v>
       </c>
       <c r="D61" t="n">
-        <v>254</v>
+        <v>242.6</v>
       </c>
       <c r="E61" t="n">
-        <v>253.8</v>
+        <v>242.5</v>
       </c>
       <c r="F61" t="n">
-        <v>1392.6573</v>
+        <v>46</v>
       </c>
       <c r="G61" t="n">
-        <v>135153.0902488407</v>
+        <v>-49528.31212780083</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2720,8 +2960,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2732,22 +2978,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C62" t="n">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D62" t="n">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E62" t="n">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F62" t="n">
-        <v>62.6016</v>
+        <v>20</v>
       </c>
       <c r="G62" t="n">
-        <v>135090.4886488407</v>
+        <v>-49548.31212780083</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2756,8 +3002,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2768,22 +3020,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>246.9</v>
+        <v>241</v>
       </c>
       <c r="C63" t="n">
-        <v>246.9</v>
+        <v>241</v>
       </c>
       <c r="D63" t="n">
-        <v>246.9</v>
+        <v>241</v>
       </c>
       <c r="E63" t="n">
-        <v>246.9</v>
+        <v>241</v>
       </c>
       <c r="F63" t="n">
-        <v>2098.1563</v>
+        <v>30</v>
       </c>
       <c r="G63" t="n">
-        <v>132992.3323488407</v>
+        <v>-49548.31212780083</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2792,8 +3044,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2804,22 +3062,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>247</v>
+        <v>241.7</v>
       </c>
       <c r="C64" t="n">
-        <v>248.9</v>
+        <v>242</v>
       </c>
       <c r="D64" t="n">
-        <v>248.9</v>
+        <v>242</v>
       </c>
       <c r="E64" t="n">
-        <v>245</v>
+        <v>241.7</v>
       </c>
       <c r="F64" t="n">
-        <v>2769.2535</v>
+        <v>34528.7658</v>
       </c>
       <c r="G64" t="n">
-        <v>135761.5858488407</v>
+        <v>-15019.54632780083</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2828,8 +3086,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2840,22 +3104,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>243.5</v>
+        <v>240</v>
       </c>
       <c r="C65" t="n">
-        <v>243.5</v>
+        <v>238.5</v>
       </c>
       <c r="D65" t="n">
-        <v>243.5</v>
+        <v>240</v>
       </c>
       <c r="E65" t="n">
-        <v>243.5</v>
+        <v>238</v>
       </c>
       <c r="F65" t="n">
-        <v>3784.9</v>
+        <v>3540.601</v>
       </c>
       <c r="G65" t="n">
-        <v>131976.6858488407</v>
+        <v>-18560.14732780083</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2864,8 +3128,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2876,22 +3146,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>243</v>
+        <v>238.5</v>
       </c>
       <c r="C66" t="n">
-        <v>242.5</v>
+        <v>238.5</v>
       </c>
       <c r="D66" t="n">
-        <v>243</v>
+        <v>238.5</v>
       </c>
       <c r="E66" t="n">
-        <v>242.5</v>
+        <v>238.5</v>
       </c>
       <c r="F66" t="n">
-        <v>2226.4</v>
+        <v>1600</v>
       </c>
       <c r="G66" t="n">
-        <v>129750.2858488407</v>
+        <v>-18560.14732780083</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2900,8 +3170,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2912,22 +3188,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>242.5</v>
+        <v>238.5</v>
       </c>
       <c r="C67" t="n">
-        <v>246</v>
+        <v>238.5</v>
       </c>
       <c r="D67" t="n">
-        <v>246</v>
+        <v>238.5</v>
       </c>
       <c r="E67" t="n">
-        <v>242.5</v>
+        <v>238.5</v>
       </c>
       <c r="F67" t="n">
-        <v>404.1407</v>
+        <v>857.4233</v>
       </c>
       <c r="G67" t="n">
-        <v>130154.4265488407</v>
+        <v>-18560.14732780083</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2936,8 +3212,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2948,22 +3230,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>246</v>
+        <v>238.5</v>
       </c>
       <c r="C68" t="n">
-        <v>242.5</v>
+        <v>238.5</v>
       </c>
       <c r="D68" t="n">
-        <v>246</v>
+        <v>238.5</v>
       </c>
       <c r="E68" t="n">
-        <v>242.5</v>
+        <v>238.5</v>
       </c>
       <c r="F68" t="n">
-        <v>15004</v>
+        <v>1054.2</v>
       </c>
       <c r="G68" t="n">
-        <v>115150.4265488407</v>
+        <v>-18560.14732780083</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2972,8 +3254,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2984,22 +3272,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>245</v>
+        <v>238.5</v>
       </c>
       <c r="C69" t="n">
-        <v>245</v>
+        <v>238.5</v>
       </c>
       <c r="D69" t="n">
-        <v>245</v>
+        <v>238.5</v>
       </c>
       <c r="E69" t="n">
-        <v>245</v>
+        <v>238.5</v>
       </c>
       <c r="F69" t="n">
-        <v>22</v>
+        <v>776.7584000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>115172.4265488407</v>
+        <v>-18560.14732780083</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3008,8 +3296,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3020,22 +3314,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C70" t="n">
-        <v>246.5</v>
+        <v>237</v>
       </c>
       <c r="D70" t="n">
-        <v>246.5</v>
+        <v>238</v>
       </c>
       <c r="E70" t="n">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F70" t="n">
-        <v>2104.4812</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="n">
-        <v>117276.9077488407</v>
+        <v>-21560.14732780083</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3044,8 +3338,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3056,22 +3356,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>246.5</v>
+        <v>237</v>
       </c>
       <c r="C71" t="n">
-        <v>246.4</v>
+        <v>237</v>
       </c>
       <c r="D71" t="n">
-        <v>246.5</v>
+        <v>237</v>
       </c>
       <c r="E71" t="n">
-        <v>246.4</v>
+        <v>237</v>
       </c>
       <c r="F71" t="n">
-        <v>1944.8321</v>
+        <v>141.4093</v>
       </c>
       <c r="G71" t="n">
-        <v>115332.0756488407</v>
+        <v>-21560.14732780083</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3080,8 +3380,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3092,22 +3398,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>245</v>
+        <v>239.4</v>
       </c>
       <c r="C72" t="n">
-        <v>245.4</v>
+        <v>240.9</v>
       </c>
       <c r="D72" t="n">
-        <v>245.4</v>
+        <v>241.9</v>
       </c>
       <c r="E72" t="n">
-        <v>245</v>
+        <v>239.4</v>
       </c>
       <c r="F72" t="n">
-        <v>31</v>
+        <v>5810.3</v>
       </c>
       <c r="G72" t="n">
-        <v>115301.0756488407</v>
+        <v>-15749.84732780083</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3116,8 +3422,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3440,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>245.4</v>
+        <v>241.3</v>
       </c>
       <c r="C73" t="n">
-        <v>245.4</v>
+        <v>241.9</v>
       </c>
       <c r="D73" t="n">
-        <v>245.4</v>
+        <v>241.9</v>
       </c>
       <c r="E73" t="n">
-        <v>245.4</v>
+        <v>241.3</v>
       </c>
       <c r="F73" t="n">
-        <v>2.5</v>
+        <v>2007</v>
       </c>
       <c r="G73" t="n">
-        <v>115301.0756488407</v>
+        <v>-13742.84732780083</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3152,8 +3464,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3164,22 +3482,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>245.4</v>
+        <v>242</v>
       </c>
       <c r="C74" t="n">
-        <v>245.4</v>
+        <v>243</v>
       </c>
       <c r="D74" t="n">
-        <v>245.4</v>
+        <v>243</v>
       </c>
       <c r="E74" t="n">
-        <v>245.4</v>
+        <v>242</v>
       </c>
       <c r="F74" t="n">
-        <v>1591.6734</v>
+        <v>43668.996</v>
       </c>
       <c r="G74" t="n">
-        <v>115301.0756488407</v>
+        <v>29926.14867219917</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3188,8 +3506,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3209,13 +3533,13 @@
         <v>243</v>
       </c>
       <c r="E75" t="n">
-        <v>243</v>
+        <v>242.7</v>
       </c>
       <c r="F75" t="n">
-        <v>2000</v>
+        <v>10323.2002</v>
       </c>
       <c r="G75" t="n">
-        <v>113301.0756488407</v>
+        <v>29926.14867219917</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3224,8 +3548,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3236,22 +3566,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>245.4</v>
+        <v>243</v>
       </c>
       <c r="C76" t="n">
-        <v>247.5</v>
+        <v>243</v>
       </c>
       <c r="D76" t="n">
-        <v>247.5</v>
+        <v>243</v>
       </c>
       <c r="E76" t="n">
-        <v>245.4</v>
+        <v>243</v>
       </c>
       <c r="F76" t="n">
-        <v>122</v>
+        <v>12800.7842</v>
       </c>
       <c r="G76" t="n">
-        <v>113423.0756488407</v>
+        <v>29926.14867219917</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3260,8 +3590,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3284,10 +3620,10 @@
         <v>243</v>
       </c>
       <c r="F77" t="n">
-        <v>1437.814</v>
+        <v>564.1583000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>111985.2616488407</v>
+        <v>29926.14867219917</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3296,8 +3632,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3308,22 +3650,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>246.5</v>
+        <v>243</v>
       </c>
       <c r="C78" t="n">
-        <v>246.5</v>
+        <v>246.4</v>
       </c>
       <c r="D78" t="n">
-        <v>246.5</v>
+        <v>246.4</v>
       </c>
       <c r="E78" t="n">
-        <v>246.5</v>
+        <v>243</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>34767.6846</v>
       </c>
       <c r="G78" t="n">
-        <v>111987.2616488407</v>
+        <v>64693.83327219917</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3332,8 +3674,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3344,22 +3692,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>243</v>
+        <v>246.4</v>
       </c>
       <c r="C79" t="n">
-        <v>241</v>
+        <v>249.8</v>
       </c>
       <c r="D79" t="n">
-        <v>243</v>
+        <v>249.8</v>
       </c>
       <c r="E79" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>3924.1801</v>
       </c>
       <c r="G79" t="n">
-        <v>109987.2616488407</v>
+        <v>68618.01337219917</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3368,8 +3716,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3380,22 +3734,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>242</v>
+        <v>249.7</v>
       </c>
       <c r="C80" t="n">
-        <v>239</v>
+        <v>249.8</v>
       </c>
       <c r="D80" t="n">
-        <v>242</v>
+        <v>249.8</v>
       </c>
       <c r="E80" t="n">
-        <v>239</v>
+        <v>249.7</v>
       </c>
       <c r="F80" t="n">
-        <v>3580.9214</v>
+        <v>3787</v>
       </c>
       <c r="G80" t="n">
-        <v>106406.3402488407</v>
+        <v>68618.01337219917</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3404,8 +3758,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3416,22 +3776,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>239</v>
+        <v>248.8</v>
       </c>
       <c r="C81" t="n">
-        <v>245.4</v>
+        <v>249.8</v>
       </c>
       <c r="D81" t="n">
-        <v>245.4</v>
+        <v>249.8</v>
       </c>
       <c r="E81" t="n">
-        <v>239</v>
+        <v>248.8</v>
       </c>
       <c r="F81" t="n">
-        <v>4262.3215</v>
+        <v>4094.826</v>
       </c>
       <c r="G81" t="n">
-        <v>110668.6617488407</v>
+        <v>68618.01337219917</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3440,8 +3800,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3452,22 +3818,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>240</v>
+        <v>249.8</v>
       </c>
       <c r="C82" t="n">
-        <v>240</v>
+        <v>249.8</v>
       </c>
       <c r="D82" t="n">
-        <v>243.8</v>
+        <v>249.8</v>
       </c>
       <c r="E82" t="n">
-        <v>240</v>
+        <v>248.7</v>
       </c>
       <c r="F82" t="n">
-        <v>2077</v>
+        <v>3977.2142</v>
       </c>
       <c r="G82" t="n">
-        <v>108591.6617488407</v>
+        <v>68618.01337219917</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3476,8 +3842,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3488,22 +3860,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>243.9</v>
+        <v>249.7</v>
       </c>
       <c r="C83" t="n">
-        <v>243.9</v>
+        <v>249.7</v>
       </c>
       <c r="D83" t="n">
-        <v>243.9</v>
+        <v>249.7</v>
       </c>
       <c r="E83" t="n">
-        <v>243.9</v>
+        <v>249.7</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>5726.627</v>
       </c>
       <c r="G83" t="n">
-        <v>108594.6617488407</v>
+        <v>62891.38637219917</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3512,8 +3884,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3524,22 +3902,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C84" t="n">
-        <v>244</v>
+        <v>248.7</v>
       </c>
       <c r="D84" t="n">
-        <v>244</v>
+        <v>248.7</v>
       </c>
       <c r="E84" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>6912.5958</v>
       </c>
       <c r="G84" t="n">
-        <v>108596.6617488407</v>
+        <v>55978.79057219917</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3548,8 +3926,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3560,22 +3944,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>240.5</v>
+        <v>248.7</v>
       </c>
       <c r="C85" t="n">
-        <v>240</v>
+        <v>254.3</v>
       </c>
       <c r="D85" t="n">
-        <v>240.5</v>
+        <v>254.3</v>
       </c>
       <c r="E85" t="n">
-        <v>240</v>
+        <v>248.7</v>
       </c>
       <c r="F85" t="n">
-        <v>150</v>
+        <v>22572.0424</v>
       </c>
       <c r="G85" t="n">
-        <v>108446.6617488407</v>
+        <v>78550.83297219916</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3584,8 +3968,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3596,22 +3986,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>240.5</v>
+        <v>254.3</v>
       </c>
       <c r="C86" t="n">
-        <v>240.5</v>
+        <v>254.3</v>
       </c>
       <c r="D86" t="n">
-        <v>240.5</v>
+        <v>254.3</v>
       </c>
       <c r="E86" t="n">
-        <v>240.5</v>
+        <v>254</v>
       </c>
       <c r="F86" t="n">
-        <v>80</v>
+        <v>621</v>
       </c>
       <c r="G86" t="n">
-        <v>108526.6617488407</v>
+        <v>78550.83297219916</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3620,8 +4010,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3632,22 +4028,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>240.5</v>
+        <v>254.3</v>
       </c>
       <c r="C87" t="n">
-        <v>240</v>
+        <v>258.7</v>
       </c>
       <c r="D87" t="n">
-        <v>240.5</v>
+        <v>258.7</v>
       </c>
       <c r="E87" t="n">
-        <v>240</v>
+        <v>254.3</v>
       </c>
       <c r="F87" t="n">
-        <v>70.295</v>
+        <v>20748.5795</v>
       </c>
       <c r="G87" t="n">
-        <v>108456.3667488407</v>
+        <v>99299.41247219915</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3656,8 +4052,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3668,22 +4070,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>242</v>
+        <v>258.9</v>
       </c>
       <c r="C88" t="n">
-        <v>245</v>
+        <v>259.8</v>
       </c>
       <c r="D88" t="n">
-        <v>245</v>
+        <v>259.8</v>
       </c>
       <c r="E88" t="n">
-        <v>242</v>
+        <v>258.9</v>
       </c>
       <c r="F88" t="n">
-        <v>225.146</v>
+        <v>15182.7355</v>
       </c>
       <c r="G88" t="n">
-        <v>108681.5127488407</v>
+        <v>114482.1479721991</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3692,8 +4094,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3704,22 +4112,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>243.9</v>
+        <v>259.8</v>
       </c>
       <c r="C89" t="n">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="D89" t="n">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E89" t="n">
-        <v>240.5</v>
+        <v>259.8</v>
       </c>
       <c r="F89" t="n">
-        <v>8882.9295</v>
+        <v>14066.996</v>
       </c>
       <c r="G89" t="n">
-        <v>99798.58324884072</v>
+        <v>128549.1439721991</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3728,8 +4136,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3740,22 +4154,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>245</v>
+        <v>260.1</v>
       </c>
       <c r="C90" t="n">
-        <v>240</v>
+        <v>260.1</v>
       </c>
       <c r="D90" t="n">
-        <v>245</v>
+        <v>260.1</v>
       </c>
       <c r="E90" t="n">
-        <v>240</v>
+        <v>260.1</v>
       </c>
       <c r="F90" t="n">
-        <v>111.2345</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>99687.34874884071</v>
+        <v>128547.1439721991</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3764,8 +4178,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3776,22 +4196,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C91" t="n">
-        <v>253.7</v>
+        <v>259</v>
       </c>
       <c r="D91" t="n">
-        <v>253.7</v>
+        <v>260</v>
       </c>
       <c r="E91" t="n">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F91" t="n">
-        <v>2829.4677</v>
+        <v>5353.0442</v>
       </c>
       <c r="G91" t="n">
-        <v>102516.8164488407</v>
+        <v>123194.0997721991</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3800,8 +4220,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3812,22 +4238,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>240.5</v>
+        <v>253</v>
       </c>
       <c r="C92" t="n">
-        <v>240.5</v>
+        <v>253</v>
       </c>
       <c r="D92" t="n">
-        <v>240.5</v>
+        <v>254</v>
       </c>
       <c r="E92" t="n">
-        <v>240.5</v>
+        <v>250</v>
       </c>
       <c r="F92" t="n">
-        <v>1500</v>
+        <v>10491.8994</v>
       </c>
       <c r="G92" t="n">
-        <v>101016.8164488407</v>
+        <v>112702.2003721991</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3836,8 +4262,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3848,22 +4280,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>240.5</v>
+        <v>251</v>
       </c>
       <c r="C93" t="n">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D93" t="n">
-        <v>240.5</v>
+        <v>254</v>
       </c>
       <c r="E93" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>14217.9644</v>
       </c>
       <c r="G93" t="n">
-        <v>100516.8164488407</v>
+        <v>126920.1647721991</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3872,8 +4304,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3884,22 +4322,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C94" t="n">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D94" t="n">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E94" t="n">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>16.3983</v>
       </c>
       <c r="G94" t="n">
-        <v>100519.8164488407</v>
+        <v>126903.7664721991</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3908,8 +4346,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3920,22 +4364,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>241.5</v>
+        <v>252</v>
       </c>
       <c r="C95" t="n">
-        <v>253.8</v>
+        <v>250</v>
       </c>
       <c r="D95" t="n">
-        <v>253.8</v>
+        <v>253.9</v>
       </c>
       <c r="E95" t="n">
-        <v>241.5</v>
+        <v>250</v>
       </c>
       <c r="F95" t="n">
-        <v>815.6909000000001</v>
+        <v>484.7</v>
       </c>
       <c r="G95" t="n">
-        <v>101335.5073488407</v>
+        <v>126419.0664721991</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3944,8 +4388,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3956,22 +4406,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>240.1</v>
+        <v>248</v>
       </c>
       <c r="C96" t="n">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D96" t="n">
-        <v>240.1</v>
+        <v>259</v>
       </c>
       <c r="E96" t="n">
-        <v>240</v>
+        <v>246.1</v>
       </c>
       <c r="F96" t="n">
-        <v>7023</v>
+        <v>11297.1575</v>
       </c>
       <c r="G96" t="n">
-        <v>94312.50734884071</v>
+        <v>137716.2239721991</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3980,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3992,22 +4448,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C97" t="n">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="D97" t="n">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="E97" t="n">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F97" t="n">
-        <v>3310.1058</v>
+        <v>12191.61467664151</v>
       </c>
       <c r="G97" t="n">
-        <v>97622.61314884071</v>
+        <v>149907.8386488406</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4016,8 +4472,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4028,22 +4490,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>243.9</v>
+        <v>264</v>
       </c>
       <c r="C98" t="n">
-        <v>245.9</v>
+        <v>264</v>
       </c>
       <c r="D98" t="n">
-        <v>245.9</v>
+        <v>264</v>
       </c>
       <c r="E98" t="n">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="F98" t="n">
-        <v>990.1861</v>
+        <v>22</v>
       </c>
       <c r="G98" t="n">
-        <v>98612.79924884072</v>
+        <v>149885.8386488406</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4052,8 +4514,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4064,58 +4532,66 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C99" t="n">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D99" t="n">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E99" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F99" t="n">
-        <v>555.8939</v>
+        <v>1502.1698</v>
       </c>
       <c r="G99" t="n">
-        <v>98056.90534884072</v>
+        <v>148383.6688488406</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>1.067329688814129</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.008481764206955</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>241</v>
+        <v>253.9</v>
       </c>
       <c r="C100" t="n">
-        <v>245.9</v>
+        <v>253.9</v>
       </c>
       <c r="D100" t="n">
-        <v>246</v>
+        <v>253.9</v>
       </c>
       <c r="E100" t="n">
-        <v>241</v>
+        <v>253.9</v>
       </c>
       <c r="F100" t="n">
-        <v>1817.1061</v>
+        <v>22</v>
       </c>
       <c r="G100" t="n">
-        <v>99874.01144884073</v>
+        <v>148361.6688488406</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4136,22 +4612,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C101" t="n">
-        <v>245</v>
+        <v>255.9</v>
       </c>
       <c r="D101" t="n">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E101" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F101" t="n">
-        <v>21</v>
+        <v>3901.2</v>
       </c>
       <c r="G101" t="n">
-        <v>99853.01144884073</v>
+        <v>152262.8688488406</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4172,22 +4648,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>241</v>
+        <v>254.9</v>
       </c>
       <c r="C102" t="n">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D102" t="n">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E102" t="n">
-        <v>240</v>
+        <v>254.9</v>
       </c>
       <c r="F102" t="n">
-        <v>2503.5988</v>
+        <v>150.0407</v>
       </c>
       <c r="G102" t="n">
-        <v>97349.41264884072</v>
+        <v>152412.9095488407</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4208,22 +4684,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>239.7</v>
+        <v>255.9</v>
       </c>
       <c r="C103" t="n">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D103" t="n">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="E103" t="n">
-        <v>239.5</v>
+        <v>255</v>
       </c>
       <c r="F103" t="n">
-        <v>4120.7285</v>
+        <v>28</v>
       </c>
       <c r="G103" t="n">
-        <v>93228.68414884072</v>
+        <v>152412.9095488407</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4244,22 +4720,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>241</v>
+        <v>253.1</v>
       </c>
       <c r="C104" t="n">
-        <v>242.9</v>
+        <v>264.9</v>
       </c>
       <c r="D104" t="n">
-        <v>242.9</v>
+        <v>264.9</v>
       </c>
       <c r="E104" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F104" t="n">
-        <v>33</v>
+        <v>13397.7295</v>
       </c>
       <c r="G104" t="n">
-        <v>93261.68414884072</v>
+        <v>165810.6390488406</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4280,22 +4756,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="C105" t="n">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D105" t="n">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E105" t="n">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>93241.68414884072</v>
+        <v>165805.6390488406</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4316,28 +4792,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>242.9</v>
+        <v>254</v>
       </c>
       <c r="C106" t="n">
-        <v>242.9</v>
+        <v>263.9</v>
       </c>
       <c r="D106" t="n">
-        <v>242.9</v>
+        <v>263.9</v>
       </c>
       <c r="E106" t="n">
-        <v>242.9</v>
+        <v>254</v>
       </c>
       <c r="F106" t="n">
-        <v>134.929</v>
+        <v>1778.9</v>
       </c>
       <c r="G106" t="n">
-        <v>93376.61314884073</v>
+        <v>164026.7390488407</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4352,28 +4828,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>239.9</v>
+        <v>253</v>
       </c>
       <c r="C107" t="n">
-        <v>242</v>
+        <v>245.9</v>
       </c>
       <c r="D107" t="n">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E107" t="n">
-        <v>238.3</v>
+        <v>245.9</v>
       </c>
       <c r="F107" t="n">
-        <v>4826.3911</v>
+        <v>13966.8673</v>
       </c>
       <c r="G107" t="n">
-        <v>88550.22204884073</v>
+        <v>150059.8717488406</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4388,22 +4864,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C108" t="n">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D108" t="n">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E108" t="n">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F108" t="n">
         <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>88548.22204884073</v>
+        <v>150061.8717488406</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4424,22 +4900,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>238.3</v>
+        <v>247</v>
       </c>
       <c r="C109" t="n">
-        <v>240</v>
+        <v>245.8</v>
       </c>
       <c r="D109" t="n">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E109" t="n">
-        <v>238.3</v>
+        <v>245.8</v>
       </c>
       <c r="F109" t="n">
-        <v>492.4577</v>
+        <v>12020.254</v>
       </c>
       <c r="G109" t="n">
-        <v>88548.22204884073</v>
+        <v>138041.6177488407</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4460,22 +4936,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>238.3</v>
+        <v>245</v>
       </c>
       <c r="C110" t="n">
-        <v>237.1</v>
+        <v>251.9</v>
       </c>
       <c r="D110" t="n">
-        <v>238.3</v>
+        <v>251.9</v>
       </c>
       <c r="E110" t="n">
-        <v>237.1</v>
+        <v>237.5</v>
       </c>
       <c r="F110" t="n">
-        <v>3614.2244</v>
+        <v>12312.6147</v>
       </c>
       <c r="G110" t="n">
-        <v>84933.99764884073</v>
+        <v>150354.2324488407</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4496,22 +4972,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>237.1</v>
+        <v>245.9</v>
       </c>
       <c r="C111" t="n">
-        <v>240</v>
+        <v>245.9</v>
       </c>
       <c r="D111" t="n">
-        <v>240</v>
+        <v>245.9</v>
       </c>
       <c r="E111" t="n">
-        <v>237</v>
+        <v>245.9</v>
       </c>
       <c r="F111" t="n">
-        <v>3876.5832</v>
+        <v>1997.2</v>
       </c>
       <c r="G111" t="n">
-        <v>88810.58084884072</v>
+        <v>148357.0324488406</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4532,22 +5008,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C112" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D112" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E112" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F112" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G112" t="n">
-        <v>88810.58084884072</v>
+        <v>148375.0324488406</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4568,22 +5044,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C113" t="n">
-        <v>241</v>
+        <v>260.8</v>
       </c>
       <c r="D113" t="n">
-        <v>241</v>
+        <v>260.9</v>
       </c>
       <c r="E113" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F113" t="n">
-        <v>3815.3681</v>
+        <v>729</v>
       </c>
       <c r="G113" t="n">
-        <v>92625.94894884073</v>
+        <v>149104.0324488406</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4604,22 +5080,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C114" t="n">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D114" t="n">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E114" t="n">
-        <v>240</v>
+        <v>242.2</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2711</v>
+        <v>2787.6352</v>
       </c>
       <c r="G114" t="n">
-        <v>92625.67784884073</v>
+        <v>146316.3972488407</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4640,22 +5116,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>237.5</v>
+        <v>246</v>
       </c>
       <c r="C115" t="n">
-        <v>237.5</v>
+        <v>246</v>
       </c>
       <c r="D115" t="n">
-        <v>237.5</v>
+        <v>246</v>
       </c>
       <c r="E115" t="n">
-        <v>237.5</v>
+        <v>246</v>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G115" t="n">
-        <v>92622.67784884073</v>
+        <v>146266.3972488407</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4676,22 +5152,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>240</v>
+        <v>245.6</v>
       </c>
       <c r="C116" t="n">
         <v>240</v>
       </c>
       <c r="D116" t="n">
-        <v>240</v>
+        <v>245.6</v>
       </c>
       <c r="E116" t="n">
         <v>240</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>3858.7843</v>
       </c>
       <c r="G116" t="n">
-        <v>92624.67784884073</v>
+        <v>142407.6129488407</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4712,22 +5188,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>237.5</v>
+        <v>245.5</v>
       </c>
       <c r="C117" t="n">
-        <v>240</v>
+        <v>245.5</v>
       </c>
       <c r="D117" t="n">
-        <v>240</v>
+        <v>245.5</v>
       </c>
       <c r="E117" t="n">
-        <v>237.1</v>
+        <v>245.5</v>
       </c>
       <c r="F117" t="n">
-        <v>5864.2585</v>
+        <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>92624.67784884073</v>
+        <v>142409.6129488407</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4748,22 +5224,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>237.2</v>
+        <v>240</v>
       </c>
       <c r="C118" t="n">
-        <v>237.2</v>
+        <v>240</v>
       </c>
       <c r="D118" t="n">
-        <v>237.2</v>
+        <v>240</v>
       </c>
       <c r="E118" t="n">
-        <v>237.2</v>
+        <v>240</v>
       </c>
       <c r="F118" t="n">
-        <v>35.511</v>
+        <v>1199.4851</v>
       </c>
       <c r="G118" t="n">
-        <v>92589.16684884073</v>
+        <v>141210.1278488407</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4784,22 +5260,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>237.1</v>
+        <v>244</v>
       </c>
       <c r="C119" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D119" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E119" t="n">
-        <v>237.1</v>
+        <v>244</v>
       </c>
       <c r="F119" t="n">
-        <v>743.2474</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>93332.41424884072</v>
+        <v>141212.1278488407</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4820,22 +5296,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>238</v>
+        <v>245.5</v>
       </c>
       <c r="C120" t="n">
-        <v>238</v>
+        <v>245.5</v>
       </c>
       <c r="D120" t="n">
-        <v>238</v>
+        <v>245.5</v>
       </c>
       <c r="E120" t="n">
-        <v>238</v>
+        <v>245.5</v>
       </c>
       <c r="F120" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>93326.41424884072</v>
+        <v>141214.1278488407</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4856,22 +5332,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>238</v>
+        <v>245.9</v>
       </c>
       <c r="C121" t="n">
-        <v>238</v>
+        <v>245.9</v>
       </c>
       <c r="D121" t="n">
-        <v>238</v>
+        <v>245.9</v>
       </c>
       <c r="E121" t="n">
-        <v>238</v>
+        <v>245.9</v>
       </c>
       <c r="F121" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G121" t="n">
-        <v>93326.41424884072</v>
+        <v>141219.1278488407</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4892,22 +5368,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>238</v>
+        <v>245.9</v>
       </c>
       <c r="C122" t="n">
-        <v>239</v>
+        <v>245.9</v>
       </c>
       <c r="D122" t="n">
-        <v>239</v>
+        <v>245.9</v>
       </c>
       <c r="E122" t="n">
-        <v>238</v>
+        <v>245.9</v>
       </c>
       <c r="F122" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G122" t="n">
-        <v>93330.41424884072</v>
+        <v>141219.1278488407</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4928,22 +5404,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="C123" t="n">
-        <v>238</v>
+        <v>238.3</v>
       </c>
       <c r="D123" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="E123" t="n">
-        <v>238</v>
+        <v>238.3</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>9170.357</v>
       </c>
       <c r="G123" t="n">
-        <v>93329.41424884072</v>
+        <v>132048.7708488407</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4964,22 +5440,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>238</v>
+        <v>243.8</v>
       </c>
       <c r="C124" t="n">
-        <v>239</v>
+        <v>243.8</v>
       </c>
       <c r="D124" t="n">
-        <v>242</v>
+        <v>243.8</v>
       </c>
       <c r="E124" t="n">
-        <v>238</v>
+        <v>243.8</v>
       </c>
       <c r="F124" t="n">
-        <v>275.2759</v>
+        <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>93604.69014884072</v>
+        <v>132050.7708488407</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5000,22 +5476,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="C125" t="n">
-        <v>242.9</v>
+        <v>240.5</v>
       </c>
       <c r="D125" t="n">
-        <v>242.9</v>
+        <v>240.5</v>
       </c>
       <c r="E125" t="n">
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="F125" t="n">
-        <v>180.4396</v>
+        <v>3.8698</v>
       </c>
       <c r="G125" t="n">
-        <v>93785.12974884071</v>
+        <v>132046.9010488407</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5036,22 +5512,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>242</v>
+        <v>243.8</v>
       </c>
       <c r="C126" t="n">
-        <v>242</v>
+        <v>243.8</v>
       </c>
       <c r="D126" t="n">
-        <v>242</v>
+        <v>243.8</v>
       </c>
       <c r="E126" t="n">
-        <v>242</v>
+        <v>243.8</v>
       </c>
       <c r="F126" t="n">
         <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>93783.12974884071</v>
+        <v>132048.9010488407</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5072,22 +5548,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="C127" t="n">
-        <v>237.1</v>
+        <v>240.5</v>
       </c>
       <c r="D127" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="E127" t="n">
-        <v>237.1</v>
+        <v>240.5</v>
       </c>
       <c r="F127" t="n">
-        <v>5305.1295</v>
+        <v>6619.0557</v>
       </c>
       <c r="G127" t="n">
-        <v>88478.00024884072</v>
+        <v>125429.8453488407</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5108,22 +5584,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="C128" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="D128" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="E128" t="n">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="F128" t="n">
-        <v>4</v>
+        <v>128.0484</v>
       </c>
       <c r="G128" t="n">
-        <v>88482.00024884072</v>
+        <v>125429.8453488407</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5144,22 +5620,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>238</v>
+        <v>241.9</v>
       </c>
       <c r="C129" t="n">
-        <v>239</v>
+        <v>259.8</v>
       </c>
       <c r="D129" t="n">
-        <v>239</v>
+        <v>259.8</v>
       </c>
       <c r="E129" t="n">
-        <v>238</v>
+        <v>241.9</v>
       </c>
       <c r="F129" t="n">
-        <v>16.1</v>
+        <v>4766.4799</v>
       </c>
       <c r="G129" t="n">
-        <v>88498.10024884072</v>
+        <v>130196.3252488407</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5180,22 +5656,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>237.1</v>
+        <v>240.5</v>
       </c>
       <c r="C130" t="n">
-        <v>237.1</v>
+        <v>241</v>
       </c>
       <c r="D130" t="n">
-        <v>237.1</v>
+        <v>241</v>
       </c>
       <c r="E130" t="n">
-        <v>237.1</v>
+        <v>240.5</v>
       </c>
       <c r="F130" t="n">
-        <v>6094.7346</v>
+        <v>310.6277</v>
       </c>
       <c r="G130" t="n">
-        <v>82403.36564884073</v>
+        <v>129885.6975488407</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5216,22 +5692,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C131" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D131" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E131" t="n">
-        <v>239</v>
+        <v>251.7</v>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>6660.05</v>
       </c>
       <c r="G131" t="n">
-        <v>82405.36564884073</v>
+        <v>136545.7475488407</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5252,22 +5728,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>239</v>
+        <v>253.8</v>
       </c>
       <c r="C132" t="n">
-        <v>239</v>
+        <v>253.8</v>
       </c>
       <c r="D132" t="n">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="E132" t="n">
-        <v>239</v>
+        <v>253.8</v>
       </c>
       <c r="F132" t="n">
-        <v>17.9</v>
+        <v>1392.6573</v>
       </c>
       <c r="G132" t="n">
-        <v>82405.36564884073</v>
+        <v>135153.0902488407</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5288,22 +5764,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C133" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D133" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="E133" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>62.6016</v>
       </c>
       <c r="G133" t="n">
-        <v>82405.36564884073</v>
+        <v>135090.4886488407</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5324,22 +5800,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>240</v>
+        <v>246.9</v>
       </c>
       <c r="C134" t="n">
-        <v>240</v>
+        <v>246.9</v>
       </c>
       <c r="D134" t="n">
-        <v>240</v>
+        <v>246.9</v>
       </c>
       <c r="E134" t="n">
-        <v>240</v>
+        <v>246.9</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>2098.1563</v>
       </c>
       <c r="G134" t="n">
-        <v>82407.36564884073</v>
+        <v>132992.3323488407</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5355,6 +5831,2562 @@
       </c>
       <c r="N134" t="inlineStr"/>
     </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>247</v>
+      </c>
+      <c r="C135" t="n">
+        <v>248.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>248.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>245</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2769.2535</v>
+      </c>
+      <c r="G135" t="n">
+        <v>135761.5858488407</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3784.9</v>
+      </c>
+      <c r="G136" t="n">
+        <v>131976.6858488407</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>243</v>
+      </c>
+      <c r="C137" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>243</v>
+      </c>
+      <c r="E137" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2226.4</v>
+      </c>
+      <c r="G137" t="n">
+        <v>129750.2858488407</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>246</v>
+      </c>
+      <c r="D138" t="n">
+        <v>246</v>
+      </c>
+      <c r="E138" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>404.1407</v>
+      </c>
+      <c r="G138" t="n">
+        <v>130154.4265488407</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>246</v>
+      </c>
+      <c r="C139" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>246</v>
+      </c>
+      <c r="E139" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>15004</v>
+      </c>
+      <c r="G139" t="n">
+        <v>115150.4265488407</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>245</v>
+      </c>
+      <c r="C140" t="n">
+        <v>245</v>
+      </c>
+      <c r="D140" t="n">
+        <v>245</v>
+      </c>
+      <c r="E140" t="n">
+        <v>245</v>
+      </c>
+      <c r="F140" t="n">
+        <v>22</v>
+      </c>
+      <c r="G140" t="n">
+        <v>115172.4265488407</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>243</v>
+      </c>
+      <c r="C141" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>243</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2104.4812</v>
+      </c>
+      <c r="G141" t="n">
+        <v>117276.9077488407</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1944.8321</v>
+      </c>
+      <c r="G142" t="n">
+        <v>115332.0756488407</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>245</v>
+      </c>
+      <c r="C143" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>245</v>
+      </c>
+      <c r="F143" t="n">
+        <v>31</v>
+      </c>
+      <c r="G143" t="n">
+        <v>115301.0756488407</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G144" t="n">
+        <v>115301.0756488407</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1591.6734</v>
+      </c>
+      <c r="G145" t="n">
+        <v>115301.0756488407</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>243</v>
+      </c>
+      <c r="C146" t="n">
+        <v>243</v>
+      </c>
+      <c r="D146" t="n">
+        <v>243</v>
+      </c>
+      <c r="E146" t="n">
+        <v>243</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>113301.0756488407</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>122</v>
+      </c>
+      <c r="G147" t="n">
+        <v>113423.0756488407</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>243</v>
+      </c>
+      <c r="C148" t="n">
+        <v>243</v>
+      </c>
+      <c r="D148" t="n">
+        <v>243</v>
+      </c>
+      <c r="E148" t="n">
+        <v>243</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1437.814</v>
+      </c>
+      <c r="G148" t="n">
+        <v>111985.2616488407</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2</v>
+      </c>
+      <c r="G149" t="n">
+        <v>111987.2616488407</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>243</v>
+      </c>
+      <c r="C150" t="n">
+        <v>241</v>
+      </c>
+      <c r="D150" t="n">
+        <v>243</v>
+      </c>
+      <c r="E150" t="n">
+        <v>241</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>109987.2616488407</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>242</v>
+      </c>
+      <c r="C151" t="n">
+        <v>239</v>
+      </c>
+      <c r="D151" t="n">
+        <v>242</v>
+      </c>
+      <c r="E151" t="n">
+        <v>239</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3580.9214</v>
+      </c>
+      <c r="G151" t="n">
+        <v>106406.3402488407</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>239</v>
+      </c>
+      <c r="C152" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>239</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4262.3215</v>
+      </c>
+      <c r="G152" t="n">
+        <v>110668.6617488407</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>240</v>
+      </c>
+      <c r="C153" t="n">
+        <v>240</v>
+      </c>
+      <c r="D153" t="n">
+        <v>243.8</v>
+      </c>
+      <c r="E153" t="n">
+        <v>240</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2077</v>
+      </c>
+      <c r="G153" t="n">
+        <v>108591.6617488407</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="D154" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" t="n">
+        <v>108594.6617488407</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>244</v>
+      </c>
+      <c r="C155" t="n">
+        <v>244</v>
+      </c>
+      <c r="D155" t="n">
+        <v>244</v>
+      </c>
+      <c r="E155" t="n">
+        <v>244</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" t="n">
+        <v>108596.6617488407</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>240</v>
+      </c>
+      <c r="D156" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>240</v>
+      </c>
+      <c r="F156" t="n">
+        <v>150</v>
+      </c>
+      <c r="G156" t="n">
+        <v>108446.6617488407</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>80</v>
+      </c>
+      <c r="G157" t="n">
+        <v>108526.6617488407</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>240</v>
+      </c>
+      <c r="D158" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>240</v>
+      </c>
+      <c r="F158" t="n">
+        <v>70.295</v>
+      </c>
+      <c r="G158" t="n">
+        <v>108456.3667488407</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>242</v>
+      </c>
+      <c r="C159" t="n">
+        <v>245</v>
+      </c>
+      <c r="D159" t="n">
+        <v>245</v>
+      </c>
+      <c r="E159" t="n">
+        <v>242</v>
+      </c>
+      <c r="F159" t="n">
+        <v>225.146</v>
+      </c>
+      <c r="G159" t="n">
+        <v>108681.5127488407</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>241</v>
+      </c>
+      <c r="D160" t="n">
+        <v>245</v>
+      </c>
+      <c r="E160" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>8882.9295</v>
+      </c>
+      <c r="G160" t="n">
+        <v>99798.58324884072</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>245</v>
+      </c>
+      <c r="C161" t="n">
+        <v>240</v>
+      </c>
+      <c r="D161" t="n">
+        <v>245</v>
+      </c>
+      <c r="E161" t="n">
+        <v>240</v>
+      </c>
+      <c r="F161" t="n">
+        <v>111.2345</v>
+      </c>
+      <c r="G161" t="n">
+        <v>99687.34874884071</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>240</v>
+      </c>
+      <c r="C162" t="n">
+        <v>253.7</v>
+      </c>
+      <c r="D162" t="n">
+        <v>253.7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>240</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2829.4677</v>
+      </c>
+      <c r="G162" t="n">
+        <v>102516.8164488407</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G163" t="n">
+        <v>101016.8164488407</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>240</v>
+      </c>
+      <c r="D164" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>240</v>
+      </c>
+      <c r="F164" t="n">
+        <v>500</v>
+      </c>
+      <c r="G164" t="n">
+        <v>100516.8164488407</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>243</v>
+      </c>
+      <c r="C165" t="n">
+        <v>243</v>
+      </c>
+      <c r="D165" t="n">
+        <v>243</v>
+      </c>
+      <c r="E165" t="n">
+        <v>243</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3</v>
+      </c>
+      <c r="G165" t="n">
+        <v>100519.8164488407</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>253.8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>253.8</v>
+      </c>
+      <c r="E166" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>815.6909000000001</v>
+      </c>
+      <c r="G166" t="n">
+        <v>101335.5073488407</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>240.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>240</v>
+      </c>
+      <c r="D167" t="n">
+        <v>240.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>240</v>
+      </c>
+      <c r="F167" t="n">
+        <v>7023</v>
+      </c>
+      <c r="G167" t="n">
+        <v>94312.50734884071</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>240</v>
+      </c>
+      <c r="C168" t="n">
+        <v>241</v>
+      </c>
+      <c r="D168" t="n">
+        <v>244</v>
+      </c>
+      <c r="E168" t="n">
+        <v>240</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3310.1058</v>
+      </c>
+      <c r="G168" t="n">
+        <v>97622.61314884071</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="C169" t="n">
+        <v>245.9</v>
+      </c>
+      <c r="D169" t="n">
+        <v>245.9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>242</v>
+      </c>
+      <c r="F169" t="n">
+        <v>990.1861</v>
+      </c>
+      <c r="G169" t="n">
+        <v>98612.79924884072</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>246</v>
+      </c>
+      <c r="C170" t="n">
+        <v>241</v>
+      </c>
+      <c r="D170" t="n">
+        <v>246</v>
+      </c>
+      <c r="E170" t="n">
+        <v>241</v>
+      </c>
+      <c r="F170" t="n">
+        <v>555.8939</v>
+      </c>
+      <c r="G170" t="n">
+        <v>98056.90534884072</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>241</v>
+      </c>
+      <c r="C171" t="n">
+        <v>245.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>246</v>
+      </c>
+      <c r="E171" t="n">
+        <v>241</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1817.1061</v>
+      </c>
+      <c r="G171" t="n">
+        <v>99874.01144884073</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>244</v>
+      </c>
+      <c r="C172" t="n">
+        <v>245</v>
+      </c>
+      <c r="D172" t="n">
+        <v>245</v>
+      </c>
+      <c r="E172" t="n">
+        <v>244</v>
+      </c>
+      <c r="F172" t="n">
+        <v>21</v>
+      </c>
+      <c r="G172" t="n">
+        <v>99853.01144884073</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>241</v>
+      </c>
+      <c r="C173" t="n">
+        <v>243</v>
+      </c>
+      <c r="D173" t="n">
+        <v>243</v>
+      </c>
+      <c r="E173" t="n">
+        <v>240</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2503.5988</v>
+      </c>
+      <c r="G173" t="n">
+        <v>97349.41264884072</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>239.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>242</v>
+      </c>
+      <c r="D174" t="n">
+        <v>242</v>
+      </c>
+      <c r="E174" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4120.7285</v>
+      </c>
+      <c r="G174" t="n">
+        <v>93228.68414884072</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>241</v>
+      </c>
+      <c r="C175" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>241</v>
+      </c>
+      <c r="F175" t="n">
+        <v>33</v>
+      </c>
+      <c r="G175" t="n">
+        <v>93261.68414884072</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>242</v>
+      </c>
+      <c r="C176" t="n">
+        <v>242</v>
+      </c>
+      <c r="D176" t="n">
+        <v>242</v>
+      </c>
+      <c r="E176" t="n">
+        <v>242</v>
+      </c>
+      <c r="F176" t="n">
+        <v>20</v>
+      </c>
+      <c r="G176" t="n">
+        <v>93241.68414884072</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="C177" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>134.929</v>
+      </c>
+      <c r="G177" t="n">
+        <v>93376.61314884073</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>239.9</v>
+      </c>
+      <c r="C178" t="n">
+        <v>242</v>
+      </c>
+      <c r="D178" t="n">
+        <v>242</v>
+      </c>
+      <c r="E178" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4826.3911</v>
+      </c>
+      <c r="G178" t="n">
+        <v>88550.22204884073</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>240</v>
+      </c>
+      <c r="C179" t="n">
+        <v>240</v>
+      </c>
+      <c r="D179" t="n">
+        <v>240</v>
+      </c>
+      <c r="E179" t="n">
+        <v>240</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2</v>
+      </c>
+      <c r="G179" t="n">
+        <v>88548.22204884073</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="C180" t="n">
+        <v>240</v>
+      </c>
+      <c r="D180" t="n">
+        <v>240</v>
+      </c>
+      <c r="E180" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="F180" t="n">
+        <v>492.4577</v>
+      </c>
+      <c r="G180" t="n">
+        <v>88548.22204884073</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="C181" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="E181" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3614.2244</v>
+      </c>
+      <c r="G181" t="n">
+        <v>84933.99764884073</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>240</v>
+      </c>
+      <c r="D182" t="n">
+        <v>240</v>
+      </c>
+      <c r="E182" t="n">
+        <v>237</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3876.5832</v>
+      </c>
+      <c r="G182" t="n">
+        <v>88810.58084884072</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>240</v>
+      </c>
+      <c r="C183" t="n">
+        <v>240</v>
+      </c>
+      <c r="D183" t="n">
+        <v>240</v>
+      </c>
+      <c r="E183" t="n">
+        <v>240</v>
+      </c>
+      <c r="F183" t="n">
+        <v>24</v>
+      </c>
+      <c r="G183" t="n">
+        <v>88810.58084884072</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>240</v>
+      </c>
+      <c r="C184" t="n">
+        <v>241</v>
+      </c>
+      <c r="D184" t="n">
+        <v>241</v>
+      </c>
+      <c r="E184" t="n">
+        <v>240</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3815.3681</v>
+      </c>
+      <c r="G184" t="n">
+        <v>92625.94894884073</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>240</v>
+      </c>
+      <c r="C185" t="n">
+        <v>240</v>
+      </c>
+      <c r="D185" t="n">
+        <v>240</v>
+      </c>
+      <c r="E185" t="n">
+        <v>240</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.2711</v>
+      </c>
+      <c r="G185" t="n">
+        <v>92625.67784884073</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3</v>
+      </c>
+      <c r="G186" t="n">
+        <v>92622.67784884073</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>240</v>
+      </c>
+      <c r="C187" t="n">
+        <v>240</v>
+      </c>
+      <c r="D187" t="n">
+        <v>240</v>
+      </c>
+      <c r="E187" t="n">
+        <v>240</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2</v>
+      </c>
+      <c r="G187" t="n">
+        <v>92624.67784884073</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>240</v>
+      </c>
+      <c r="D188" t="n">
+        <v>240</v>
+      </c>
+      <c r="E188" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>5864.2585</v>
+      </c>
+      <c r="G188" t="n">
+        <v>92624.67784884073</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="F189" t="n">
+        <v>35.511</v>
+      </c>
+      <c r="G189" t="n">
+        <v>92589.16684884073</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>240</v>
+      </c>
+      <c r="D190" t="n">
+        <v>240</v>
+      </c>
+      <c r="E190" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>743.2474</v>
+      </c>
+      <c r="G190" t="n">
+        <v>93332.41424884072</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>238</v>
+      </c>
+      <c r="C191" t="n">
+        <v>238</v>
+      </c>
+      <c r="D191" t="n">
+        <v>238</v>
+      </c>
+      <c r="E191" t="n">
+        <v>238</v>
+      </c>
+      <c r="F191" t="n">
+        <v>6</v>
+      </c>
+      <c r="G191" t="n">
+        <v>93326.41424884072</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>238</v>
+      </c>
+      <c r="C192" t="n">
+        <v>238</v>
+      </c>
+      <c r="D192" t="n">
+        <v>238</v>
+      </c>
+      <c r="E192" t="n">
+        <v>238</v>
+      </c>
+      <c r="F192" t="n">
+        <v>12</v>
+      </c>
+      <c r="G192" t="n">
+        <v>93326.41424884072</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>238</v>
+      </c>
+      <c r="C193" t="n">
+        <v>239</v>
+      </c>
+      <c r="D193" t="n">
+        <v>239</v>
+      </c>
+      <c r="E193" t="n">
+        <v>238</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4</v>
+      </c>
+      <c r="G193" t="n">
+        <v>93330.41424884072</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>238</v>
+      </c>
+      <c r="C194" t="n">
+        <v>238</v>
+      </c>
+      <c r="D194" t="n">
+        <v>238</v>
+      </c>
+      <c r="E194" t="n">
+        <v>238</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>93329.41424884072</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>238</v>
+      </c>
+      <c r="C195" t="n">
+        <v>239</v>
+      </c>
+      <c r="D195" t="n">
+        <v>242</v>
+      </c>
+      <c r="E195" t="n">
+        <v>238</v>
+      </c>
+      <c r="F195" t="n">
+        <v>275.2759</v>
+      </c>
+      <c r="G195" t="n">
+        <v>93604.69014884072</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>240</v>
+      </c>
+      <c r="C196" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="D196" t="n">
+        <v>242.9</v>
+      </c>
+      <c r="E196" t="n">
+        <v>240</v>
+      </c>
+      <c r="F196" t="n">
+        <v>180.4396</v>
+      </c>
+      <c r="G196" t="n">
+        <v>93785.12974884071</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>242</v>
+      </c>
+      <c r="C197" t="n">
+        <v>242</v>
+      </c>
+      <c r="D197" t="n">
+        <v>242</v>
+      </c>
+      <c r="E197" t="n">
+        <v>242</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2</v>
+      </c>
+      <c r="G197" t="n">
+        <v>93783.12974884071</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>238</v>
+      </c>
+      <c r="C198" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>238</v>
+      </c>
+      <c r="E198" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5305.1295</v>
+      </c>
+      <c r="G198" t="n">
+        <v>88478.00024884072</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>238</v>
+      </c>
+      <c r="C199" t="n">
+        <v>238</v>
+      </c>
+      <c r="D199" t="n">
+        <v>238</v>
+      </c>
+      <c r="E199" t="n">
+        <v>238</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4</v>
+      </c>
+      <c r="G199" t="n">
+        <v>88482.00024884072</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>238</v>
+      </c>
+      <c r="C200" t="n">
+        <v>239</v>
+      </c>
+      <c r="D200" t="n">
+        <v>239</v>
+      </c>
+      <c r="E200" t="n">
+        <v>238</v>
+      </c>
+      <c r="F200" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>88498.10024884072</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>6094.7346</v>
+      </c>
+      <c r="G201" t="n">
+        <v>82403.36564884073</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>239</v>
+      </c>
+      <c r="C202" t="n">
+        <v>239</v>
+      </c>
+      <c r="D202" t="n">
+        <v>239</v>
+      </c>
+      <c r="E202" t="n">
+        <v>239</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2</v>
+      </c>
+      <c r="G202" t="n">
+        <v>82405.36564884073</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>239</v>
+      </c>
+      <c r="C203" t="n">
+        <v>239</v>
+      </c>
+      <c r="D203" t="n">
+        <v>239</v>
+      </c>
+      <c r="E203" t="n">
+        <v>239</v>
+      </c>
+      <c r="F203" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G203" t="n">
+        <v>82405.36564884073</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>239</v>
+      </c>
+      <c r="C204" t="n">
+        <v>239</v>
+      </c>
+      <c r="D204" t="n">
+        <v>239</v>
+      </c>
+      <c r="E204" t="n">
+        <v>239</v>
+      </c>
+      <c r="F204" t="n">
+        <v>30</v>
+      </c>
+      <c r="G204" t="n">
+        <v>82405.36564884073</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>240</v>
+      </c>
+      <c r="C205" t="n">
+        <v>240</v>
+      </c>
+      <c r="D205" t="n">
+        <v>240</v>
+      </c>
+      <c r="E205" t="n">
+        <v>240</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
+      <c r="G205" t="n">
+        <v>82407.36564884073</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-19 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-19 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -486,8 +486,12 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>237.8</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -519,9 +523,17 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -552,9 +564,17 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>236</v>
+      </c>
+      <c r="J5" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -585,9 +605,17 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>235.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -618,9 +646,17 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -651,9 +687,17 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -684,9 +728,17 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -717,9 +769,17 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>236.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,15 +808,19 @@
         <v>-43353.19982780084</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>236.9</v>
       </c>
       <c r="J11" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>237.8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -787,13 +851,15 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>238</v>
+      </c>
       <c r="J12" t="n">
-        <v>236.9</v>
+        <v>237.8</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -824,15 +890,15 @@
         <v>-43351.10772780084</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>236.9</v>
+        <v>237.8</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -863,11 +929,17 @@
         <v>-43351.10772780084</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -896,11 +968,17 @@
         <v>-49243.70552780083</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -929,11 +1007,17 @@
         <v>-49243.70552780083</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -962,11 +1046,17 @@
         <v>-49901.00552780084</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -995,11 +1085,17 @@
         <v>-58100.58112780083</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1028,11 +1124,17 @@
         <v>-58098.03112780083</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1061,11 +1163,17 @@
         <v>-59761.74832780083</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1094,11 +1202,17 @@
         <v>-59761.74832780083</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1129,9 +1243,17 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1160,15 +1282,17 @@
         <v>-62611.03102780083</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>235.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>237.8</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1197,17 +1321,17 @@
         <v>-64575.12402780083</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>237</v>
       </c>
       <c r="J24" t="n">
-        <v>235.9</v>
+        <v>237.8</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1240,13 +1364,15 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>236</v>
+      </c>
       <c r="J25" t="n">
-        <v>235.9</v>
+        <v>237.8</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1277,11 +1403,17 @@
         <v>-63706.22402780083</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1310,11 +1442,17 @@
         <v>-63624.48422780083</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1343,11 +1481,17 @@
         <v>-63624.48422780083</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1376,11 +1520,17 @@
         <v>-63624.48422780083</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1409,11 +1559,17 @@
         <v>-63450.03702780083</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1442,11 +1598,17 @@
         <v>-64737.83402780083</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1475,11 +1637,17 @@
         <v>-63725.00412780083</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1508,11 +1676,17 @@
         <v>-54186.00412780083</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1541,11 +1715,17 @@
         <v>-53686.00412780083</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1577,8 +1757,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1610,8 +1796,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1643,8 +1835,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1673,15 +1871,17 @@
         <v>-56055.28112780083</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>241</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>241</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>237.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1710,15 +1910,15 @@
         <v>-56334.14362780083</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>241</v>
+        <v>237.8</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1749,15 +1949,15 @@
         <v>-54652.64362780083</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>241</v>
+        <v>237.8</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1788,11 +1988,17 @@
         <v>-54652.64362780083</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1821,11 +2027,17 @@
         <v>-53716.39792780083</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1854,11 +2066,17 @@
         <v>-53716.39792780083</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1887,11 +2105,17 @@
         <v>-53716.39792780083</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1920,15 +2144,17 @@
         <v>-53716.39792780083</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>240</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>237.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1957,17 +2183,15 @@
         <v>-55404.35722780084</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -1998,13 +2222,11 @@
         <v>-55404.35722780084</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2039,13 +2261,11 @@
         <v>-53668.78822780083</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2080,13 +2300,11 @@
         <v>-53688.78822780083</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2121,13 +2339,11 @@
         <v>-53688.78822780083</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2162,13 +2378,11 @@
         <v>-53688.78822780083</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2203,13 +2417,11 @@
         <v>-53688.78822780083</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2244,13 +2456,11 @@
         <v>-53668.78822780083</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2285,13 +2495,11 @@
         <v>-49579.79992780084</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2326,13 +2534,11 @@
         <v>-49985.36212780084</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2367,13 +2573,11 @@
         <v>-49985.36212780084</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2408,13 +2612,11 @@
         <v>-49640.86212780084</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2453,7 +2655,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2492,7 +2694,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2531,7 +2733,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2566,11 +2768,11 @@
         <v>-49528.31212780083</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2605,11 +2807,11 @@
         <v>-49548.31212780083</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2644,11 +2846,11 @@
         <v>-49548.31212780083</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2683,11 +2885,11 @@
         <v>-15019.54632780083</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2722,11 +2924,11 @@
         <v>-18560.14732780083</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2761,11 +2963,11 @@
         <v>-18560.14732780083</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2804,7 +3006,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2843,7 +3045,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2882,7 +3084,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2921,7 +3123,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2960,7 +3162,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2995,13 +3197,13 @@
         <v>-15749.84732780083</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>237</v>
       </c>
       <c r="J72" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3036,13 +3238,11 @@
         <v>-13742.84732780083</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>240.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3077,13 +3277,11 @@
         <v>29926.14867219917</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>241.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3118,13 +3316,11 @@
         <v>29926.14867219917</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3163,7 +3359,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3202,7 +3398,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3241,7 +3437,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3280,7 +3476,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3319,7 +3515,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3358,7 +3554,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3397,7 +3593,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3436,7 +3632,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3475,7 +3671,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3514,7 +3710,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3553,7 +3749,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3592,7 +3788,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3631,7 +3827,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3670,7 +3866,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3709,7 +3905,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3744,23 +3940,21 @@
         <v>123194.0997721991</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>240</v>
+        <v>237.8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.074166666666667</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.022052586938083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3788,8 +3982,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3821,8 +4021,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3854,8 +4060,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4099,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3917,11 +4135,17 @@
         <v>137716.2239721991</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3953,8 +4177,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3986,8 +4216,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4019,8 +4255,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4052,8 +4294,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4085,8 +4333,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4118,8 +4372,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4148,15 +4408,23 @@
         <v>152412.9095488407</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>1.071534903280067</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.008481764206955</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4214,7 +4482,7 @@
         <v>165805.6390488406</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4247,7 +4515,7 @@
         <v>164026.7390488407</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4280,7 +4548,7 @@
         <v>150059.8717488406</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4313,7 +4581,7 @@
         <v>150061.8717488406</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4346,7 +4614,7 @@
         <v>138041.6177488407</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4379,7 +4647,7 @@
         <v>150354.2324488407</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4412,7 +4680,7 @@
         <v>148357.0324488406</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4445,7 +4713,7 @@
         <v>148375.0324488406</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4478,7 +4746,7 @@
         <v>149104.0324488406</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4544,7 +4812,7 @@
         <v>146266.3972488407</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4577,7 +4845,7 @@
         <v>142407.6129488407</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4610,7 +4878,7 @@
         <v>142409.6129488407</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4643,7 +4911,7 @@
         <v>141210.1278488407</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4676,7 +4944,7 @@
         <v>141212.1278488407</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4709,7 +4977,7 @@
         <v>141214.1278488407</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4742,7 +5010,7 @@
         <v>141219.1278488407</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4775,7 +5043,7 @@
         <v>141219.1278488407</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4808,7 +5076,7 @@
         <v>132048.7708488407</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4874,7 +5142,7 @@
         <v>132046.9010488407</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4907,7 +5175,7 @@
         <v>132048.9010488407</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4940,7 +5208,7 @@
         <v>125429.8453488407</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4973,7 +5241,7 @@
         <v>125429.8453488407</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5006,7 +5274,7 @@
         <v>130196.3252488407</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5039,7 +5307,7 @@
         <v>129885.6975488407</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5435,7 +5703,7 @@
         <v>115332.0756488407</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -6689,7 +6957,7 @@
         <v>88548.22204884073</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6722,7 +6990,7 @@
         <v>84933.99764884073</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6788,7 +7056,7 @@
         <v>88810.58084884072</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6821,7 +7089,7 @@
         <v>92625.94894884073</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7118,7 +7386,7 @@
         <v>93330.41424884072</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7283,7 +7551,7 @@
         <v>88478.00024884072</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7481,7 +7749,7 @@
         <v>82405.36564884073</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7525,6 +7793,6 @@
       <c r="M205" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-19 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-49017.39362780083</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-49017.39362780083</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-53015.49672780083</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-53163.50632780083</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>236</v>
-      </c>
-      <c r="J5" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-53052.56042780083</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-51851.22362780083</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-51851.22362780083</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>-50594.02362780084</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>-50594.02362780084</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>-43353.19982780084</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>-43353.19982780084</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>238</v>
-      </c>
-      <c r="J12" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -893,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -932,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -971,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1010,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1049,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1088,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1127,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1166,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1202,17 +1078,15 @@
         <v>-59761.74832780083</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>236.1</v>
+      </c>
       <c r="J21" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>236.1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1247,11 +1121,11 @@
         <v>236.1</v>
       </c>
       <c r="J22" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1282,11 +1156,13 @@
         <v>-62611.03102780083</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>235.9</v>
+      </c>
       <c r="J23" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1327,7 +1203,7 @@
         <v>237</v>
       </c>
       <c r="J24" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1368,7 +1244,7 @@
         <v>236</v>
       </c>
       <c r="J25" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1403,11 +1279,13 @@
         <v>-63706.22402780083</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>237</v>
+      </c>
       <c r="J26" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1446,7 +1324,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1481,11 +1359,13 @@
         <v>-63624.48422780083</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>238</v>
+      </c>
       <c r="J28" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1520,11 +1400,13 @@
         <v>-63624.48422780083</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>238</v>
+      </c>
       <c r="J29" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1559,11 +1441,13 @@
         <v>-63450.03702780083</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>238</v>
+      </c>
       <c r="J30" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1598,11 +1482,13 @@
         <v>-64737.83402780083</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>238.2</v>
+      </c>
       <c r="J31" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1637,11 +1523,13 @@
         <v>-63725.00412780083</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>238</v>
+      </c>
       <c r="J32" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1676,11 +1564,13 @@
         <v>-54186.00412780083</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>238.2</v>
+      </c>
       <c r="J33" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1715,11 +1605,13 @@
         <v>-53686.00412780083</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>238.8</v>
+      </c>
       <c r="J34" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1758,7 +1650,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1797,7 +1689,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1836,7 +1728,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1875,7 +1767,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1914,7 +1806,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1953,7 +1845,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1992,7 +1884,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2031,7 +1923,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2070,7 +1962,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2109,7 +2001,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2148,7 +2040,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2187,7 +2079,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2226,7 +2118,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2265,7 +2157,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2304,7 +2196,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2339,11 +2231,13 @@
         <v>-53688.78822780083</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>238</v>
+      </c>
       <c r="J50" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2378,11 +2272,13 @@
         <v>-53688.78822780083</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>238</v>
+      </c>
       <c r="J51" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2417,11 +2313,13 @@
         <v>-53688.78822780083</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>238</v>
+      </c>
       <c r="J52" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2456,11 +2354,13 @@
         <v>-53668.78822780083</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>238</v>
+      </c>
       <c r="J53" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2495,11 +2395,13 @@
         <v>-49579.79992780084</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>239</v>
+      </c>
       <c r="J54" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2538,7 +2440,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2573,11 +2475,13 @@
         <v>-49985.36212780084</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>239</v>
+      </c>
       <c r="J56" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2616,7 +2520,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2655,7 +2559,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2694,7 +2598,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2733,7 +2637,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2772,7 +2676,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2811,7 +2715,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2850,7 +2754,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2889,7 +2793,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2928,7 +2832,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2967,7 +2871,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3006,7 +2910,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3045,7 +2949,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3084,7 +2988,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3123,7 +3027,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3162,7 +3066,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3197,13 +3101,11 @@
         <v>-15749.84732780083</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3242,7 +3144,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3281,7 +3183,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3320,7 +3222,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3359,7 +3261,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3398,7 +3300,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3437,7 +3339,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3476,7 +3378,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3515,7 +3417,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3554,7 +3456,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3593,7 +3495,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3632,7 +3534,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3671,7 +3573,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3710,7 +3612,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3749,7 +3651,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3788,7 +3690,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3827,7 +3729,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3866,7 +3768,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3905,7 +3807,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3944,7 +3846,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3983,7 +3885,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4022,7 +3924,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4061,7 +3963,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4100,7 +4002,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4139,7 +4041,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4178,7 +4080,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4217,7 +4119,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4256,7 +4158,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4295,7 +4197,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4334,7 +4236,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4373,7 +4275,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4408,23 +4310,21 @@
         <v>152412.9095488407</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>237.8</v>
+        <v>236.1</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.071534903280067</v>
-      </c>
-      <c r="M103" t="n">
-        <v>1.008481764206955</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4452,8 +4352,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4482,11 +4388,17 @@
         <v>165805.6390488406</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4518,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4548,11 +4466,17 @@
         <v>150059.8717488406</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4584,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4614,11 +4544,17 @@
         <v>138041.6177488407</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4647,11 +4583,17 @@
         <v>150354.2324488407</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4680,11 +4622,17 @@
         <v>148357.0324488406</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4713,11 +4661,17 @@
         <v>148375.0324488406</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4746,11 +4700,17 @@
         <v>149104.0324488406</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4782,8 +4742,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4812,11 +4778,17 @@
         <v>146266.3972488407</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4845,11 +4817,17 @@
         <v>142407.6129488407</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4878,11 +4856,17 @@
         <v>142409.6129488407</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4914,10 +4898,16 @@
         <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>1.011518424396442</v>
       </c>
       <c r="M118" t="inlineStr"/>
     </row>
@@ -4977,7 +4967,7 @@
         <v>141214.1278488407</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5076,7 +5066,7 @@
         <v>132048.7708488407</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5142,7 +5132,7 @@
         <v>132046.9010488407</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5175,7 +5165,7 @@
         <v>132048.9010488407</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5208,7 +5198,7 @@
         <v>125429.8453488407</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5241,7 +5231,7 @@
         <v>125429.8453488407</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5703,7 +5693,7 @@
         <v>115332.0756488407</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -7793,6 +7783,6 @@
       <c r="M205" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-19 BackTest VALOR.xlsx
@@ -451,7 +451,7 @@
         <v>-49017.39362780083</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-49017.39362780083</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>237.8</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-53015.49672780083</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-53163.50632780083</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>236</v>
+      </c>
+      <c r="J5" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-53052.56042780083</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>235.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-51851.22362780083</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>-51851.22362780083</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>-50594.02362780084</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>-50594.02362780084</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>236.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>-43353.19982780084</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>236.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>-43353.19982780084</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>238</v>
+      </c>
+      <c r="J12" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>-43351.10772780084</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>238</v>
+      </c>
+      <c r="J13" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>-43351.10772780084</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>239</v>
+      </c>
+      <c r="J14" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>-49243.70552780083</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>239</v>
+      </c>
+      <c r="J15" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1013,19 @@
         <v>-49243.70552780083</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>238</v>
+      </c>
+      <c r="J16" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1057,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1093,19 @@
         <v>-58100.58112780083</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1134,19 @@
         <v>-58098.03112780083</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1178,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1084,9 +1220,13 @@
         <v>236.1</v>
       </c>
       <c r="J21" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>237.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1121,11 +1261,11 @@
         <v>236.1</v>
       </c>
       <c r="J22" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1162,7 +1302,7 @@
         <v>235.9</v>
       </c>
       <c r="J23" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1203,7 +1343,7 @@
         <v>237</v>
       </c>
       <c r="J24" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1244,7 +1384,7 @@
         <v>236</v>
       </c>
       <c r="J25" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1285,7 +1425,7 @@
         <v>237</v>
       </c>
       <c r="J26" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1324,7 +1464,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1359,13 +1499,11 @@
         <v>-63624.48422780083</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1400,13 +1538,11 @@
         <v>-63624.48422780083</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1441,13 +1577,11 @@
         <v>-63450.03702780083</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1482,13 +1616,11 @@
         <v>-64737.83402780083</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1529,7 +1661,7 @@
         <v>238</v>
       </c>
       <c r="J32" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1570,7 +1702,7 @@
         <v>238.2</v>
       </c>
       <c r="J33" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1605,13 +1737,11 @@
         <v>-53686.00412780083</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1650,7 +1780,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1689,7 +1819,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1728,7 +1858,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1767,7 +1897,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1806,7 +1936,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1845,7 +1975,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1880,11 +2010,13 @@
         <v>-54652.64362780083</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>239.3</v>
+      </c>
       <c r="J41" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1919,11 +2051,13 @@
         <v>-53716.39792780083</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>239.3</v>
+      </c>
       <c r="J42" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1962,7 +2096,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2001,7 +2135,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2040,7 +2174,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2079,7 +2213,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2114,11 +2248,13 @@
         <v>-55404.35722780084</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>238</v>
+      </c>
       <c r="J47" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2153,11 +2289,13 @@
         <v>-53668.78822780083</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>238</v>
+      </c>
       <c r="J48" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2192,11 +2330,13 @@
         <v>-53688.78822780083</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>239</v>
+      </c>
       <c r="J49" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2237,7 +2377,7 @@
         <v>238</v>
       </c>
       <c r="J50" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2278,7 +2418,7 @@
         <v>238</v>
       </c>
       <c r="J51" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2319,7 +2459,7 @@
         <v>238</v>
       </c>
       <c r="J52" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2360,7 +2500,7 @@
         <v>238</v>
       </c>
       <c r="J53" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2401,7 +2541,7 @@
         <v>239</v>
       </c>
       <c r="J54" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2436,11 +2576,13 @@
         <v>-49985.36212780084</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>240</v>
+      </c>
       <c r="J55" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2481,7 +2623,7 @@
         <v>239</v>
       </c>
       <c r="J56" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2516,11 +2658,13 @@
         <v>-49640.86212780084</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>239</v>
+      </c>
       <c r="J57" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2555,11 +2699,13 @@
         <v>-49640.86212780084</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>241</v>
+      </c>
       <c r="J58" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2594,11 +2740,13 @@
         <v>-49577.31212780083</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>241</v>
+      </c>
       <c r="J59" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2633,11 +2781,13 @@
         <v>-49574.31212780083</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>242.3</v>
+      </c>
       <c r="J60" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2672,11 +2822,13 @@
         <v>-49528.31212780083</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>242.4</v>
+      </c>
       <c r="J61" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2711,11 +2863,13 @@
         <v>-49548.31212780083</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>242.6</v>
+      </c>
       <c r="J62" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2750,11 +2904,13 @@
         <v>-49548.31212780083</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>241</v>
+      </c>
       <c r="J63" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2789,11 +2945,13 @@
         <v>-15019.54632780083</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>241</v>
+      </c>
       <c r="J64" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2832,7 +2990,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2871,7 +3029,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2910,7 +3068,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2949,7 +3107,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2988,7 +3146,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3027,7 +3185,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3062,11 +3220,13 @@
         <v>-21560.14732780083</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>237</v>
+      </c>
       <c r="J71" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3105,7 +3265,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3144,7 +3304,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3183,7 +3343,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3222,7 +3382,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3261,7 +3421,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3300,7 +3460,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3339,7 +3499,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3378,7 +3538,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3417,7 +3577,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3456,7 +3616,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3495,7 +3655,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3534,7 +3694,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3573,7 +3733,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3612,7 +3772,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3651,7 +3811,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3690,7 +3850,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3729,7 +3889,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3768,7 +3928,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3807,7 +3967,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3846,7 +4006,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3885,7 +4045,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3924,7 +4084,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3963,7 +4123,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4002,7 +4162,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4041,7 +4201,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4080,7 +4240,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4119,7 +4279,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4154,21 +4314,23 @@
         <v>148383.6688488406</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>236.1</v>
+        <v>237.8</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>1.067329688814129</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.008481764206955</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4196,14 +4358,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4235,14 +4391,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4274,14 +4424,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4313,14 +4457,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4352,14 +4490,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4391,14 +4523,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4427,17 +4553,11 @@
         <v>164026.7390488407</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4466,17 +4586,11 @@
         <v>150059.8717488406</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4508,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4547,14 +4655,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4586,14 +4688,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4625,14 +4721,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4664,14 +4754,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4703,14 +4787,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4742,14 +4820,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4781,14 +4853,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4820,14 +4886,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4859,14 +4919,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4895,19 +4949,13 @@
         <v>141210.1278488407</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>1.011518424396442</v>
+        <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
     </row>
@@ -4934,7 +4982,7 @@
         <v>141212.1278488407</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5000,7 +5048,7 @@
         <v>141219.1278488407</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5033,7 +5081,7 @@
         <v>141219.1278488407</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5264,7 +5312,7 @@
         <v>130196.3252488407</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5297,7 +5345,7 @@
         <v>129885.6975488407</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>

--- a/BackTest/2020-01-19 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-19 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:L205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>9.513999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>-49017.39362780083</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>1468.9807</v>
       </c>
       <c r="G3" t="n">
-        <v>-49017.39362780083</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,21 @@
         <v>3998.1031</v>
       </c>
       <c r="G4" t="n">
-        <v>-53015.49672780083</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>237.8</v>
       </c>
-      <c r="J4" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +539,21 @@
         <v>148.0096</v>
       </c>
       <c r="G5" t="n">
-        <v>-53163.50632780083</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>236</v>
       </c>
-      <c r="J5" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +575,21 @@
         <v>110.9459</v>
       </c>
       <c r="G6" t="n">
-        <v>-53052.56042780083</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
         <v>235.9</v>
       </c>
-      <c r="J6" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +611,19 @@
         <v>1201.3368</v>
       </c>
       <c r="G7" t="n">
-        <v>-51851.22362780083</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +645,19 @@
         <v>3152.0904</v>
       </c>
       <c r="G8" t="n">
-        <v>-51851.22362780083</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +679,19 @@
         <v>1257.2</v>
       </c>
       <c r="G9" t="n">
-        <v>-50594.02362780084</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +713,19 @@
         <v>942.9</v>
       </c>
       <c r="G10" t="n">
-        <v>-50594.02362780084</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +747,19 @@
         <v>7240.8238</v>
       </c>
       <c r="G11" t="n">
-        <v>-43353.19982780084</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +781,19 @@
         <v>1066.8927</v>
       </c>
       <c r="G12" t="n">
-        <v>-43353.19982780084</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>238</v>
-      </c>
-      <c r="J12" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +815,19 @@
         <v>2.0921</v>
       </c>
       <c r="G13" t="n">
-        <v>-43351.10772780084</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>238</v>
-      </c>
-      <c r="J13" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +849,19 @@
         <v>498.1079</v>
       </c>
       <c r="G14" t="n">
-        <v>-43351.10772780084</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>239</v>
-      </c>
-      <c r="J14" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,26 +883,19 @@
         <v>5892.5978</v>
       </c>
       <c r="G15" t="n">
-        <v>-49243.70552780083</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>239</v>
-      </c>
-      <c r="J15" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,26 +917,19 @@
         <v>7542.6238</v>
       </c>
       <c r="G16" t="n">
-        <v>-49243.70552780083</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>238</v>
-      </c>
-      <c r="J16" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1051,24 +951,19 @@
         <v>657.3</v>
       </c>
       <c r="G17" t="n">
-        <v>-49901.00552780084</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1090,26 +985,19 @@
         <v>8199.5756</v>
       </c>
       <c r="G18" t="n">
-        <v>-58100.58112780083</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1131,26 +1019,19 @@
         <v>2.55</v>
       </c>
       <c r="G19" t="n">
-        <v>-58098.03112780083</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1172,24 +1053,19 @@
         <v>1663.7172</v>
       </c>
       <c r="G20" t="n">
-        <v>-59761.74832780083</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1211,26 +1087,19 @@
         <v>2015.2074</v>
       </c>
       <c r="G21" t="n">
-        <v>-59761.74832780083</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1252,26 +1121,19 @@
         <v>6551.1842</v>
       </c>
       <c r="G22" t="n">
-        <v>-66312.93252780083</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1293,26 +1155,21 @@
         <v>3701.9015</v>
       </c>
       <c r="G23" t="n">
-        <v>-62611.03102780083</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
         <v>235.9</v>
       </c>
-      <c r="J23" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1334,26 +1191,21 @@
         <v>1964.093</v>
       </c>
       <c r="G24" t="n">
-        <v>-64575.12402780083</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
         <v>237</v>
       </c>
-      <c r="J24" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1375,26 +1227,21 @@
         <v>868.9</v>
       </c>
       <c r="G25" t="n">
-        <v>-63706.22402780083</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
         <v>236</v>
       </c>
-      <c r="J25" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1416,26 +1263,21 @@
         <v>2381.9468</v>
       </c>
       <c r="G26" t="n">
-        <v>-63706.22402780083</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
         <v>237</v>
       </c>
-      <c r="J26" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1457,24 +1299,21 @@
         <v>81.7398</v>
       </c>
       <c r="G27" t="n">
-        <v>-63624.48422780083</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1496,24 +1335,21 @@
         <v>1757.4543</v>
       </c>
       <c r="G28" t="n">
-        <v>-63624.48422780083</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1535,24 +1371,19 @@
         <v>2000</v>
       </c>
       <c r="G29" t="n">
-        <v>-63624.48422780083</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1574,24 +1405,19 @@
         <v>174.4472</v>
       </c>
       <c r="G30" t="n">
-        <v>-63450.03702780083</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1613,24 +1439,19 @@
         <v>1287.797</v>
       </c>
       <c r="G31" t="n">
-        <v>-64737.83402780083</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1652,26 +1473,19 @@
         <v>1012.8299</v>
       </c>
       <c r="G32" t="n">
-        <v>-63725.00412780083</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>238</v>
-      </c>
-      <c r="J32" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1693,26 +1507,19 @@
         <v>9539</v>
       </c>
       <c r="G33" t="n">
-        <v>-54186.00412780083</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>238.2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1734,24 +1541,19 @@
         <v>500</v>
       </c>
       <c r="G34" t="n">
-        <v>-53686.00412780083</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1773,24 +1575,19 @@
         <v>15928.1241</v>
       </c>
       <c r="G35" t="n">
-        <v>-53686.00412780083</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1812,24 +1609,19 @@
         <v>6.277</v>
       </c>
       <c r="G36" t="n">
-        <v>-53692.28112780083</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1851,24 +1643,19 @@
         <v>1000</v>
       </c>
       <c r="G37" t="n">
-        <v>-52692.28112780083</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1890,24 +1677,19 @@
         <v>3363</v>
       </c>
       <c r="G38" t="n">
-        <v>-56055.28112780083</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1929,24 +1711,19 @@
         <v>278.8625</v>
       </c>
       <c r="G39" t="n">
-        <v>-56334.14362780083</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1968,24 +1745,19 @@
         <v>1681.5</v>
       </c>
       <c r="G40" t="n">
-        <v>-54652.64362780083</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2007,26 +1779,19 @@
         <v>324.9543</v>
       </c>
       <c r="G41" t="n">
-        <v>-54652.64362780083</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2048,26 +1813,19 @@
         <v>936.2457000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-53716.39792780083</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2089,24 +1847,19 @@
         <v>3879.3887</v>
       </c>
       <c r="G43" t="n">
-        <v>-53716.39792780083</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2128,24 +1881,19 @@
         <v>1967.7824</v>
       </c>
       <c r="G44" t="n">
-        <v>-53716.39792780083</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2167,24 +1915,19 @@
         <v>368.9</v>
       </c>
       <c r="G45" t="n">
-        <v>-53716.39792780083</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2206,24 +1949,19 @@
         <v>1687.9593</v>
       </c>
       <c r="G46" t="n">
-        <v>-55404.35722780084</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2245,26 +1983,19 @@
         <v>15930.4832</v>
       </c>
       <c r="G47" t="n">
-        <v>-55404.35722780084</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>238</v>
-      </c>
-      <c r="J47" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2286,26 +2017,19 @@
         <v>1735.569</v>
       </c>
       <c r="G48" t="n">
-        <v>-53668.78822780083</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>238</v>
-      </c>
-      <c r="J48" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2327,26 +2051,19 @@
         <v>20</v>
       </c>
       <c r="G49" t="n">
-        <v>-53688.78822780083</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>239</v>
-      </c>
-      <c r="J49" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2368,26 +2085,19 @@
         <v>893.2301</v>
       </c>
       <c r="G50" t="n">
-        <v>-53688.78822780083</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>238</v>
-      </c>
-      <c r="J50" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2409,26 +2119,19 @@
         <v>484.1117</v>
       </c>
       <c r="G51" t="n">
-        <v>-53688.78822780083</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>238</v>
-      </c>
-      <c r="J51" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2450,26 +2153,19 @@
         <v>1650.1442</v>
       </c>
       <c r="G52" t="n">
-        <v>-53688.78822780083</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>238</v>
-      </c>
-      <c r="J52" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2491,26 +2187,19 @@
         <v>20</v>
       </c>
       <c r="G53" t="n">
-        <v>-53668.78822780083</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>238</v>
-      </c>
-      <c r="J53" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2532,26 +2221,19 @@
         <v>4088.9883</v>
       </c>
       <c r="G54" t="n">
-        <v>-49579.79992780084</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>239</v>
-      </c>
-      <c r="J54" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2573,26 +2255,19 @@
         <v>405.5622</v>
       </c>
       <c r="G55" t="n">
-        <v>-49985.36212780084</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>240</v>
-      </c>
-      <c r="J55" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2614,26 +2289,19 @@
         <v>1148.2</v>
       </c>
       <c r="G56" t="n">
-        <v>-49985.36212780084</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>239</v>
-      </c>
-      <c r="J56" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2655,26 +2323,19 @@
         <v>344.5</v>
       </c>
       <c r="G57" t="n">
-        <v>-49640.86212780084</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>239</v>
-      </c>
-      <c r="J57" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2696,26 +2357,19 @@
         <v>30</v>
       </c>
       <c r="G58" t="n">
-        <v>-49640.86212780084</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>241</v>
-      </c>
-      <c r="J58" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2737,26 +2391,19 @@
         <v>63.55</v>
       </c>
       <c r="G59" t="n">
-        <v>-49577.31212780083</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>241</v>
-      </c>
-      <c r="J59" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2778,26 +2425,19 @@
         <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>-49574.31212780083</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>242.3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2819,26 +2459,19 @@
         <v>46</v>
       </c>
       <c r="G61" t="n">
-        <v>-49528.31212780083</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>242.4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2860,26 +2493,19 @@
         <v>20</v>
       </c>
       <c r="G62" t="n">
-        <v>-49548.31212780083</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>242.6</v>
-      </c>
-      <c r="J62" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2901,26 +2527,19 @@
         <v>30</v>
       </c>
       <c r="G63" t="n">
-        <v>-49548.31212780083</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>241</v>
-      </c>
-      <c r="J63" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2942,26 +2561,19 @@
         <v>34528.7658</v>
       </c>
       <c r="G64" t="n">
-        <v>-15019.54632780083</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>241</v>
-      </c>
-      <c r="J64" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2983,24 +2595,19 @@
         <v>3540.601</v>
       </c>
       <c r="G65" t="n">
-        <v>-18560.14732780083</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3022,24 +2629,19 @@
         <v>1600</v>
       </c>
       <c r="G66" t="n">
-        <v>-18560.14732780083</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3061,24 +2663,19 @@
         <v>857.4233</v>
       </c>
       <c r="G67" t="n">
-        <v>-18560.14732780083</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3100,24 +2697,19 @@
         <v>1054.2</v>
       </c>
       <c r="G68" t="n">
-        <v>-18560.14732780083</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3139,24 +2731,19 @@
         <v>776.7584000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-18560.14732780083</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3178,24 +2765,19 @@
         <v>3000</v>
       </c>
       <c r="G70" t="n">
-        <v>-21560.14732780083</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3217,26 +2799,19 @@
         <v>141.4093</v>
       </c>
       <c r="G71" t="n">
-        <v>-21560.14732780083</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>237</v>
-      </c>
-      <c r="J71" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3258,24 +2833,19 @@
         <v>5810.3</v>
       </c>
       <c r="G72" t="n">
-        <v>-15749.84732780083</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3297,24 +2867,19 @@
         <v>2007</v>
       </c>
       <c r="G73" t="n">
-        <v>-13742.84732780083</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3336,24 +2901,19 @@
         <v>43668.996</v>
       </c>
       <c r="G74" t="n">
-        <v>29926.14867219917</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3375,24 +2935,19 @@
         <v>10323.2002</v>
       </c>
       <c r="G75" t="n">
-        <v>29926.14867219917</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3414,24 +2969,19 @@
         <v>12800.7842</v>
       </c>
       <c r="G76" t="n">
-        <v>29926.14867219917</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3453,24 +3003,19 @@
         <v>564.1583000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>29926.14867219917</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3492,24 +3037,19 @@
         <v>34767.6846</v>
       </c>
       <c r="G78" t="n">
-        <v>64693.83327219917</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3531,24 +3071,19 @@
         <v>3924.1801</v>
       </c>
       <c r="G79" t="n">
-        <v>68618.01337219917</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3570,24 +3105,19 @@
         <v>3787</v>
       </c>
       <c r="G80" t="n">
-        <v>68618.01337219917</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3609,24 +3139,19 @@
         <v>4094.826</v>
       </c>
       <c r="G81" t="n">
-        <v>68618.01337219917</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3648,24 +3173,19 @@
         <v>3977.2142</v>
       </c>
       <c r="G82" t="n">
-        <v>68618.01337219917</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3687,24 +3207,19 @@
         <v>5726.627</v>
       </c>
       <c r="G83" t="n">
-        <v>62891.38637219917</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3726,24 +3241,19 @@
         <v>6912.5958</v>
       </c>
       <c r="G84" t="n">
-        <v>55978.79057219917</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3765,24 +3275,19 @@
         <v>22572.0424</v>
       </c>
       <c r="G85" t="n">
-        <v>78550.83297219916</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3804,24 +3309,19 @@
         <v>621</v>
       </c>
       <c r="G86" t="n">
-        <v>78550.83297219916</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3843,24 +3343,19 @@
         <v>20748.5795</v>
       </c>
       <c r="G87" t="n">
-        <v>99299.41247219915</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3882,24 +3377,19 @@
         <v>15182.7355</v>
       </c>
       <c r="G88" t="n">
-        <v>114482.1479721991</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3921,24 +3411,19 @@
         <v>14066.996</v>
       </c>
       <c r="G89" t="n">
-        <v>128549.1439721991</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3960,24 +3445,19 @@
         <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>128547.1439721991</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3999,24 +3479,19 @@
         <v>5353.0442</v>
       </c>
       <c r="G91" t="n">
-        <v>123194.0997721991</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4038,24 +3513,19 @@
         <v>10491.8994</v>
       </c>
       <c r="G92" t="n">
-        <v>112702.2003721991</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4077,24 +3547,19 @@
         <v>14217.9644</v>
       </c>
       <c r="G93" t="n">
-        <v>126920.1647721991</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4116,24 +3581,19 @@
         <v>16.3983</v>
       </c>
       <c r="G94" t="n">
-        <v>126903.7664721991</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4155,24 +3615,19 @@
         <v>484.7</v>
       </c>
       <c r="G95" t="n">
-        <v>126419.0664721991</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4194,24 +3649,19 @@
         <v>11297.1575</v>
       </c>
       <c r="G96" t="n">
-        <v>137716.2239721991</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4233,24 +3683,19 @@
         <v>12191.61467664151</v>
       </c>
       <c r="G97" t="n">
-        <v>149907.8386488406</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4272,24 +3717,17 @@
         <v>22</v>
       </c>
       <c r="G98" t="n">
-        <v>149885.8386488406</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4311,26 +3749,15 @@
         <v>1502.1698</v>
       </c>
       <c r="G99" t="n">
-        <v>148383.6688488406</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1.067329688814129</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.008481764206955</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4352,18 +3779,15 @@
         <v>22</v>
       </c>
       <c r="G100" t="n">
-        <v>148361.6688488406</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4385,18 +3809,15 @@
         <v>3901.2</v>
       </c>
       <c r="G101" t="n">
-        <v>152262.8688488406</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4418,18 +3839,15 @@
         <v>150.0407</v>
       </c>
       <c r="G102" t="n">
-        <v>152412.9095488407</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4451,18 +3869,15 @@
         <v>28</v>
       </c>
       <c r="G103" t="n">
-        <v>152412.9095488407</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4484,18 +3899,15 @@
         <v>13397.7295</v>
       </c>
       <c r="G104" t="n">
-        <v>165810.6390488406</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4517,18 +3929,15 @@
         <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>165805.6390488406</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4550,18 +3959,15 @@
         <v>1778.9</v>
       </c>
       <c r="G106" t="n">
-        <v>164026.7390488407</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4583,18 +3989,15 @@
         <v>13966.8673</v>
       </c>
       <c r="G107" t="n">
-        <v>150059.8717488406</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4616,18 +4019,15 @@
         <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>150061.8717488406</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4649,18 +4049,15 @@
         <v>12020.254</v>
       </c>
       <c r="G109" t="n">
-        <v>138041.6177488407</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4682,18 +4079,15 @@
         <v>12312.6147</v>
       </c>
       <c r="G110" t="n">
-        <v>150354.2324488407</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4715,18 +4109,15 @@
         <v>1997.2</v>
       </c>
       <c r="G111" t="n">
-        <v>148357.0324488406</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4748,18 +4139,15 @@
         <v>18</v>
       </c>
       <c r="G112" t="n">
-        <v>148375.0324488406</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4781,18 +4169,15 @@
         <v>729</v>
       </c>
       <c r="G113" t="n">
-        <v>149104.0324488406</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4814,18 +4199,15 @@
         <v>2787.6352</v>
       </c>
       <c r="G114" t="n">
-        <v>146316.3972488407</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4847,18 +4229,15 @@
         <v>50</v>
       </c>
       <c r="G115" t="n">
-        <v>146266.3972488407</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4880,18 +4259,15 @@
         <v>3858.7843</v>
       </c>
       <c r="G116" t="n">
-        <v>142407.6129488407</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4913,18 +4289,15 @@
         <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>142409.6129488407</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4946,18 +4319,15 @@
         <v>1199.4851</v>
       </c>
       <c r="G118" t="n">
-        <v>141210.1278488407</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4979,18 +4349,15 @@
         <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>141212.1278488407</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5012,18 +4379,15 @@
         <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>141214.1278488407</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5045,18 +4409,15 @@
         <v>5</v>
       </c>
       <c r="G121" t="n">
-        <v>141219.1278488407</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5078,18 +4439,15 @@
         <v>12</v>
       </c>
       <c r="G122" t="n">
-        <v>141219.1278488407</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5111,18 +4469,15 @@
         <v>9170.357</v>
       </c>
       <c r="G123" t="n">
-        <v>132048.7708488407</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5144,18 +4499,15 @@
         <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>132050.7708488407</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5177,18 +4529,15 @@
         <v>3.8698</v>
       </c>
       <c r="G125" t="n">
-        <v>132046.9010488407</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5210,18 +4559,15 @@
         <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>132048.9010488407</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5243,18 +4589,15 @@
         <v>6619.0557</v>
       </c>
       <c r="G127" t="n">
-        <v>125429.8453488407</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5276,18 +4619,15 @@
         <v>128.0484</v>
       </c>
       <c r="G128" t="n">
-        <v>125429.8453488407</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5309,18 +4649,15 @@
         <v>4766.4799</v>
       </c>
       <c r="G129" t="n">
-        <v>130196.3252488407</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5342,18 +4679,15 @@
         <v>310.6277</v>
       </c>
       <c r="G130" t="n">
-        <v>129885.6975488407</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5375,18 +4709,15 @@
         <v>6660.05</v>
       </c>
       <c r="G131" t="n">
-        <v>136545.7475488407</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5408,18 +4739,15 @@
         <v>1392.6573</v>
       </c>
       <c r="G132" t="n">
-        <v>135153.0902488407</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5441,18 +4769,15 @@
         <v>62.6016</v>
       </c>
       <c r="G133" t="n">
-        <v>135090.4886488407</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5474,18 +4799,15 @@
         <v>2098.1563</v>
       </c>
       <c r="G134" t="n">
-        <v>132992.3323488407</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5507,18 +4829,15 @@
         <v>2769.2535</v>
       </c>
       <c r="G135" t="n">
-        <v>135761.5858488407</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5540,18 +4859,15 @@
         <v>3784.9</v>
       </c>
       <c r="G136" t="n">
-        <v>131976.6858488407</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5573,18 +4889,15 @@
         <v>2226.4</v>
       </c>
       <c r="G137" t="n">
-        <v>129750.2858488407</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5606,18 +4919,15 @@
         <v>404.1407</v>
       </c>
       <c r="G138" t="n">
-        <v>130154.4265488407</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5639,18 +4949,15 @@
         <v>15004</v>
       </c>
       <c r="G139" t="n">
-        <v>115150.4265488407</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5672,18 +4979,15 @@
         <v>22</v>
       </c>
       <c r="G140" t="n">
-        <v>115172.4265488407</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5705,18 +5009,15 @@
         <v>2104.4812</v>
       </c>
       <c r="G141" t="n">
-        <v>117276.9077488407</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5738,18 +5039,15 @@
         <v>1944.8321</v>
       </c>
       <c r="G142" t="n">
-        <v>115332.0756488407</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5771,18 +5069,15 @@
         <v>31</v>
       </c>
       <c r="G143" t="n">
-        <v>115301.0756488407</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5804,18 +5099,15 @@
         <v>2.5</v>
       </c>
       <c r="G144" t="n">
-        <v>115301.0756488407</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5837,18 +5129,15 @@
         <v>1591.6734</v>
       </c>
       <c r="G145" t="n">
-        <v>115301.0756488407</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5870,18 +5159,15 @@
         <v>2000</v>
       </c>
       <c r="G146" t="n">
-        <v>113301.0756488407</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5903,18 +5189,15 @@
         <v>122</v>
       </c>
       <c r="G147" t="n">
-        <v>113423.0756488407</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5936,18 +5219,15 @@
         <v>1437.814</v>
       </c>
       <c r="G148" t="n">
-        <v>111985.2616488407</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5969,18 +5249,15 @@
         <v>2</v>
       </c>
       <c r="G149" t="n">
-        <v>111987.2616488407</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6002,18 +5279,15 @@
         <v>2000</v>
       </c>
       <c r="G150" t="n">
-        <v>109987.2616488407</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6035,18 +5309,15 @@
         <v>3580.9214</v>
       </c>
       <c r="G151" t="n">
-        <v>106406.3402488407</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6068,18 +5339,15 @@
         <v>4262.3215</v>
       </c>
       <c r="G152" t="n">
-        <v>110668.6617488407</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6101,18 +5369,15 @@
         <v>2077</v>
       </c>
       <c r="G153" t="n">
-        <v>108591.6617488407</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6134,18 +5399,15 @@
         <v>3</v>
       </c>
       <c r="G154" t="n">
-        <v>108594.6617488407</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6167,18 +5429,15 @@
         <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>108596.6617488407</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6200,18 +5459,15 @@
         <v>150</v>
       </c>
       <c r="G156" t="n">
-        <v>108446.6617488407</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6233,18 +5489,15 @@
         <v>80</v>
       </c>
       <c r="G157" t="n">
-        <v>108526.6617488407</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6266,18 +5519,15 @@
         <v>70.295</v>
       </c>
       <c r="G158" t="n">
-        <v>108456.3667488407</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6299,18 +5549,15 @@
         <v>225.146</v>
       </c>
       <c r="G159" t="n">
-        <v>108681.5127488407</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6332,18 +5579,15 @@
         <v>8882.9295</v>
       </c>
       <c r="G160" t="n">
-        <v>99798.58324884072</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6365,18 +5609,15 @@
         <v>111.2345</v>
       </c>
       <c r="G161" t="n">
-        <v>99687.34874884071</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6398,18 +5639,15 @@
         <v>2829.4677</v>
       </c>
       <c r="G162" t="n">
-        <v>102516.8164488407</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6431,18 +5669,15 @@
         <v>1500</v>
       </c>
       <c r="G163" t="n">
-        <v>101016.8164488407</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6464,18 +5699,15 @@
         <v>500</v>
       </c>
       <c r="G164" t="n">
-        <v>100516.8164488407</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6497,18 +5729,15 @@
         <v>3</v>
       </c>
       <c r="G165" t="n">
-        <v>100519.8164488407</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6530,18 +5759,15 @@
         <v>815.6909000000001</v>
       </c>
       <c r="G166" t="n">
-        <v>101335.5073488407</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6563,18 +5789,15 @@
         <v>7023</v>
       </c>
       <c r="G167" t="n">
-        <v>94312.50734884071</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6596,18 +5819,15 @@
         <v>3310.1058</v>
       </c>
       <c r="G168" t="n">
-        <v>97622.61314884071</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6629,18 +5849,15 @@
         <v>990.1861</v>
       </c>
       <c r="G169" t="n">
-        <v>98612.79924884072</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6662,18 +5879,15 @@
         <v>555.8939</v>
       </c>
       <c r="G170" t="n">
-        <v>98056.90534884072</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6695,18 +5909,15 @@
         <v>1817.1061</v>
       </c>
       <c r="G171" t="n">
-        <v>99874.01144884073</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6728,18 +5939,15 @@
         <v>21</v>
       </c>
       <c r="G172" t="n">
-        <v>99853.01144884073</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6761,18 +5969,15 @@
         <v>2503.5988</v>
       </c>
       <c r="G173" t="n">
-        <v>97349.41264884072</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6794,18 +5999,15 @@
         <v>4120.7285</v>
       </c>
       <c r="G174" t="n">
-        <v>93228.68414884072</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6827,18 +6029,15 @@
         <v>33</v>
       </c>
       <c r="G175" t="n">
-        <v>93261.68414884072</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6860,18 +6059,15 @@
         <v>20</v>
       </c>
       <c r="G176" t="n">
-        <v>93241.68414884072</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6893,18 +6089,15 @@
         <v>134.929</v>
       </c>
       <c r="G177" t="n">
-        <v>93376.61314884073</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6926,18 +6119,15 @@
         <v>4826.3911</v>
       </c>
       <c r="G178" t="n">
-        <v>88550.22204884073</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6959,18 +6149,15 @@
         <v>2</v>
       </c>
       <c r="G179" t="n">
-        <v>88548.22204884073</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6992,18 +6179,15 @@
         <v>492.4577</v>
       </c>
       <c r="G180" t="n">
-        <v>88548.22204884073</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7025,18 +6209,15 @@
         <v>3614.2244</v>
       </c>
       <c r="G181" t="n">
-        <v>84933.99764884073</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7058,18 +6239,15 @@
         <v>3876.5832</v>
       </c>
       <c r="G182" t="n">
-        <v>88810.58084884072</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7091,18 +6269,15 @@
         <v>24</v>
       </c>
       <c r="G183" t="n">
-        <v>88810.58084884072</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7124,18 +6299,15 @@
         <v>3815.3681</v>
       </c>
       <c r="G184" t="n">
-        <v>92625.94894884073</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7157,18 +6329,15 @@
         <v>0.2711</v>
       </c>
       <c r="G185" t="n">
-        <v>92625.67784884073</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7190,18 +6359,15 @@
         <v>3</v>
       </c>
       <c r="G186" t="n">
-        <v>92622.67784884073</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7223,18 +6389,15 @@
         <v>2</v>
       </c>
       <c r="G187" t="n">
-        <v>92624.67784884073</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7256,18 +6419,15 @@
         <v>5864.2585</v>
       </c>
       <c r="G188" t="n">
-        <v>92624.67784884073</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7289,18 +6449,15 @@
         <v>35.511</v>
       </c>
       <c r="G189" t="n">
-        <v>92589.16684884073</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7322,18 +6479,15 @@
         <v>743.2474</v>
       </c>
       <c r="G190" t="n">
-        <v>93332.41424884072</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7355,18 +6509,15 @@
         <v>6</v>
       </c>
       <c r="G191" t="n">
-        <v>93326.41424884072</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7388,18 +6539,15 @@
         <v>12</v>
       </c>
       <c r="G192" t="n">
-        <v>93326.41424884072</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7421,18 +6569,15 @@
         <v>4</v>
       </c>
       <c r="G193" t="n">
-        <v>93330.41424884072</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7454,18 +6599,15 @@
         <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>93329.41424884072</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7487,18 +6629,15 @@
         <v>275.2759</v>
       </c>
       <c r="G195" t="n">
-        <v>93604.69014884072</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7520,18 +6659,15 @@
         <v>180.4396</v>
       </c>
       <c r="G196" t="n">
-        <v>93785.12974884071</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7553,18 +6689,15 @@
         <v>2</v>
       </c>
       <c r="G197" t="n">
-        <v>93783.12974884071</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7586,18 +6719,15 @@
         <v>5305.1295</v>
       </c>
       <c r="G198" t="n">
-        <v>88478.00024884072</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7619,18 +6749,15 @@
         <v>4</v>
       </c>
       <c r="G199" t="n">
-        <v>88482.00024884072</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7652,18 +6779,15 @@
         <v>16.1</v>
       </c>
       <c r="G200" t="n">
-        <v>88498.10024884072</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7685,18 +6809,15 @@
         <v>6094.7346</v>
       </c>
       <c r="G201" t="n">
-        <v>82403.36564884073</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7718,18 +6839,15 @@
         <v>2</v>
       </c>
       <c r="G202" t="n">
-        <v>82405.36564884073</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7751,18 +6869,15 @@
         <v>17.9</v>
       </c>
       <c r="G203" t="n">
-        <v>82405.36564884073</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7784,18 +6899,15 @@
         <v>30</v>
       </c>
       <c r="G204" t="n">
-        <v>82405.36564884073</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7817,18 +6929,15 @@
         <v>2</v>
       </c>
       <c r="G205" t="n">
-        <v>82407.36564884073</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
